--- a/tf_template.xlsx
+++ b/tf_template.xlsx
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="34">
-  <si>
-    <t>ali</t>
-  </si>
-  <si>
-    <t>ali_product</t>
-  </si>
-  <si>
-    <t>ali_arg</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+  <si>
+    <t>alicloud</t>
+  </si>
+  <si>
+    <t>alicloud_product</t>
+  </si>
+  <si>
+    <t>alicloud_arg</t>
   </si>
   <si>
     <t>tencentcloud</t>
@@ -62,10 +62,16 @@
     <t>alicloud_vpc</t>
   </si>
   <si>
+    <t>VPC</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>name</t>
+    <t>Virtual Private Cloud(VPC)</t>
   </si>
   <si>
     <t>cidr_block</t>
@@ -104,18 +110,30 @@
     <t>alicloud_nat_gateway</t>
   </si>
   <si>
+    <t>NAT Gateway</t>
+  </si>
+  <si>
+    <t>nat_type</t>
+  </si>
+  <si>
+    <t>VPN Gateway</t>
+  </si>
+  <si>
+    <t>vswitch_id</t>
+  </si>
+  <si>
     <t>specification</t>
   </si>
   <si>
-    <t>nat_type</t>
-  </si>
-  <si>
-    <t>vswitch_id</t>
-  </si>
-  <si>
     <t>alicloud_eip</t>
   </si>
   <si>
+    <t>Elastic IP Address (EIP)</t>
+  </si>
+  <si>
+    <t>Cloud Virtual Machine(CVM)</t>
+  </si>
+  <si>
     <t>alicloud_eip_association</t>
   </si>
   <si>
@@ -128,16 +146,346 @@
     <t>alicloud_snat_entry</t>
   </si>
   <si>
+    <t>depends_on</t>
+  </si>
+  <si>
+    <t>snat_table_id</t>
+  </si>
+  <si>
+    <t>source_vswitch_id</t>
+  </si>
+  <si>
     <t>snat_ip</t>
   </si>
   <si>
-    <t>depends_on</t>
-  </si>
-  <si>
-    <t>snat_table_id</t>
-  </si>
-  <si>
-    <t>source_vswitch_id</t>
+    <t>alicloud_key_pair</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>key_name</t>
+  </si>
+  <si>
+    <t>public_key</t>
+  </si>
+  <si>
+    <t>alicloud_security_group</t>
+  </si>
+  <si>
+    <t>inner_access_policy</t>
+  </si>
+  <si>
+    <t>alicloud_security_group_rule</t>
+  </si>
+  <si>
+    <t>cidr_ip</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>ip_protocol</t>
+  </si>
+  <si>
+    <t>nic_type</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>port_range</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>security_group_id</t>
+  </si>
+  <si>
+    <t>alicloud_db_instance</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>TencentDB for MySQL(cdb)</t>
+  </si>
+  <si>
+    <t>instance_type</t>
+  </si>
+  <si>
+    <t>security_ips</t>
+  </si>
+  <si>
+    <t>db_instance_storage_type</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>engine_version</t>
+  </si>
+  <si>
+    <t>instance_storage</t>
+  </si>
+  <si>
+    <t>alicloud_db_account</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>alicloud_instance</t>
+  </si>
+  <si>
+    <t>image_id</t>
+  </si>
+  <si>
+    <t>internet_max_bandwidth_out</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t>system_disk_category</t>
+  </si>
+  <si>
+    <t>volume_tags</t>
+  </si>
+  <si>
+    <t>host_name</t>
+  </si>
+  <si>
+    <t>security_groups</t>
+  </si>
+  <si>
+    <t>user_data</t>
+  </si>
+  <si>
+    <t>alicloud_nas_file_system</t>
+  </si>
+  <si>
+    <t>Network Attached Storage (NAS)</t>
+  </si>
+  <si>
+    <t>protocol_type</t>
+  </si>
+  <si>
+    <t>Cloud File Storage(CFS)</t>
+  </si>
+  <si>
+    <t>storage_type</t>
+  </si>
+  <si>
+    <t>alicloud_nas_access_group</t>
+  </si>
+  <si>
+    <t>access_group_name</t>
+  </si>
+  <si>
+    <t>access_group_type</t>
+  </si>
+  <si>
+    <t>alicloud_nas_access_rule</t>
+  </si>
+  <si>
+    <t>source_cidr_ip</t>
+  </si>
+  <si>
+    <t>rw_access_type</t>
+  </si>
+  <si>
+    <t>user_access_type</t>
+  </si>
+  <si>
+    <t>alicloud_nas_mount_target</t>
+  </si>
+  <si>
+    <t>file_system_id</t>
+  </si>
+  <si>
+    <t>alicloud_mns_queue</t>
+  </si>
+  <si>
+    <t>Message Service</t>
+  </si>
+  <si>
+    <t>polling_wait_seconds</t>
+  </si>
+  <si>
+    <t>TDMQ for CMQ</t>
+  </si>
+  <si>
+    <t>delay_seconds</t>
+  </si>
+  <si>
+    <t>maximum_message_size</t>
+  </si>
+  <si>
+    <t>message_retention_period</t>
+  </si>
+  <si>
+    <t>visibility_timeout</t>
+  </si>
+  <si>
+    <t>alicloud_ram_role</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>Cloud Access Management(CAM)</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>alicloud_ram_policy</t>
+  </si>
+  <si>
+    <t>alicloud_ram_role_policy_attachment</t>
+  </si>
+  <si>
+    <t>policy_name</t>
+  </si>
+  <si>
+    <t>policy_type</t>
+  </si>
+  <si>
+    <t>alicloud_cs_kubernetes</t>
+  </si>
+  <si>
+    <t>Container Service for Kubernetes (ACK)</t>
+  </si>
+  <si>
+    <t>worker_vswitch_ids</t>
+  </si>
+  <si>
+    <t>Tencent Kubernetes Engine(TKE)</t>
+  </si>
+  <si>
+    <t>worker_number</t>
+  </si>
+  <si>
+    <t>install_cloud_monitor</t>
+  </si>
+  <si>
+    <t>enable_ssh</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>pod_cidr</t>
+  </si>
+  <si>
+    <t>master_vswitch_ids</t>
+  </si>
+  <si>
+    <t>master_instance_types</t>
+  </si>
+  <si>
+    <t>worker_instance_types</t>
+  </si>
+  <si>
+    <t>service_cidr</t>
+  </si>
+  <si>
+    <t>alicloud_images</t>
+  </si>
+  <si>
+    <t>name_regex</t>
+  </si>
+  <si>
+    <t>most_recent</t>
+  </si>
+  <si>
+    <t>owners</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>alicloud_slb_acl</t>
+  </si>
+  <si>
+    <t>Classic Load Balancer (SLB)</t>
+  </si>
+  <si>
+    <t>Cloud Load Balancer(CLB)</t>
+  </si>
+  <si>
+    <t>ip_version</t>
+  </si>
+  <si>
+    <t>alicloud_ram_user</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t>alicloud_ram_access_key</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>secret_file</t>
+  </si>
+  <si>
+    <t>alicloud_ram_user_policy_attachment</t>
+  </si>
+  <si>
+    <t>vpc</t>
+  </si>
+  <si>
+    <t>route_entry</t>
+  </si>
+  <si>
+    <t>nat_gateway</t>
+  </si>
+  <si>
+    <t>eip</t>
+  </si>
+  <si>
+    <t>eip_association</t>
+  </si>
+  <si>
+    <t>key_pair</t>
+  </si>
+  <si>
+    <t>instance</t>
+  </si>
+  <si>
+    <t>tencentcloud_vpc</t>
+  </si>
+  <si>
+    <t>tencentcloud_</t>
+  </si>
+  <si>
+    <t>tencentcloud_route_entry</t>
+  </si>
+  <si>
+    <t>tencentcloud_nat_gateway</t>
+  </si>
+  <si>
+    <t>tencentcloud_eip</t>
+  </si>
+  <si>
+    <t>tencentcloud_eip_association</t>
+  </si>
+  <si>
+    <t>tencentcloud_key_pair</t>
+  </si>
+  <si>
+    <t>tencentcloud_instance</t>
   </si>
 </sst>
 </file>
@@ -183,10 +531,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -524,19 +869,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
@@ -547,310 +892,7188 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
       </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
         <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>144</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>144</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
         <v>9</v>
       </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+      <c r="F24" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>39</v>
+      </c>
+      <c r="D28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" t="s">
+        <v>148</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>148</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" t="s">
+        <v>54</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>31</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" t="s">
+        <v>31</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>31</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" t="s">
+        <v>51</v>
+      </c>
+      <c r="D60" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D61" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>41</v>
+      </c>
+      <c r="B62" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>41</v>
+      </c>
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" t="s">
+        <v>48</v>
+      </c>
+      <c r="D64" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" t="s">
+        <v>49</v>
+      </c>
+      <c r="D65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" t="s">
+        <v>46</v>
+      </c>
+      <c r="C66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D66" t="s">
+        <v>31</v>
+      </c>
+      <c r="E66" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>41</v>
+      </c>
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C68" t="s">
+        <v>54</v>
+      </c>
+      <c r="D68" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" t="s">
+        <v>47</v>
+      </c>
+      <c r="D69" t="s">
+        <v>31</v>
+      </c>
+      <c r="E69" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+      <c r="D70" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>56</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71" t="s">
+        <v>57</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" t="s">
+        <v>58</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>56</v>
+      </c>
+      <c r="B73" t="s">
+        <v>55</v>
+      </c>
+      <c r="C73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" t="s">
+        <v>58</v>
+      </c>
+      <c r="E73" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>56</v>
+      </c>
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74" t="s">
+        <v>27</v>
+      </c>
+      <c r="D74" t="s">
+        <v>58</v>
+      </c>
+      <c r="E74" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" t="s">
+        <v>61</v>
+      </c>
+      <c r="D75" t="s">
+        <v>58</v>
+      </c>
+      <c r="E75" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>56</v>
+      </c>
+      <c r="B76" t="s">
+        <v>55</v>
+      </c>
+      <c r="C76" t="s">
+        <v>62</v>
+      </c>
+      <c r="D76" t="s">
+        <v>58</v>
+      </c>
+      <c r="E76" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>56</v>
+      </c>
+      <c r="B77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>58</v>
+      </c>
+      <c r="E77" t="s">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>56</v>
+      </c>
+      <c r="B78" t="s">
+        <v>55</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" t="s">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" t="s">
+        <v>65</v>
+      </c>
+      <c r="C79" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" t="s">
+        <v>58</v>
+      </c>
+      <c r="E79" t="s">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>56</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" t="s">
+        <v>58</v>
+      </c>
+      <c r="E80" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" t="s">
+        <v>65</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>58</v>
+      </c>
+      <c r="E82" t="s">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C83" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" t="s">
+        <v>58</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B84" t="s">
+        <v>67</v>
+      </c>
+      <c r="C84" t="s">
+        <v>62</v>
+      </c>
+      <c r="D84" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" t="s">
+        <v>149</v>
+      </c>
+      <c r="F84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>41</v>
+      </c>
+      <c r="B85" t="s">
+        <v>67</v>
+      </c>
+      <c r="C85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D85" t="s">
+        <v>31</v>
+      </c>
+      <c r="E85" t="s">
+        <v>149</v>
+      </c>
+      <c r="F85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>41</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>31</v>
+      </c>
+      <c r="E86" t="s">
+        <v>149</v>
+      </c>
+      <c r="F86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>41</v>
+      </c>
+      <c r="B87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>31</v>
+      </c>
+      <c r="E87" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" t="s">
+        <v>149</v>
+      </c>
+      <c r="F88" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>41</v>
+      </c>
+      <c r="B89" t="s">
+        <v>67</v>
+      </c>
+      <c r="C89" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" t="s">
+        <v>31</v>
+      </c>
+      <c r="E89" t="s">
+        <v>149</v>
+      </c>
+      <c r="F89" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90" t="s">
+        <v>67</v>
+      </c>
+      <c r="C90" t="s">
+        <v>42</v>
+      </c>
+      <c r="D90" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" t="s">
+        <v>149</v>
+      </c>
+      <c r="F90" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" t="s">
+        <v>67</v>
+      </c>
+      <c r="C91" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s">
+        <v>149</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>41</v>
+      </c>
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="C92" t="s">
+        <v>69</v>
+      </c>
+      <c r="D92" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" t="s">
+        <v>149</v>
+      </c>
+      <c r="F92" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>41</v>
+      </c>
+      <c r="B93" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" t="s">
+        <v>70</v>
+      </c>
+      <c r="D93" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" t="s">
+        <v>149</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" t="s">
+        <v>67</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" t="s">
+        <v>149</v>
+      </c>
+      <c r="F94" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>41</v>
+      </c>
+      <c r="B95" t="s">
+        <v>67</v>
+      </c>
+      <c r="C95" t="s">
+        <v>72</v>
+      </c>
+      <c r="D95" t="s">
+        <v>31</v>
+      </c>
+      <c r="E95" t="s">
+        <v>149</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>41</v>
+      </c>
+      <c r="B96" t="s">
+        <v>67</v>
+      </c>
+      <c r="C96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+      <c r="E96" t="s">
+        <v>149</v>
+      </c>
+      <c r="F96" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>77</v>
+      </c>
+      <c r="B97" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" t="s">
+        <v>79</v>
+      </c>
+      <c r="E97" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>77</v>
+      </c>
+      <c r="B98" t="s">
+        <v>76</v>
+      </c>
+      <c r="C98" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E98" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>77</v>
+      </c>
+      <c r="B99" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" t="s">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" t="s">
+        <v>79</v>
+      </c>
+      <c r="E100" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>77</v>
+      </c>
+      <c r="B101" t="s">
+        <v>81</v>
+      </c>
+      <c r="C101" t="s">
+        <v>83</v>
+      </c>
+      <c r="D101" t="s">
+        <v>79</v>
+      </c>
+      <c r="E101" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" t="s">
+        <v>81</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>79</v>
+      </c>
+      <c r="E102" t="s">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>77</v>
+      </c>
+      <c r="B103" t="s">
+        <v>84</v>
+      </c>
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" t="s">
+        <v>84</v>
+      </c>
+      <c r="C104" t="s">
+        <v>85</v>
+      </c>
+      <c r="D104" t="s">
+        <v>79</v>
+      </c>
+      <c r="E104" t="s">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>77</v>
+      </c>
+      <c r="B105" t="s">
+        <v>84</v>
+      </c>
+      <c r="C105" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>77</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" t="s">
+        <v>87</v>
+      </c>
+      <c r="D106" t="s">
+        <v>79</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+      <c r="D107" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>77</v>
+      </c>
+      <c r="B108" t="s">
+        <v>88</v>
+      </c>
+      <c r="C108" t="s">
+        <v>36</v>
+      </c>
+      <c r="D108" t="s">
+        <v>79</v>
+      </c>
+      <c r="E108" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>77</v>
+      </c>
+      <c r="B109" t="s">
+        <v>88</v>
+      </c>
+      <c r="C109" t="s">
+        <v>89</v>
+      </c>
+      <c r="D109" t="s">
+        <v>79</v>
+      </c>
+      <c r="E109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>77</v>
+      </c>
+      <c r="B110" t="s">
+        <v>88</v>
+      </c>
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" t="s">
+        <v>79</v>
+      </c>
+      <c r="E110" t="s">
+        <v>10</v>
+      </c>
+      <c r="F110" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>77</v>
+      </c>
+      <c r="B111" t="s">
+        <v>88</v>
+      </c>
+      <c r="C111" t="s">
+        <v>27</v>
+      </c>
+      <c r="D111" t="s">
+        <v>79</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>41</v>
+      </c>
+      <c r="B112" t="s">
+        <v>67</v>
+      </c>
+      <c r="C112" t="s">
+        <v>71</v>
+      </c>
+      <c r="D112" t="s">
+        <v>31</v>
+      </c>
+      <c r="E112" t="s">
+        <v>149</v>
+      </c>
+      <c r="F112" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>41</v>
+      </c>
+      <c r="B113" t="s">
+        <v>67</v>
+      </c>
+      <c r="C113" t="s">
+        <v>27</v>
+      </c>
+      <c r="D113" t="s">
+        <v>31</v>
+      </c>
+      <c r="E113" t="s">
+        <v>149</v>
+      </c>
+      <c r="F113" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>41</v>
+      </c>
+      <c r="B114" t="s">
+        <v>67</v>
+      </c>
+      <c r="C114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D114" t="s">
+        <v>31</v>
+      </c>
+      <c r="E114" t="s">
+        <v>149</v>
+      </c>
+      <c r="F114" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>41</v>
+      </c>
+      <c r="B115" t="s">
+        <v>67</v>
+      </c>
+      <c r="C115" t="s">
+        <v>74</v>
+      </c>
+      <c r="D115" t="s">
+        <v>31</v>
+      </c>
+      <c r="E115" t="s">
+        <v>149</v>
+      </c>
+      <c r="F115" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>41</v>
+      </c>
+      <c r="B116" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" t="s">
+        <v>70</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>149</v>
+      </c>
+      <c r="F116" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>41</v>
+      </c>
+      <c r="B117" t="s">
+        <v>67</v>
+      </c>
+      <c r="C117" t="s">
+        <v>73</v>
+      </c>
+      <c r="D117" t="s">
+        <v>31</v>
+      </c>
+      <c r="E117" t="s">
+        <v>149</v>
+      </c>
+      <c r="F117" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>41</v>
+      </c>
+      <c r="B118" t="s">
+        <v>67</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" t="s">
+        <v>31</v>
+      </c>
+      <c r="E118" t="s">
+        <v>149</v>
+      </c>
+      <c r="F118" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119" t="s">
+        <v>67</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>31</v>
+      </c>
+      <c r="E119" t="s">
+        <v>149</v>
+      </c>
+      <c r="F119" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>41</v>
+      </c>
+      <c r="B120" t="s">
+        <v>67</v>
+      </c>
+      <c r="C120" t="s">
+        <v>75</v>
+      </c>
+      <c r="D120" t="s">
+        <v>31</v>
+      </c>
+      <c r="E120" t="s">
+        <v>149</v>
+      </c>
+      <c r="F120" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>41</v>
+      </c>
+      <c r="B121" t="s">
+        <v>67</v>
+      </c>
+      <c r="C121" t="s">
+        <v>14</v>
+      </c>
+      <c r="D121" t="s">
+        <v>31</v>
+      </c>
+      <c r="E121" t="s">
+        <v>149</v>
+      </c>
+      <c r="F121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>41</v>
+      </c>
+      <c r="B122" t="s">
+        <v>67</v>
+      </c>
+      <c r="C122" t="s">
+        <v>72</v>
+      </c>
+      <c r="D122" t="s">
+        <v>31</v>
+      </c>
+      <c r="E122" t="s">
+        <v>149</v>
+      </c>
+      <c r="F122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>41</v>
+      </c>
+      <c r="B123" t="s">
+        <v>67</v>
+      </c>
+      <c r="C123" t="s">
+        <v>42</v>
+      </c>
+      <c r="D123" t="s">
+        <v>31</v>
+      </c>
+      <c r="E123" t="s">
+        <v>149</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>41</v>
+      </c>
+      <c r="B124" t="s">
+        <v>67</v>
+      </c>
+      <c r="C124" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" t="s">
+        <v>31</v>
+      </c>
+      <c r="E124" t="s">
+        <v>149</v>
+      </c>
+      <c r="F124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+      <c r="B125" t="s">
+        <v>67</v>
+      </c>
+      <c r="C125" t="s">
+        <v>27</v>
+      </c>
+      <c r="D125" t="s">
+        <v>31</v>
+      </c>
+      <c r="E125" t="s">
+        <v>149</v>
+      </c>
+      <c r="F125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>41</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+      <c r="D126" t="s">
+        <v>31</v>
+      </c>
+      <c r="E126" t="s">
+        <v>149</v>
+      </c>
+      <c r="F126" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>41</v>
+      </c>
+      <c r="B127" t="s">
+        <v>67</v>
+      </c>
+      <c r="C127" t="s">
+        <v>14</v>
+      </c>
+      <c r="D127" t="s">
+        <v>31</v>
+      </c>
+      <c r="E127" t="s">
+        <v>149</v>
+      </c>
+      <c r="F127" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>41</v>
+      </c>
+      <c r="B128" t="s">
+        <v>67</v>
+      </c>
+      <c r="C128" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" t="s">
+        <v>31</v>
+      </c>
+      <c r="E128" t="s">
+        <v>149</v>
+      </c>
+      <c r="F128" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" t="s">
+        <v>67</v>
+      </c>
+      <c r="C129" t="s">
+        <v>42</v>
+      </c>
+      <c r="D129" t="s">
+        <v>31</v>
+      </c>
+      <c r="E129" t="s">
+        <v>149</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" t="s">
+        <v>67</v>
+      </c>
+      <c r="C130" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" t="s">
+        <v>31</v>
+      </c>
+      <c r="E130" t="s">
+        <v>149</v>
+      </c>
+      <c r="F130" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B131" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" t="s">
+        <v>149</v>
+      </c>
+      <c r="F131" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>41</v>
+      </c>
+      <c r="B132" t="s">
+        <v>67</v>
+      </c>
+      <c r="C132" t="s">
+        <v>69</v>
+      </c>
+      <c r="D132" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" t="s">
+        <v>149</v>
+      </c>
+      <c r="F132" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" t="s">
+        <v>67</v>
+      </c>
+      <c r="C133" t="s">
+        <v>74</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>149</v>
+      </c>
+      <c r="F133" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>41</v>
+      </c>
+      <c r="B134" t="s">
+        <v>67</v>
+      </c>
+      <c r="C134" t="s">
+        <v>75</v>
+      </c>
+      <c r="D134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" t="s">
+        <v>149</v>
+      </c>
+      <c r="F134" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>41</v>
+      </c>
+      <c r="B135" t="s">
+        <v>67</v>
+      </c>
+      <c r="C135" t="s">
+        <v>62</v>
+      </c>
+      <c r="D135" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>149</v>
+      </c>
+      <c r="F135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>41</v>
+      </c>
+      <c r="B136" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" t="s">
+        <v>73</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>149</v>
+      </c>
+      <c r="F136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>41</v>
+      </c>
+      <c r="B137" t="s">
+        <v>67</v>
+      </c>
+      <c r="C137" t="s">
+        <v>71</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="s">
+        <v>149</v>
+      </c>
+      <c r="F137" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>91</v>
+      </c>
+      <c r="B138" t="s">
+        <v>90</v>
+      </c>
+      <c r="C138" t="s">
+        <v>94</v>
+      </c>
+      <c r="D138" t="s">
+        <v>93</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>91</v>
+      </c>
+      <c r="B139" t="s">
+        <v>90</v>
+      </c>
+      <c r="C139" t="s">
+        <v>95</v>
+      </c>
+      <c r="D139" t="s">
+        <v>93</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>91</v>
+      </c>
+      <c r="B140" t="s">
+        <v>90</v>
+      </c>
+      <c r="C140" t="s">
+        <v>96</v>
+      </c>
+      <c r="D140" t="s">
+        <v>93</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>91</v>
+      </c>
+      <c r="B141" t="s">
+        <v>90</v>
+      </c>
+      <c r="C141" t="s">
+        <v>97</v>
+      </c>
+      <c r="D141" t="s">
+        <v>93</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>91</v>
+      </c>
+      <c r="B142" t="s">
+        <v>90</v>
+      </c>
+      <c r="C142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142" t="s">
+        <v>93</v>
+      </c>
+      <c r="E142" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>91</v>
+      </c>
+      <c r="B143" t="s">
+        <v>90</v>
+      </c>
+      <c r="C143" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" t="s">
+        <v>93</v>
+      </c>
+      <c r="E143" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>99</v>
+      </c>
+      <c r="B144" t="s">
+        <v>98</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>100</v>
+      </c>
+      <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>99</v>
+      </c>
+      <c r="B145" t="s">
+        <v>98</v>
+      </c>
+      <c r="C145" t="s">
+        <v>101</v>
+      </c>
+      <c r="D145" t="s">
+        <v>100</v>
+      </c>
+      <c r="E145" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>99</v>
+      </c>
+      <c r="B146" t="s">
+        <v>102</v>
+      </c>
+      <c r="C146" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" t="s">
+        <v>100</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>99</v>
+      </c>
+      <c r="B147" t="s">
+        <v>102</v>
+      </c>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" t="s">
+        <v>100</v>
+      </c>
+      <c r="E147" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>99</v>
+      </c>
+      <c r="B148" t="s">
+        <v>102</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>100</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>99</v>
+      </c>
+      <c r="B149" t="s">
+        <v>103</v>
+      </c>
+      <c r="C149" t="s">
+        <v>104</v>
+      </c>
+      <c r="D149" t="s">
+        <v>100</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>99</v>
+      </c>
+      <c r="B150" t="s">
+        <v>103</v>
+      </c>
+      <c r="C150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D150" t="s">
+        <v>100</v>
+      </c>
+      <c r="E150" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>99</v>
+      </c>
+      <c r="B151" t="s">
+        <v>103</v>
+      </c>
+      <c r="C151" t="s">
+        <v>70</v>
+      </c>
+      <c r="D151" t="s">
+        <v>100</v>
+      </c>
+      <c r="E151" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" t="s">
+        <v>14</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>41</v>
+      </c>
+      <c r="B153" t="s">
+        <v>44</v>
+      </c>
+      <c r="C153" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" t="s">
+        <v>44</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>41</v>
+      </c>
+      <c r="B155" t="s">
+        <v>44</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>41</v>
+      </c>
+      <c r="B156" t="s">
+        <v>44</v>
+      </c>
+      <c r="C156" t="s">
+        <v>45</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>41</v>
+      </c>
+      <c r="B157" t="s">
+        <v>46</v>
+      </c>
+      <c r="C157" t="s">
+        <v>51</v>
+      </c>
+      <c r="D157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>41</v>
+      </c>
+      <c r="B158" t="s">
+        <v>46</v>
+      </c>
+      <c r="C158" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>41</v>
+      </c>
+      <c r="B159" t="s">
+        <v>46</v>
+      </c>
+      <c r="C159" t="s">
+        <v>53</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>41</v>
+      </c>
+      <c r="B160" t="s">
+        <v>46</v>
+      </c>
+      <c r="C160" t="s">
+        <v>47</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>41</v>
+      </c>
+      <c r="B161" t="s">
+        <v>46</v>
+      </c>
+      <c r="C161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>41</v>
+      </c>
+      <c r="B162" t="s">
+        <v>46</v>
+      </c>
+      <c r="C162" t="s">
+        <v>48</v>
+      </c>
+      <c r="D162" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>41</v>
+      </c>
+      <c r="B163" t="s">
+        <v>46</v>
+      </c>
+      <c r="C163" t="s">
+        <v>49</v>
+      </c>
+      <c r="D163" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>41</v>
+      </c>
+      <c r="B164" t="s">
+        <v>46</v>
+      </c>
+      <c r="C164" t="s">
+        <v>50</v>
+      </c>
+      <c r="D164" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>41</v>
+      </c>
+      <c r="B165" t="s">
+        <v>46</v>
+      </c>
+      <c r="C165" t="s">
+        <v>48</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" t="s">
+        <v>46</v>
+      </c>
+      <c r="C166" t="s">
+        <v>49</v>
+      </c>
+      <c r="D166" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" t="s">
+        <v>52</v>
+      </c>
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>41</v>
+      </c>
+      <c r="B168" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" t="s">
+        <v>51</v>
+      </c>
+      <c r="D168" t="s">
+        <v>31</v>
+      </c>
+      <c r="E168" t="s">
+        <v>10</v>
+      </c>
+      <c r="F168" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>41</v>
+      </c>
+      <c r="B169" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D169" t="s">
+        <v>31</v>
+      </c>
+      <c r="E169" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" t="s">
+        <v>47</v>
+      </c>
+      <c r="D170" t="s">
+        <v>31</v>
+      </c>
+      <c r="E170" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>41</v>
+      </c>
+      <c r="B171" t="s">
+        <v>46</v>
+      </c>
+      <c r="C171" t="s">
+        <v>47</v>
+      </c>
+      <c r="D171" t="s">
+        <v>31</v>
+      </c>
+      <c r="E171" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>41</v>
+      </c>
+      <c r="B172" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" t="s">
+        <v>54</v>
+      </c>
+      <c r="D172" t="s">
+        <v>31</v>
+      </c>
+      <c r="E172" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>41</v>
+      </c>
+      <c r="B173" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" t="s">
+        <v>48</v>
+      </c>
+      <c r="D173" t="s">
+        <v>31</v>
+      </c>
+      <c r="E173" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>41</v>
+      </c>
+      <c r="B174" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" t="s">
+        <v>49</v>
+      </c>
+      <c r="D174" t="s">
+        <v>31</v>
+      </c>
+      <c r="E174" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>41</v>
+      </c>
+      <c r="B175" t="s">
+        <v>46</v>
+      </c>
+      <c r="C175" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" t="s">
+        <v>31</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" t="s">
+        <v>51</v>
+      </c>
+      <c r="D176" t="s">
+        <v>31</v>
+      </c>
+      <c r="E176" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>41</v>
+      </c>
+      <c r="B177" t="s">
+        <v>46</v>
+      </c>
+      <c r="C177" t="s">
+        <v>52</v>
+      </c>
+      <c r="D177" t="s">
+        <v>31</v>
+      </c>
+      <c r="E177" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B178" t="s">
+        <v>46</v>
+      </c>
+      <c r="C178" t="s">
+        <v>53</v>
+      </c>
+      <c r="D178" t="s">
+        <v>31</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>41</v>
+      </c>
+      <c r="B179" t="s">
+        <v>46</v>
+      </c>
+      <c r="C179" t="s">
+        <v>52</v>
+      </c>
+      <c r="D179" t="s">
+        <v>31</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>41</v>
+      </c>
+      <c r="B180" t="s">
+        <v>46</v>
+      </c>
+      <c r="C180" t="s">
+        <v>53</v>
+      </c>
+      <c r="D180" t="s">
+        <v>31</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>41</v>
+      </c>
+      <c r="B181" t="s">
+        <v>46</v>
+      </c>
+      <c r="C181" t="s">
+        <v>48</v>
+      </c>
+      <c r="D181" t="s">
+        <v>31</v>
+      </c>
+      <c r="E181" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>41</v>
+      </c>
+      <c r="B182" t="s">
+        <v>46</v>
+      </c>
+      <c r="C182" t="s">
+        <v>49</v>
+      </c>
+      <c r="D182" t="s">
+        <v>31</v>
+      </c>
+      <c r="E182" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>41</v>
+      </c>
+      <c r="B183" t="s">
+        <v>46</v>
+      </c>
+      <c r="C183" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" t="s">
+        <v>31</v>
+      </c>
+      <c r="E183" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>41</v>
+      </c>
+      <c r="B184" t="s">
+        <v>46</v>
+      </c>
+      <c r="C184" t="s">
+        <v>47</v>
+      </c>
+      <c r="D184" t="s">
+        <v>31</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>41</v>
+      </c>
+      <c r="B185" t="s">
+        <v>46</v>
+      </c>
+      <c r="C185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D185" t="s">
+        <v>31</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>41</v>
+      </c>
+      <c r="B186" t="s">
+        <v>46</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>31</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" t="s">
+        <v>46</v>
+      </c>
+      <c r="C187" t="s">
+        <v>50</v>
+      </c>
+      <c r="D187" t="s">
+        <v>31</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>41</v>
+      </c>
+      <c r="B188" t="s">
+        <v>46</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>31</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+      <c r="F188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>41</v>
+      </c>
+      <c r="B189" t="s">
+        <v>46</v>
+      </c>
+      <c r="C189" t="s">
+        <v>49</v>
+      </c>
+      <c r="D189" t="s">
+        <v>31</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+      <c r="F189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>41</v>
+      </c>
+      <c r="B190" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190" t="s">
+        <v>51</v>
+      </c>
+      <c r="D190" t="s">
+        <v>31</v>
+      </c>
+      <c r="E190" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>41</v>
+      </c>
+      <c r="B191" t="s">
+        <v>46</v>
+      </c>
+      <c r="C191" t="s">
+        <v>53</v>
+      </c>
+      <c r="D191" t="s">
+        <v>31</v>
+      </c>
+      <c r="E191" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>41</v>
+      </c>
+      <c r="B192" t="s">
+        <v>46</v>
+      </c>
+      <c r="C192" t="s">
+        <v>47</v>
+      </c>
+      <c r="D192" t="s">
+        <v>31</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>41</v>
+      </c>
+      <c r="B193" t="s">
+        <v>46</v>
+      </c>
+      <c r="C193" t="s">
+        <v>54</v>
+      </c>
+      <c r="D193" t="s">
+        <v>31</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>41</v>
+      </c>
+      <c r="B194" t="s">
+        <v>46</v>
+      </c>
+      <c r="C194" t="s">
+        <v>48</v>
+      </c>
+      <c r="D194" t="s">
+        <v>31</v>
+      </c>
+      <c r="E194" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>41</v>
+      </c>
+      <c r="B195" t="s">
+        <v>46</v>
+      </c>
+      <c r="C195" t="s">
+        <v>50</v>
+      </c>
+      <c r="D195" t="s">
+        <v>31</v>
+      </c>
+      <c r="E195" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>41</v>
+      </c>
+      <c r="B196" t="s">
+        <v>46</v>
+      </c>
+      <c r="C196" t="s">
+        <v>52</v>
+      </c>
+      <c r="D196" t="s">
+        <v>31</v>
+      </c>
+      <c r="E196" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>107</v>
+      </c>
+      <c r="B197" t="s">
+        <v>106</v>
+      </c>
+      <c r="C197" t="s">
+        <v>42</v>
+      </c>
+      <c r="D197" t="s">
+        <v>109</v>
+      </c>
+      <c r="E197" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>107</v>
+      </c>
+      <c r="B198" t="s">
+        <v>106</v>
+      </c>
+      <c r="C198" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" t="s">
+        <v>109</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>107</v>
+      </c>
+      <c r="B199" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>109</v>
+      </c>
+      <c r="E199" t="s">
+        <v>10</v>
+      </c>
+      <c r="F199" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" t="s">
+        <v>106</v>
+      </c>
+      <c r="C200" t="s">
+        <v>115</v>
+      </c>
+      <c r="D200" t="s">
+        <v>109</v>
+      </c>
+      <c r="E200" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>107</v>
+      </c>
+      <c r="B201" t="s">
+        <v>106</v>
+      </c>
+      <c r="C201" t="s">
+        <v>116</v>
+      </c>
+      <c r="D201" t="s">
+        <v>109</v>
+      </c>
+      <c r="E201" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>107</v>
+      </c>
+      <c r="B202" t="s">
+        <v>106</v>
+      </c>
+      <c r="C202" t="s">
+        <v>117</v>
+      </c>
+      <c r="D202" t="s">
+        <v>109</v>
+      </c>
+      <c r="E202" t="s">
+        <v>10</v>
+      </c>
+      <c r="F202" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>107</v>
+      </c>
+      <c r="B203" t="s">
+        <v>106</v>
+      </c>
+      <c r="C203" t="s">
+        <v>113</v>
+      </c>
+      <c r="D203" t="s">
+        <v>109</v>
+      </c>
+      <c r="E203" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>107</v>
+      </c>
+      <c r="B204" t="s">
+        <v>106</v>
+      </c>
+      <c r="C204" t="s">
+        <v>114</v>
+      </c>
+      <c r="D204" t="s">
+        <v>109</v>
+      </c>
+      <c r="E204" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>107</v>
+      </c>
+      <c r="B205" t="s">
+        <v>106</v>
+      </c>
+      <c r="C205" t="s">
+        <v>54</v>
+      </c>
+      <c r="D205" t="s">
+        <v>109</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>107</v>
+      </c>
+      <c r="B206" t="s">
+        <v>106</v>
+      </c>
+      <c r="C206" t="s">
+        <v>108</v>
+      </c>
+      <c r="D206" t="s">
+        <v>109</v>
+      </c>
+      <c r="E206" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>107</v>
+      </c>
+      <c r="B207" t="s">
+        <v>106</v>
+      </c>
+      <c r="C207" t="s">
+        <v>110</v>
+      </c>
+      <c r="D207" t="s">
+        <v>109</v>
+      </c>
+      <c r="E207" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>107</v>
+      </c>
+      <c r="B208" t="s">
+        <v>106</v>
+      </c>
+      <c r="C208" t="s">
+        <v>112</v>
+      </c>
+      <c r="D208" t="s">
+        <v>109</v>
+      </c>
+      <c r="E208" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>107</v>
+      </c>
+      <c r="B209" t="s">
+        <v>106</v>
+      </c>
+      <c r="C209" t="s">
+        <v>111</v>
+      </c>
+      <c r="D209" t="s">
+        <v>109</v>
+      </c>
+      <c r="E209" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>41</v>
+      </c>
+      <c r="B210" t="s">
+        <v>119</v>
+      </c>
+      <c r="C210" t="s">
+        <v>120</v>
+      </c>
+      <c r="D210" t="s">
+        <v>31</v>
+      </c>
+      <c r="E210" t="s">
+        <v>10</v>
+      </c>
+      <c r="F210" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>41</v>
+      </c>
+      <c r="B211" t="s">
+        <v>119</v>
+      </c>
+      <c r="C211" t="s">
+        <v>121</v>
+      </c>
+      <c r="D211" t="s">
+        <v>31</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>41</v>
+      </c>
+      <c r="B212" t="s">
+        <v>119</v>
+      </c>
+      <c r="C212" t="s">
+        <v>122</v>
+      </c>
+      <c r="D212" t="s">
+        <v>31</v>
+      </c>
+      <c r="E212" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" t="s">
+        <v>119</v>
+      </c>
+      <c r="C213" t="s">
+        <v>123</v>
+      </c>
+      <c r="D213" t="s">
+        <v>31</v>
+      </c>
+      <c r="E213" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>99</v>
+      </c>
+      <c r="B214" t="s">
+        <v>102</v>
+      </c>
+      <c r="C214" t="s">
+        <v>9</v>
+      </c>
+      <c r="D214" t="s">
+        <v>100</v>
+      </c>
+      <c r="E214" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>99</v>
+      </c>
+      <c r="B215" t="s">
+        <v>102</v>
+      </c>
+      <c r="C215" t="s">
+        <v>101</v>
+      </c>
+      <c r="D215" t="s">
+        <v>100</v>
+      </c>
+      <c r="E215" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>99</v>
+      </c>
+      <c r="B216" t="s">
+        <v>102</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>100</v>
+      </c>
+      <c r="E216" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>99</v>
+      </c>
+      <c r="B217" t="s">
+        <v>103</v>
+      </c>
+      <c r="C217" t="s">
+        <v>105</v>
+      </c>
+      <c r="D217" t="s">
+        <v>100</v>
+      </c>
+      <c r="E217" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>99</v>
+      </c>
+      <c r="B218" t="s">
+        <v>103</v>
+      </c>
+      <c r="C218" t="s">
+        <v>70</v>
+      </c>
+      <c r="D218" t="s">
+        <v>100</v>
+      </c>
+      <c r="E218" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>99</v>
+      </c>
+      <c r="B219" t="s">
+        <v>103</v>
+      </c>
+      <c r="C219" t="s">
+        <v>104</v>
+      </c>
+      <c r="D219" t="s">
+        <v>100</v>
+      </c>
+      <c r="E219" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>125</v>
+      </c>
+      <c r="B220" t="s">
+        <v>124</v>
+      </c>
+      <c r="C220" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" t="s">
+        <v>126</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>125</v>
+      </c>
+      <c r="B221" t="s">
+        <v>124</v>
+      </c>
+      <c r="C221" t="s">
+        <v>127</v>
+      </c>
+      <c r="D221" t="s">
+        <v>126</v>
+      </c>
+      <c r="E221" t="s">
+        <v>10</v>
+      </c>
+      <c r="F221" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>99</v>
+      </c>
+      <c r="B222" t="s">
+        <v>98</v>
+      </c>
+      <c r="C222" t="s">
+        <v>9</v>
+      </c>
+      <c r="D222" t="s">
+        <v>100</v>
+      </c>
+      <c r="E222" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>99</v>
+      </c>
+      <c r="B223" t="s">
+        <v>98</v>
+      </c>
+      <c r="C223" t="s">
+        <v>101</v>
+      </c>
+      <c r="D223" t="s">
+        <v>100</v>
+      </c>
+      <c r="E223" t="s">
+        <v>10</v>
+      </c>
+      <c r="F223" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>99</v>
+      </c>
+      <c r="B224" t="s">
+        <v>98</v>
+      </c>
+      <c r="C224" t="s">
+        <v>101</v>
+      </c>
+      <c r="D224" t="s">
+        <v>100</v>
+      </c>
+      <c r="E224" t="s">
+        <v>10</v>
+      </c>
+      <c r="F224" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>99</v>
+      </c>
+      <c r="B225" t="s">
+        <v>98</v>
+      </c>
+      <c r="C225" t="s">
+        <v>9</v>
+      </c>
+      <c r="D225" t="s">
+        <v>100</v>
+      </c>
+      <c r="E225" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>99</v>
+      </c>
+      <c r="B226" t="s">
+        <v>98</v>
+      </c>
+      <c r="C226" t="s">
+        <v>9</v>
+      </c>
+      <c r="D226" t="s">
+        <v>100</v>
+      </c>
+      <c r="E226" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>99</v>
+      </c>
+      <c r="B227" t="s">
+        <v>98</v>
+      </c>
+      <c r="C227" t="s">
+        <v>101</v>
+      </c>
+      <c r="D227" t="s">
+        <v>100</v>
+      </c>
+      <c r="E227" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>99</v>
+      </c>
+      <c r="B228" t="s">
+        <v>98</v>
+      </c>
+      <c r="C228" t="s">
+        <v>9</v>
+      </c>
+      <c r="D228" t="s">
+        <v>100</v>
+      </c>
+      <c r="E228" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>99</v>
+      </c>
+      <c r="B229" t="s">
+        <v>98</v>
+      </c>
+      <c r="C229" t="s">
+        <v>101</v>
+      </c>
+      <c r="D229" t="s">
+        <v>100</v>
+      </c>
+      <c r="E229" t="s">
+        <v>10</v>
+      </c>
+      <c r="F229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>99</v>
+      </c>
+      <c r="B230" t="s">
+        <v>102</v>
+      </c>
+      <c r="C230" t="s">
+        <v>9</v>
+      </c>
+      <c r="D230" t="s">
+        <v>100</v>
+      </c>
+      <c r="E230" t="s">
+        <v>10</v>
+      </c>
+      <c r="F230" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>99</v>
+      </c>
+      <c r="B231" t="s">
+        <v>102</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" t="s">
+        <v>100</v>
+      </c>
+      <c r="E231" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>99</v>
+      </c>
+      <c r="B232" t="s">
+        <v>102</v>
+      </c>
+      <c r="C232" t="s">
+        <v>101</v>
+      </c>
+      <c r="D232" t="s">
+        <v>100</v>
+      </c>
+      <c r="E232" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>99</v>
+      </c>
+      <c r="B233" t="s">
+        <v>102</v>
+      </c>
+      <c r="C233" t="s">
+        <v>9</v>
+      </c>
+      <c r="D233" t="s">
+        <v>100</v>
+      </c>
+      <c r="E233" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>99</v>
+      </c>
+      <c r="B234" t="s">
+        <v>102</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>100</v>
+      </c>
+      <c r="E234" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>99</v>
+      </c>
+      <c r="B235" t="s">
+        <v>102</v>
+      </c>
+      <c r="C235" t="s">
+        <v>101</v>
+      </c>
+      <c r="D235" t="s">
+        <v>100</v>
+      </c>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>99</v>
+      </c>
+      <c r="B236" t="s">
+        <v>102</v>
+      </c>
+      <c r="C236" t="s">
+        <v>9</v>
+      </c>
+      <c r="D236" t="s">
+        <v>100</v>
+      </c>
+      <c r="E236" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>99</v>
+      </c>
+      <c r="B237" t="s">
+        <v>102</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" t="s">
+        <v>100</v>
+      </c>
+      <c r="E237" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>99</v>
+      </c>
+      <c r="B238" t="s">
+        <v>102</v>
+      </c>
+      <c r="C238" t="s">
+        <v>101</v>
+      </c>
+      <c r="D238" t="s">
+        <v>100</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>99</v>
+      </c>
+      <c r="B239" t="s">
+        <v>102</v>
+      </c>
+      <c r="C239" t="s">
+        <v>9</v>
+      </c>
+      <c r="D239" t="s">
+        <v>100</v>
+      </c>
+      <c r="E239" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>99</v>
+      </c>
+      <c r="B240" t="s">
+        <v>102</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>100</v>
+      </c>
+      <c r="E240" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>99</v>
+      </c>
+      <c r="B241" t="s">
+        <v>102</v>
+      </c>
+      <c r="C241" t="s">
+        <v>101</v>
+      </c>
+      <c r="D241" t="s">
+        <v>100</v>
+      </c>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>99</v>
+      </c>
+      <c r="B242" t="s">
+        <v>102</v>
+      </c>
+      <c r="C242" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" t="s">
+        <v>100</v>
+      </c>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>99</v>
+      </c>
+      <c r="B243" t="s">
+        <v>102</v>
+      </c>
+      <c r="C243" t="s">
+        <v>101</v>
+      </c>
+      <c r="D243" t="s">
+        <v>100</v>
+      </c>
+      <c r="E243" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>99</v>
+      </c>
+      <c r="B244" t="s">
+        <v>103</v>
+      </c>
+      <c r="C244" t="s">
+        <v>104</v>
+      </c>
+      <c r="D244" t="s">
+        <v>100</v>
+      </c>
+      <c r="E244" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" t="s">
+        <v>103</v>
+      </c>
+      <c r="C245" t="s">
+        <v>105</v>
+      </c>
+      <c r="D245" t="s">
+        <v>100</v>
+      </c>
+      <c r="E245" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>99</v>
+      </c>
+      <c r="B246" t="s">
+        <v>103</v>
+      </c>
+      <c r="C246" t="s">
+        <v>70</v>
+      </c>
+      <c r="D246" t="s">
+        <v>100</v>
+      </c>
+      <c r="E246" t="s">
+        <v>10</v>
+      </c>
+      <c r="F246" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>99</v>
+      </c>
+      <c r="B247" t="s">
+        <v>103</v>
+      </c>
+      <c r="C247" t="s">
+        <v>104</v>
+      </c>
+      <c r="D247" t="s">
+        <v>100</v>
+      </c>
+      <c r="E247" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>99</v>
+      </c>
+      <c r="B248" t="s">
+        <v>103</v>
+      </c>
+      <c r="C248" t="s">
+        <v>105</v>
+      </c>
+      <c r="D248" t="s">
+        <v>100</v>
+      </c>
+      <c r="E248" t="s">
+        <v>10</v>
+      </c>
+      <c r="F248" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>99</v>
+      </c>
+      <c r="B249" t="s">
+        <v>103</v>
+      </c>
+      <c r="C249" t="s">
+        <v>70</v>
+      </c>
+      <c r="D249" t="s">
+        <v>100</v>
+      </c>
+      <c r="E249" t="s">
+        <v>10</v>
+      </c>
+      <c r="F249" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>99</v>
+      </c>
+      <c r="B250" t="s">
+        <v>103</v>
+      </c>
+      <c r="C250" t="s">
+        <v>105</v>
+      </c>
+      <c r="D250" t="s">
+        <v>100</v>
+      </c>
+      <c r="E250" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>99</v>
+      </c>
+      <c r="B251" t="s">
+        <v>103</v>
+      </c>
+      <c r="C251" t="s">
+        <v>70</v>
+      </c>
+      <c r="D251" t="s">
+        <v>100</v>
+      </c>
+      <c r="E251" t="s">
+        <v>10</v>
+      </c>
+      <c r="F251" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>99</v>
+      </c>
+      <c r="B252" t="s">
+        <v>103</v>
+      </c>
+      <c r="C252" t="s">
+        <v>104</v>
+      </c>
+      <c r="D252" t="s">
+        <v>100</v>
+      </c>
+      <c r="E252" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>99</v>
+      </c>
+      <c r="B253" t="s">
+        <v>103</v>
+      </c>
+      <c r="C253" t="s">
+        <v>104</v>
+      </c>
+      <c r="D253" t="s">
+        <v>100</v>
+      </c>
+      <c r="E253" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>99</v>
+      </c>
+      <c r="B254" t="s">
+        <v>103</v>
+      </c>
+      <c r="C254" t="s">
+        <v>105</v>
+      </c>
+      <c r="D254" t="s">
+        <v>100</v>
+      </c>
+      <c r="E254" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255" t="s">
+        <v>103</v>
+      </c>
+      <c r="C255" t="s">
+        <v>70</v>
+      </c>
+      <c r="D255" t="s">
+        <v>100</v>
+      </c>
+      <c r="E255" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>99</v>
+      </c>
+      <c r="B256" t="s">
+        <v>103</v>
+      </c>
+      <c r="C256" t="s">
+        <v>104</v>
+      </c>
+      <c r="D256" t="s">
+        <v>100</v>
+      </c>
+      <c r="E256" t="s">
+        <v>10</v>
+      </c>
+      <c r="F256" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>99</v>
+      </c>
+      <c r="B257" t="s">
+        <v>103</v>
+      </c>
+      <c r="C257" t="s">
+        <v>105</v>
+      </c>
+      <c r="D257" t="s">
+        <v>100</v>
+      </c>
+      <c r="E257" t="s">
+        <v>10</v>
+      </c>
+      <c r="F257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>99</v>
+      </c>
+      <c r="B258" t="s">
+        <v>103</v>
+      </c>
+      <c r="C258" t="s">
+        <v>70</v>
+      </c>
+      <c r="D258" t="s">
+        <v>100</v>
+      </c>
+      <c r="E258" t="s">
+        <v>10</v>
+      </c>
+      <c r="F258" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>99</v>
+      </c>
+      <c r="B259" t="s">
+        <v>103</v>
+      </c>
+      <c r="C259" t="s">
+        <v>105</v>
+      </c>
+      <c r="D259" t="s">
+        <v>100</v>
+      </c>
+      <c r="E259" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>99</v>
+      </c>
+      <c r="B260" t="s">
+        <v>103</v>
+      </c>
+      <c r="C260" t="s">
+        <v>70</v>
+      </c>
+      <c r="D260" t="s">
+        <v>100</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+      <c r="F260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>99</v>
+      </c>
+      <c r="B261" t="s">
+        <v>103</v>
+      </c>
+      <c r="C261" t="s">
+        <v>104</v>
+      </c>
+      <c r="D261" t="s">
+        <v>100</v>
+      </c>
+      <c r="E261" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>99</v>
+      </c>
+      <c r="B262" t="s">
+        <v>103</v>
+      </c>
+      <c r="C262" t="s">
+        <v>104</v>
+      </c>
+      <c r="D262" t="s">
+        <v>100</v>
+      </c>
+      <c r="E262" t="s">
+        <v>10</v>
+      </c>
+      <c r="F262" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>99</v>
+      </c>
+      <c r="B263" t="s">
+        <v>103</v>
+      </c>
+      <c r="C263" t="s">
+        <v>105</v>
+      </c>
+      <c r="D263" t="s">
+        <v>100</v>
+      </c>
+      <c r="E263" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>99</v>
+      </c>
+      <c r="B264" t="s">
+        <v>103</v>
+      </c>
+      <c r="C264" t="s">
+        <v>70</v>
+      </c>
+      <c r="D264" t="s">
+        <v>100</v>
+      </c>
+      <c r="E264" t="s">
+        <v>10</v>
+      </c>
+      <c r="F264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>99</v>
+      </c>
+      <c r="B265" t="s">
+        <v>103</v>
+      </c>
+      <c r="C265" t="s">
+        <v>104</v>
+      </c>
+      <c r="D265" t="s">
+        <v>100</v>
+      </c>
+      <c r="E265" t="s">
+        <v>10</v>
+      </c>
+      <c r="F265" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>99</v>
+      </c>
+      <c r="B266" t="s">
+        <v>103</v>
+      </c>
+      <c r="C266" t="s">
+        <v>105</v>
+      </c>
+      <c r="D266" t="s">
+        <v>100</v>
+      </c>
+      <c r="E266" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>99</v>
+      </c>
+      <c r="B267" t="s">
+        <v>103</v>
+      </c>
+      <c r="C267" t="s">
+        <v>70</v>
+      </c>
+      <c r="D267" t="s">
+        <v>100</v>
+      </c>
+      <c r="E267" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>99</v>
+      </c>
+      <c r="B268" t="s">
+        <v>103</v>
+      </c>
+      <c r="C268" t="s">
+        <v>104</v>
+      </c>
+      <c r="D268" t="s">
+        <v>100</v>
+      </c>
+      <c r="E268" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>99</v>
+      </c>
+      <c r="B269" t="s">
+        <v>103</v>
+      </c>
+      <c r="C269" t="s">
+        <v>105</v>
+      </c>
+      <c r="D269" t="s">
+        <v>100</v>
+      </c>
+      <c r="E269" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>99</v>
+      </c>
+      <c r="B270" t="s">
+        <v>103</v>
+      </c>
+      <c r="C270" t="s">
+        <v>70</v>
+      </c>
+      <c r="D270" t="s">
+        <v>100</v>
+      </c>
+      <c r="E270" t="s">
+        <v>10</v>
+      </c>
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>99</v>
+      </c>
+      <c r="B271" t="s">
+        <v>103</v>
+      </c>
+      <c r="C271" t="s">
+        <v>104</v>
+      </c>
+      <c r="D271" t="s">
+        <v>100</v>
+      </c>
+      <c r="E271" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>99</v>
+      </c>
+      <c r="B272" t="s">
+        <v>103</v>
+      </c>
+      <c r="C272" t="s">
+        <v>105</v>
+      </c>
+      <c r="D272" t="s">
+        <v>100</v>
+      </c>
+      <c r="E272" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>99</v>
+      </c>
+      <c r="B273" t="s">
+        <v>103</v>
+      </c>
+      <c r="C273" t="s">
+        <v>70</v>
+      </c>
+      <c r="D273" t="s">
+        <v>100</v>
+      </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>99</v>
+      </c>
+      <c r="B274" t="s">
+        <v>103</v>
+      </c>
+      <c r="C274" t="s">
+        <v>104</v>
+      </c>
+      <c r="D274" t="s">
+        <v>100</v>
+      </c>
+      <c r="E274" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>99</v>
+      </c>
+      <c r="B275" t="s">
+        <v>103</v>
+      </c>
+      <c r="C275" t="s">
+        <v>105</v>
+      </c>
+      <c r="D275" t="s">
+        <v>100</v>
+      </c>
+      <c r="E275" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>99</v>
+      </c>
+      <c r="B276" t="s">
+        <v>103</v>
+      </c>
+      <c r="C276" t="s">
+        <v>70</v>
+      </c>
+      <c r="D276" t="s">
+        <v>100</v>
+      </c>
+      <c r="E276" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>99</v>
+      </c>
+      <c r="B277" t="s">
+        <v>103</v>
+      </c>
+      <c r="C277" t="s">
+        <v>104</v>
+      </c>
+      <c r="D277" t="s">
+        <v>100</v>
+      </c>
+      <c r="E277" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>99</v>
+      </c>
+      <c r="B278" t="s">
+        <v>103</v>
+      </c>
+      <c r="C278" t="s">
+        <v>105</v>
+      </c>
+      <c r="D278" t="s">
+        <v>100</v>
+      </c>
+      <c r="E278" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>99</v>
+      </c>
+      <c r="B279" t="s">
+        <v>103</v>
+      </c>
+      <c r="C279" t="s">
+        <v>70</v>
+      </c>
+      <c r="D279" t="s">
+        <v>100</v>
+      </c>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+      <c r="F279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>99</v>
+      </c>
+      <c r="B280" t="s">
+        <v>103</v>
+      </c>
+      <c r="C280" t="s">
+        <v>104</v>
+      </c>
+      <c r="D280" t="s">
+        <v>100</v>
+      </c>
+      <c r="E280" t="s">
+        <v>10</v>
+      </c>
+      <c r="F280" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>99</v>
+      </c>
+      <c r="B281" t="s">
+        <v>103</v>
+      </c>
+      <c r="C281" t="s">
+        <v>105</v>
+      </c>
+      <c r="D281" t="s">
+        <v>100</v>
+      </c>
+      <c r="E281" t="s">
+        <v>10</v>
+      </c>
+      <c r="F281" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>99</v>
+      </c>
+      <c r="B282" t="s">
+        <v>103</v>
+      </c>
+      <c r="C282" t="s">
+        <v>70</v>
+      </c>
+      <c r="D282" t="s">
+        <v>100</v>
+      </c>
+      <c r="E282" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>99</v>
+      </c>
+      <c r="B283" t="s">
+        <v>103</v>
+      </c>
+      <c r="C283" t="s">
+        <v>104</v>
+      </c>
+      <c r="D283" t="s">
+        <v>100</v>
+      </c>
+      <c r="E283" t="s">
+        <v>10</v>
+      </c>
+      <c r="F283" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>99</v>
+      </c>
+      <c r="B284" t="s">
+        <v>103</v>
+      </c>
+      <c r="C284" t="s">
+        <v>105</v>
+      </c>
+      <c r="D284" t="s">
+        <v>100</v>
+      </c>
+      <c r="E284" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>99</v>
+      </c>
+      <c r="B285" t="s">
+        <v>103</v>
+      </c>
+      <c r="C285" t="s">
+        <v>70</v>
+      </c>
+      <c r="D285" t="s">
+        <v>100</v>
+      </c>
+      <c r="E285" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>99</v>
+      </c>
+      <c r="B286" t="s">
+        <v>128</v>
+      </c>
+      <c r="C286" t="s">
+        <v>9</v>
+      </c>
+      <c r="D286" t="s">
+        <v>100</v>
+      </c>
+      <c r="E286" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>99</v>
+      </c>
+      <c r="B287" t="s">
+        <v>128</v>
+      </c>
+      <c r="C287" t="s">
+        <v>129</v>
+      </c>
+      <c r="D287" t="s">
+        <v>100</v>
+      </c>
+      <c r="E287" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>99</v>
+      </c>
+      <c r="B288" t="s">
+        <v>128</v>
+      </c>
+      <c r="C288" t="s">
+        <v>130</v>
+      </c>
+      <c r="D288" t="s">
+        <v>100</v>
+      </c>
+      <c r="E288" t="s">
+        <v>10</v>
+      </c>
+      <c r="F288" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>99</v>
+      </c>
+      <c r="B289" t="s">
+        <v>128</v>
+      </c>
+      <c r="C289" t="s">
+        <v>9</v>
+      </c>
+      <c r="D289" t="s">
+        <v>100</v>
+      </c>
+      <c r="E289" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>99</v>
+      </c>
+      <c r="B290" t="s">
+        <v>128</v>
+      </c>
+      <c r="C290" t="s">
+        <v>129</v>
+      </c>
+      <c r="D290" t="s">
+        <v>100</v>
+      </c>
+      <c r="E290" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>99</v>
+      </c>
+      <c r="B291" t="s">
+        <v>128</v>
+      </c>
+      <c r="C291" t="s">
+        <v>130</v>
+      </c>
+      <c r="D291" t="s">
+        <v>100</v>
+      </c>
+      <c r="E291" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>99</v>
+      </c>
+      <c r="B292" t="s">
+        <v>128</v>
+      </c>
+      <c r="C292" t="s">
+        <v>129</v>
+      </c>
+      <c r="D292" t="s">
+        <v>100</v>
+      </c>
+      <c r="E292" t="s">
+        <v>10</v>
+      </c>
+      <c r="F292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>99</v>
+      </c>
+      <c r="B293" t="s">
+        <v>128</v>
+      </c>
+      <c r="C293" t="s">
+        <v>130</v>
+      </c>
+      <c r="D293" t="s">
+        <v>100</v>
+      </c>
+      <c r="E293" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>99</v>
+      </c>
+      <c r="B294" t="s">
+        <v>128</v>
+      </c>
+      <c r="C294" t="s">
+        <v>9</v>
+      </c>
+      <c r="D294" t="s">
+        <v>100</v>
+      </c>
+      <c r="E294" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>99</v>
+      </c>
+      <c r="B295" t="s">
+        <v>131</v>
+      </c>
+      <c r="C295" t="s">
+        <v>132</v>
+      </c>
+      <c r="D295" t="s">
+        <v>100</v>
+      </c>
+      <c r="E295" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>99</v>
+      </c>
+      <c r="B296" t="s">
+        <v>131</v>
+      </c>
+      <c r="C296" t="s">
+        <v>133</v>
+      </c>
+      <c r="D296" t="s">
+        <v>100</v>
+      </c>
+      <c r="E296" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>99</v>
+      </c>
+      <c r="B297" t="s">
+        <v>131</v>
+      </c>
+      <c r="C297" t="s">
+        <v>132</v>
+      </c>
+      <c r="D297" t="s">
+        <v>100</v>
+      </c>
+      <c r="E297" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>99</v>
+      </c>
+      <c r="B298" t="s">
+        <v>131</v>
+      </c>
+      <c r="C298" t="s">
+        <v>133</v>
+      </c>
+      <c r="D298" t="s">
+        <v>100</v>
+      </c>
+      <c r="E298" t="s">
+        <v>10</v>
+      </c>
+      <c r="F298" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>99</v>
+      </c>
+      <c r="B299" t="s">
+        <v>131</v>
+      </c>
+      <c r="C299" t="s">
+        <v>132</v>
+      </c>
+      <c r="D299" t="s">
+        <v>100</v>
+      </c>
+      <c r="E299" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>99</v>
+      </c>
+      <c r="B300" t="s">
+        <v>131</v>
+      </c>
+      <c r="C300" t="s">
+        <v>133</v>
+      </c>
+      <c r="D300" t="s">
+        <v>100</v>
+      </c>
+      <c r="E300" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>99</v>
+      </c>
+      <c r="B301" t="s">
+        <v>98</v>
+      </c>
+      <c r="C301" t="s">
+        <v>9</v>
+      </c>
+      <c r="D301" t="s">
+        <v>100</v>
+      </c>
+      <c r="E301" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>99</v>
+      </c>
+      <c r="B302" t="s">
+        <v>98</v>
+      </c>
+      <c r="C302" t="s">
+        <v>101</v>
+      </c>
+      <c r="D302" t="s">
+        <v>100</v>
+      </c>
+      <c r="E302" t="s">
+        <v>10</v>
+      </c>
+      <c r="F302" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>99</v>
+      </c>
+      <c r="B303" t="s">
+        <v>102</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" t="s">
+        <v>100</v>
+      </c>
+      <c r="E303" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>99</v>
+      </c>
+      <c r="B304" t="s">
+        <v>102</v>
+      </c>
+      <c r="C304" t="s">
+        <v>101</v>
+      </c>
+      <c r="D304" t="s">
+        <v>100</v>
+      </c>
+      <c r="E304" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>99</v>
+      </c>
+      <c r="B305" t="s">
+        <v>102</v>
+      </c>
+      <c r="C305" t="s">
+        <v>9</v>
+      </c>
+      <c r="D305" t="s">
+        <v>100</v>
+      </c>
+      <c r="E305" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>99</v>
+      </c>
+      <c r="B306" t="s">
+        <v>102</v>
+      </c>
+      <c r="C306" t="s">
+        <v>9</v>
+      </c>
+      <c r="D306" t="s">
+        <v>100</v>
+      </c>
+      <c r="E306" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>99</v>
+      </c>
+      <c r="B307" t="s">
+        <v>102</v>
+      </c>
+      <c r="C307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D307" t="s">
+        <v>100</v>
+      </c>
+      <c r="E307" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>99</v>
+      </c>
+      <c r="B308" t="s">
+        <v>102</v>
+      </c>
+      <c r="C308" t="s">
+        <v>101</v>
+      </c>
+      <c r="D308" t="s">
+        <v>100</v>
+      </c>
+      <c r="E308" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>99</v>
+      </c>
+      <c r="B309" t="s">
+        <v>102</v>
+      </c>
+      <c r="C309" t="s">
+        <v>9</v>
+      </c>
+      <c r="D309" t="s">
+        <v>100</v>
+      </c>
+      <c r="E309" t="s">
+        <v>10</v>
+      </c>
+      <c r="F309" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>99</v>
+      </c>
+      <c r="B310" t="s">
+        <v>102</v>
+      </c>
+      <c r="C310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D310" t="s">
+        <v>100</v>
+      </c>
+      <c r="E310" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>99</v>
+      </c>
+      <c r="B311" t="s">
+        <v>102</v>
+      </c>
+      <c r="C311" t="s">
+        <v>101</v>
+      </c>
+      <c r="D311" t="s">
+        <v>100</v>
+      </c>
+      <c r="E311" t="s">
+        <v>10</v>
+      </c>
+      <c r="F311" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>99</v>
+      </c>
+      <c r="B312" t="s">
+        <v>102</v>
+      </c>
+      <c r="C312" t="s">
+        <v>9</v>
+      </c>
+      <c r="D312" t="s">
+        <v>100</v>
+      </c>
+      <c r="E312" t="s">
+        <v>10</v>
+      </c>
+      <c r="F312" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>99</v>
+      </c>
+      <c r="B313" t="s">
+        <v>102</v>
+      </c>
+      <c r="C313" t="s">
+        <v>13</v>
+      </c>
+      <c r="D313" t="s">
+        <v>100</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>99</v>
+      </c>
+      <c r="B314" t="s">
+        <v>102</v>
+      </c>
+      <c r="C314" t="s">
+        <v>101</v>
+      </c>
+      <c r="D314" t="s">
+        <v>100</v>
+      </c>
+      <c r="E314" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>99</v>
+      </c>
+      <c r="B315" t="s">
+        <v>102</v>
+      </c>
+      <c r="C315" t="s">
+        <v>9</v>
+      </c>
+      <c r="D315" t="s">
+        <v>100</v>
+      </c>
+      <c r="E315" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>99</v>
+      </c>
+      <c r="B316" t="s">
+        <v>102</v>
+      </c>
+      <c r="C316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D316" t="s">
+        <v>100</v>
+      </c>
+      <c r="E316" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>99</v>
+      </c>
+      <c r="B317" t="s">
+        <v>102</v>
+      </c>
+      <c r="C317" t="s">
+        <v>101</v>
+      </c>
+      <c r="D317" t="s">
+        <v>100</v>
+      </c>
+      <c r="E317" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>99</v>
+      </c>
+      <c r="B318" t="s">
+        <v>102</v>
+      </c>
+      <c r="C318" t="s">
+        <v>9</v>
+      </c>
+      <c r="D318" t="s">
+        <v>100</v>
+      </c>
+      <c r="E318" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>99</v>
+      </c>
+      <c r="B319" t="s">
+        <v>102</v>
+      </c>
+      <c r="C319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D319" t="s">
+        <v>100</v>
+      </c>
+      <c r="E319" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>99</v>
+      </c>
+      <c r="B320" t="s">
+        <v>102</v>
+      </c>
+      <c r="C320" t="s">
+        <v>101</v>
+      </c>
+      <c r="D320" t="s">
+        <v>100</v>
+      </c>
+      <c r="E320" t="s">
+        <v>10</v>
+      </c>
+      <c r="F320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>99</v>
+      </c>
+      <c r="B321" t="s">
+        <v>102</v>
+      </c>
+      <c r="C321" t="s">
+        <v>13</v>
+      </c>
+      <c r="D321" t="s">
+        <v>100</v>
+      </c>
+      <c r="E321" t="s">
+        <v>10</v>
+      </c>
+      <c r="F321" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>99</v>
+      </c>
+      <c r="B322" t="s">
+        <v>102</v>
+      </c>
+      <c r="C322" t="s">
+        <v>101</v>
+      </c>
+      <c r="D322" t="s">
+        <v>100</v>
+      </c>
+      <c r="E322" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>99</v>
+      </c>
+      <c r="B323" t="s">
+        <v>102</v>
+      </c>
+      <c r="C323" t="s">
+        <v>9</v>
+      </c>
+      <c r="D323" t="s">
+        <v>100</v>
+      </c>
+      <c r="E323" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>99</v>
+      </c>
+      <c r="B324" t="s">
+        <v>102</v>
+      </c>
+      <c r="C324" t="s">
+        <v>9</v>
+      </c>
+      <c r="D324" t="s">
+        <v>100</v>
+      </c>
+      <c r="E324" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>99</v>
+      </c>
+      <c r="B325" t="s">
+        <v>102</v>
+      </c>
+      <c r="C325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" t="s">
+        <v>100</v>
+      </c>
+      <c r="E325" t="s">
+        <v>10</v>
+      </c>
+      <c r="F325" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>99</v>
+      </c>
+      <c r="B326" t="s">
+        <v>102</v>
+      </c>
+      <c r="C326" t="s">
+        <v>101</v>
+      </c>
+      <c r="D326" t="s">
+        <v>100</v>
+      </c>
+      <c r="E326" t="s">
+        <v>10</v>
+      </c>
+      <c r="F326" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>99</v>
+      </c>
+      <c r="B327" t="s">
+        <v>134</v>
+      </c>
+      <c r="C327" t="s">
+        <v>132</v>
+      </c>
+      <c r="D327" t="s">
+        <v>100</v>
+      </c>
+      <c r="E327" t="s">
+        <v>10</v>
+      </c>
+      <c r="F327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>99</v>
+      </c>
+      <c r="B328" t="s">
+        <v>134</v>
+      </c>
+      <c r="C328" t="s">
+        <v>104</v>
+      </c>
+      <c r="D328" t="s">
+        <v>100</v>
+      </c>
+      <c r="E328" t="s">
+        <v>10</v>
+      </c>
+      <c r="F328" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>99</v>
+      </c>
+      <c r="B329" t="s">
+        <v>134</v>
+      </c>
+      <c r="C329" t="s">
+        <v>105</v>
+      </c>
+      <c r="D329" t="s">
+        <v>100</v>
+      </c>
+      <c r="E329" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>99</v>
+      </c>
+      <c r="B330" t="s">
+        <v>134</v>
+      </c>
+      <c r="C330" t="s">
+        <v>104</v>
+      </c>
+      <c r="D330" t="s">
+        <v>100</v>
+      </c>
+      <c r="E330" t="s">
+        <v>10</v>
+      </c>
+      <c r="F330" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>99</v>
+      </c>
+      <c r="B331" t="s">
+        <v>134</v>
+      </c>
+      <c r="C331" t="s">
+        <v>105</v>
+      </c>
+      <c r="D331" t="s">
+        <v>100</v>
+      </c>
+      <c r="E331" t="s">
+        <v>10</v>
+      </c>
+      <c r="F331" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>99</v>
+      </c>
+      <c r="B332" t="s">
+        <v>134</v>
+      </c>
+      <c r="C332" t="s">
+        <v>132</v>
+      </c>
+      <c r="D332" t="s">
+        <v>100</v>
+      </c>
+      <c r="E332" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>99</v>
+      </c>
+      <c r="B333" t="s">
+        <v>134</v>
+      </c>
+      <c r="C333" t="s">
+        <v>132</v>
+      </c>
+      <c r="D333" t="s">
+        <v>100</v>
+      </c>
+      <c r="E333" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>99</v>
+      </c>
+      <c r="B334" t="s">
+        <v>134</v>
+      </c>
+      <c r="C334" t="s">
+        <v>104</v>
+      </c>
+      <c r="D334" t="s">
+        <v>100</v>
+      </c>
+      <c r="E334" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>99</v>
+      </c>
+      <c r="B335" t="s">
+        <v>134</v>
+      </c>
+      <c r="C335" t="s">
+        <v>105</v>
+      </c>
+      <c r="D335" t="s">
+        <v>100</v>
+      </c>
+      <c r="E335" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>99</v>
+      </c>
+      <c r="B336" t="s">
+        <v>134</v>
+      </c>
+      <c r="C336" t="s">
+        <v>105</v>
+      </c>
+      <c r="D336" t="s">
+        <v>100</v>
+      </c>
+      <c r="E336" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>99</v>
+      </c>
+      <c r="B337" t="s">
+        <v>134</v>
+      </c>
+      <c r="C337" t="s">
+        <v>132</v>
+      </c>
+      <c r="D337" t="s">
+        <v>100</v>
+      </c>
+      <c r="E337" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>99</v>
+      </c>
+      <c r="B338" t="s">
+        <v>134</v>
+      </c>
+      <c r="C338" t="s">
+        <v>104</v>
+      </c>
+      <c r="D338" t="s">
+        <v>100</v>
+      </c>
+      <c r="E338" t="s">
+        <v>10</v>
+      </c>
+      <c r="F338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>99</v>
+      </c>
+      <c r="B339" t="s">
+        <v>134</v>
+      </c>
+      <c r="C339" t="s">
+        <v>132</v>
+      </c>
+      <c r="D339" t="s">
+        <v>100</v>
+      </c>
+      <c r="E339" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>99</v>
+      </c>
+      <c r="B340" t="s">
+        <v>134</v>
+      </c>
+      <c r="C340" t="s">
+        <v>104</v>
+      </c>
+      <c r="D340" t="s">
+        <v>100</v>
+      </c>
+      <c r="E340" t="s">
+        <v>10</v>
+      </c>
+      <c r="F340" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>99</v>
+      </c>
+      <c r="B341" t="s">
+        <v>134</v>
+      </c>
+      <c r="C341" t="s">
+        <v>105</v>
+      </c>
+      <c r="D341" t="s">
+        <v>100</v>
+      </c>
+      <c r="E341" t="s">
+        <v>10</v>
+      </c>
+      <c r="F341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>99</v>
+      </c>
+      <c r="B342" t="s">
+        <v>134</v>
+      </c>
+      <c r="C342" t="s">
+        <v>132</v>
+      </c>
+      <c r="D342" t="s">
+        <v>100</v>
+      </c>
+      <c r="E342" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>99</v>
+      </c>
+      <c r="B343" t="s">
+        <v>134</v>
+      </c>
+      <c r="C343" t="s">
+        <v>104</v>
+      </c>
+      <c r="D343" t="s">
+        <v>100</v>
+      </c>
+      <c r="E343" t="s">
+        <v>10</v>
+      </c>
+      <c r="F343" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>99</v>
+      </c>
+      <c r="B344" t="s">
+        <v>134</v>
+      </c>
+      <c r="C344" t="s">
+        <v>105</v>
+      </c>
+      <c r="D344" t="s">
+        <v>100</v>
+      </c>
+      <c r="E344" t="s">
+        <v>10</v>
+      </c>
+      <c r="F344" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>99</v>
+      </c>
+      <c r="B345" t="s">
+        <v>134</v>
+      </c>
+      <c r="C345" t="s">
+        <v>105</v>
+      </c>
+      <c r="D345" t="s">
+        <v>100</v>
+      </c>
+      <c r="E345" t="s">
+        <v>10</v>
+      </c>
+      <c r="F345" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>99</v>
+      </c>
+      <c r="B346" t="s">
+        <v>134</v>
+      </c>
+      <c r="C346" t="s">
+        <v>132</v>
+      </c>
+      <c r="D346" t="s">
+        <v>100</v>
+      </c>
+      <c r="E346" t="s">
+        <v>10</v>
+      </c>
+      <c r="F346" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>99</v>
+      </c>
+      <c r="B347" t="s">
+        <v>134</v>
+      </c>
+      <c r="C347" t="s">
+        <v>104</v>
+      </c>
+      <c r="D347" t="s">
+        <v>100</v>
+      </c>
+      <c r="E347" t="s">
+        <v>10</v>
+      </c>
+      <c r="F347" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>99</v>
+      </c>
+      <c r="B348" t="s">
+        <v>134</v>
+      </c>
+      <c r="C348" t="s">
+        <v>132</v>
+      </c>
+      <c r="D348" t="s">
+        <v>100</v>
+      </c>
+      <c r="E348" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>99</v>
+      </c>
+      <c r="B349" t="s">
+        <v>134</v>
+      </c>
+      <c r="C349" t="s">
+        <v>104</v>
+      </c>
+      <c r="D349" t="s">
+        <v>100</v>
+      </c>
+      <c r="E349" t="s">
+        <v>10</v>
+      </c>
+      <c r="F349" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>99</v>
+      </c>
+      <c r="B350" t="s">
+        <v>134</v>
+      </c>
+      <c r="C350" t="s">
+        <v>105</v>
+      </c>
+      <c r="D350" t="s">
+        <v>100</v>
+      </c>
+      <c r="E350" t="s">
+        <v>10</v>
+      </c>
+      <c r="F350" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>99</v>
+      </c>
+      <c r="B351" t="s">
+        <v>134</v>
+      </c>
+      <c r="C351" t="s">
+        <v>132</v>
+      </c>
+      <c r="D351" t="s">
+        <v>100</v>
+      </c>
+      <c r="E351" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>99</v>
+      </c>
+      <c r="B352" t="s">
+        <v>134</v>
+      </c>
+      <c r="C352" t="s">
+        <v>104</v>
+      </c>
+      <c r="D352" t="s">
+        <v>100</v>
+      </c>
+      <c r="E352" t="s">
+        <v>10</v>
+      </c>
+      <c r="F352" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>99</v>
+      </c>
+      <c r="B353" t="s">
+        <v>134</v>
+      </c>
+      <c r="C353" t="s">
+        <v>105</v>
+      </c>
+      <c r="D353" t="s">
+        <v>100</v>
+      </c>
+      <c r="E353" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>99</v>
+      </c>
+      <c r="B354" t="s">
+        <v>103</v>
+      </c>
+      <c r="C354" t="s">
+        <v>70</v>
+      </c>
+      <c r="D354" t="s">
+        <v>100</v>
+      </c>
+      <c r="E354" t="s">
+        <v>10</v>
+      </c>
+      <c r="F354" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>99</v>
+      </c>
+      <c r="B355" t="s">
+        <v>103</v>
+      </c>
+      <c r="C355" t="s">
+        <v>104</v>
+      </c>
+      <c r="D355" t="s">
+        <v>100</v>
+      </c>
+      <c r="E355" t="s">
+        <v>10</v>
+      </c>
+      <c r="F355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>99</v>
+      </c>
+      <c r="B356" t="s">
+        <v>103</v>
+      </c>
+      <c r="C356" t="s">
+        <v>105</v>
+      </c>
+      <c r="D356" t="s">
+        <v>100</v>
+      </c>
+      <c r="E356" t="s">
+        <v>10</v>
+      </c>
+      <c r="F356" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
+  <mergeCells count="82">
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="E12:E15"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="D25:D28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B37:B50"/>
+    <mergeCell ref="B51:B55"/>
+    <mergeCell ref="A29:A69"/>
+    <mergeCell ref="B56:B69"/>
+    <mergeCell ref="D29:D69"/>
+    <mergeCell ref="B70:B78"/>
+    <mergeCell ref="A70:A83"/>
+    <mergeCell ref="B79:B83"/>
+    <mergeCell ref="D70:D83"/>
+    <mergeCell ref="A84:A96"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="D84:D96"/>
+    <mergeCell ref="E84:E96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="A97:A111"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="D97:D111"/>
+    <mergeCell ref="A112:A137"/>
+    <mergeCell ref="B112:B137"/>
+    <mergeCell ref="D112:D137"/>
+    <mergeCell ref="E112:E137"/>
+    <mergeCell ref="A138:A143"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="D138:D143"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="B146:B148"/>
+    <mergeCell ref="A144:A151"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="D144:D151"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="A152:A196"/>
+    <mergeCell ref="B157:B196"/>
+    <mergeCell ref="D152:D196"/>
+    <mergeCell ref="A197:A209"/>
+    <mergeCell ref="B197:B209"/>
+    <mergeCell ref="D197:D209"/>
+    <mergeCell ref="A210:A213"/>
+    <mergeCell ref="B210:B213"/>
+    <mergeCell ref="D210:D213"/>
+    <mergeCell ref="B214:B216"/>
+    <mergeCell ref="A214:A219"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="D214:D219"/>
+    <mergeCell ref="A220:A221"/>
+    <mergeCell ref="B220:B221"/>
+    <mergeCell ref="D220:D221"/>
+    <mergeCell ref="B222:B229"/>
+    <mergeCell ref="B230:B243"/>
+    <mergeCell ref="B244:B285"/>
+    <mergeCell ref="B286:B294"/>
+    <mergeCell ref="B295:B300"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="B303:B326"/>
+    <mergeCell ref="B327:B353"/>
+    <mergeCell ref="A222:A356"/>
+    <mergeCell ref="B354:B356"/>
+    <mergeCell ref="D222:D356"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/tf_template.xlsx
+++ b/tf_template.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>alicloud</t>
   </si>
@@ -486,6 +486,36 @@
   </si>
   <si>
     <t>tencentcloud_instance</t>
+  </si>
+  <si>
+    <t>tencentcloud_cvm_security_group_attachment</t>
+  </si>
+  <si>
+    <t>tencentcloud_mysql_instance</t>
+  </si>
+  <si>
+    <t>tencentcloud_mysql_account</t>
+  </si>
+  <si>
+    <t>tencentcloud_cfs_file_system</t>
+  </si>
+  <si>
+    <t>tencentcloud_cfs_access_rule</t>
+  </si>
+  <si>
+    <t>tencentcloud_tcmq_queue</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_role_sso</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_policy</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_group_policy_attachment</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_user</t>
   </si>
 </sst>
 </file>
@@ -898,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -907,7 +937,7 @@
         <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -918,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -927,7 +957,7 @@
         <v>142</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -938,7 +968,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -947,7 +977,7 @@
         <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -958,7 +988,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -967,7 +997,7 @@
         <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +1008,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -998,7 +1028,7 @@
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1018,7 +1048,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1038,7 +1068,7 @@
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -1058,7 +1088,7 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1078,7 +1108,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1098,7 +1128,7 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
@@ -1107,7 +1137,7 @@
         <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1118,7 +1148,7 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>11</v>
@@ -1138,7 +1168,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -1147,7 +1177,7 @@
         <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -1158,7 +1188,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1364,7 +1394,7 @@
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
@@ -1384,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
         <v>10</v>
@@ -1404,7 +1434,7 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F27" t="s">
         <v>10</v>
@@ -1424,7 +1454,7 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>144</v>
       </c>
       <c r="F28" t="s">
         <v>10</v>
@@ -1438,7 +1468,7 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1447,7 +1477,7 @@
         <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
@@ -1458,7 +1488,7 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
         <v>31</v>
@@ -1467,7 +1497,7 @@
         <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31">
@@ -1478,7 +1508,7 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
@@ -1487,7 +1517,7 @@
         <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32">
@@ -1498,7 +1528,7 @@
         <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
         <v>31</v>
@@ -1518,7 +1548,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
         <v>31</v>
@@ -1538,7 +1568,7 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
         <v>31</v>
@@ -1558,7 +1588,7 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
         <v>31</v>
@@ -1578,7 +1608,7 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
         <v>31</v>
@@ -1598,13 +1628,13 @@
         <v>46</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>31</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
@@ -1618,13 +1648,13 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D38" t="s">
         <v>31</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F38" t="s">
         <v>10</v>
@@ -1638,13 +1668,13 @@
         <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
         <v>10</v>
@@ -1658,16 +1688,16 @@
         <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D40" t="s">
         <v>31</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41">
@@ -1678,13 +1708,13 @@
         <v>46</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D41" t="s">
         <v>31</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -1698,13 +1728,13 @@
         <v>46</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
         <v>31</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -1718,13 +1748,13 @@
         <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F43" t="s">
         <v>10</v>
@@ -1738,13 +1768,13 @@
         <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
         <v>31</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
@@ -1758,13 +1788,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" t="s">
         <v>31</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -1778,13 +1808,13 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
         <v>31</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F46" t="s">
         <v>10</v>
@@ -1798,13 +1828,13 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" t="s">
         <v>31</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
@@ -1818,13 +1848,13 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F48" t="s">
         <v>10</v>
@@ -1838,16 +1868,16 @@
         <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D49" t="s">
         <v>31</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50">
@@ -1858,13 +1888,13 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
         <v>31</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F50" t="s">
         <v>10</v>
@@ -1878,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
@@ -1898,7 +1928,7 @@
         <v>44</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -1918,7 +1948,7 @@
         <v>44</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -1938,7 +1968,7 @@
         <v>44</v>
       </c>
       <c r="C54" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
         <v>31</v>
@@ -1958,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D55" t="s">
         <v>31</v>
@@ -1978,13 +2008,13 @@
         <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
         <v>31</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -1998,13 +2028,13 @@
         <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
         <v>31</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
         <v>10</v>
@@ -2018,13 +2048,13 @@
         <v>46</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
         <v>31</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
         <v>10</v>
@@ -2038,13 +2068,13 @@
         <v>46</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
         <v>31</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -2058,13 +2088,13 @@
         <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -2078,16 +2108,16 @@
         <v>46</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D61" t="s">
         <v>31</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62">
@@ -2098,13 +2128,13 @@
         <v>46</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D62" t="s">
         <v>31</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
@@ -2118,13 +2148,13 @@
         <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
         <v>31</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
         <v>10</v>
@@ -2138,13 +2168,13 @@
         <v>46</v>
       </c>
       <c r="C64" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
         <v>31</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F64" t="s">
         <v>10</v>
@@ -2158,16 +2188,16 @@
         <v>46</v>
       </c>
       <c r="C65" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D65" t="s">
         <v>31</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66">
@@ -2178,13 +2208,13 @@
         <v>46</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D66" t="s">
         <v>31</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
@@ -2198,13 +2228,13 @@
         <v>46</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D67" t="s">
         <v>31</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
@@ -2218,13 +2248,13 @@
         <v>46</v>
       </c>
       <c r="C68" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
         <v>31</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -2238,13 +2268,13 @@
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D69" t="s">
         <v>31</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
@@ -2258,13 +2288,13 @@
         <v>55</v>
       </c>
       <c r="C70" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D70" t="s">
         <v>58</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -2278,13 +2308,13 @@
         <v>55</v>
       </c>
       <c r="C71" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D71" t="s">
         <v>58</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
@@ -2298,13 +2328,13 @@
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
         <v>58</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
@@ -2318,16 +2348,16 @@
         <v>55</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
         <v>58</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74">
@@ -2338,16 +2368,16 @@
         <v>55</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="D74" t="s">
         <v>58</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="75">
@@ -2358,13 +2388,13 @@
         <v>55</v>
       </c>
       <c r="C75" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D75" t="s">
         <v>58</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
@@ -2378,13 +2408,13 @@
         <v>55</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D76" t="s">
         <v>58</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
@@ -2398,16 +2428,16 @@
         <v>55</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="D77" t="s">
         <v>58</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78">
@@ -2418,13 +2448,13 @@
         <v>55</v>
       </c>
       <c r="C78" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D78" t="s">
         <v>58</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="F78" t="s">
         <v>10</v>
@@ -2438,16 +2468,16 @@
         <v>65</v>
       </c>
       <c r="C79" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D79" t="s">
         <v>58</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80">
@@ -2458,13 +2488,13 @@
         <v>65</v>
       </c>
       <c r="C80" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D80" t="s">
         <v>58</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
@@ -2478,16 +2508,16 @@
         <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
         <v>58</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82">
@@ -2498,16 +2528,16 @@
         <v>65</v>
       </c>
       <c r="C82" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D82" t="s">
         <v>58</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="83">
@@ -2518,13 +2548,13 @@
         <v>65</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D83" t="s">
         <v>58</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
@@ -2538,7 +2568,7 @@
         <v>67</v>
       </c>
       <c r="C84" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -2547,7 +2577,7 @@
         <v>149</v>
       </c>
       <c r="F84" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -2558,7 +2588,7 @@
         <v>67</v>
       </c>
       <c r="C85" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -2567,7 +2597,7 @@
         <v>149</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86">
@@ -2578,7 +2608,7 @@
         <v>67</v>
       </c>
       <c r="C86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -2598,7 +2628,7 @@
         <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -2607,7 +2637,7 @@
         <v>149</v>
       </c>
       <c r="F87" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88">
@@ -2618,7 +2648,7 @@
         <v>67</v>
       </c>
       <c r="C88" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -2627,7 +2657,7 @@
         <v>149</v>
       </c>
       <c r="F88" t="s">
-        <v>74</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89">
@@ -2638,7 +2668,7 @@
         <v>67</v>
       </c>
       <c r="C89" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -2647,7 +2677,7 @@
         <v>149</v>
       </c>
       <c r="F89" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90">
@@ -2658,7 +2688,7 @@
         <v>67</v>
       </c>
       <c r="C90" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -2667,7 +2697,7 @@
         <v>149</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91">
@@ -2678,7 +2708,7 @@
         <v>67</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -2687,7 +2717,7 @@
         <v>149</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="92">
@@ -2718,7 +2748,7 @@
         <v>67</v>
       </c>
       <c r="C93" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -2727,7 +2757,7 @@
         <v>149</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94">
@@ -2738,7 +2768,7 @@
         <v>67</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -2747,7 +2777,7 @@
         <v>149</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="95">
@@ -2758,7 +2788,7 @@
         <v>67</v>
       </c>
       <c r="C95" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -2767,7 +2797,7 @@
         <v>149</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96">
@@ -2778,7 +2808,7 @@
         <v>67</v>
       </c>
       <c r="C96" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -2787,7 +2817,7 @@
         <v>149</v>
       </c>
       <c r="F96" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="97">
@@ -2804,7 +2834,7 @@
         <v>79</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F97" t="s">
         <v>10</v>
@@ -2824,10 +2854,10 @@
         <v>79</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="99">
@@ -2844,7 +2874,7 @@
         <v>79</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -2864,7 +2894,7 @@
         <v>79</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
@@ -2884,7 +2914,7 @@
         <v>79</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
@@ -2904,7 +2934,7 @@
         <v>79</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F102" t="s">
         <v>10</v>
@@ -2918,13 +2948,13 @@
         <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D103" t="s">
         <v>79</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
@@ -2938,13 +2968,13 @@
         <v>84</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D104" t="s">
         <v>79</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
@@ -2958,13 +2988,13 @@
         <v>84</v>
       </c>
       <c r="C105" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D105" t="s">
         <v>79</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F105" t="s">
         <v>10</v>
@@ -2978,16 +3008,16 @@
         <v>84</v>
       </c>
       <c r="C106" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
         <v>79</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F106" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="107">
@@ -2998,13 +3028,13 @@
         <v>84</v>
       </c>
       <c r="C107" t="s">
-        <v>53</v>
+        <v>82</v>
       </c>
       <c r="D107" t="s">
         <v>79</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
@@ -3098,7 +3128,7 @@
         <v>67</v>
       </c>
       <c r="C112" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
         <v>31</v>
@@ -3107,7 +3137,7 @@
         <v>149</v>
       </c>
       <c r="F112" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113">
@@ -3118,7 +3148,7 @@
         <v>67</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D113" t="s">
         <v>31</v>
@@ -3127,7 +3157,7 @@
         <v>149</v>
       </c>
       <c r="F113" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="114">
@@ -3138,7 +3168,7 @@
         <v>67</v>
       </c>
       <c r="C114" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -3147,7 +3177,7 @@
         <v>149</v>
       </c>
       <c r="F114" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115">
@@ -3158,7 +3188,7 @@
         <v>67</v>
       </c>
       <c r="C115" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -3167,7 +3197,7 @@
         <v>149</v>
       </c>
       <c r="F115" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="116">
@@ -3178,7 +3208,7 @@
         <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -3198,7 +3228,7 @@
         <v>67</v>
       </c>
       <c r="C117" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -3207,7 +3237,7 @@
         <v>149</v>
       </c>
       <c r="F117" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="118">
@@ -3218,7 +3248,7 @@
         <v>67</v>
       </c>
       <c r="C118" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -3227,7 +3257,7 @@
         <v>149</v>
       </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="119">
@@ -3238,7 +3268,7 @@
         <v>67</v>
       </c>
       <c r="C119" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -3247,7 +3277,7 @@
         <v>149</v>
       </c>
       <c r="F119" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120">
@@ -3258,7 +3288,7 @@
         <v>67</v>
       </c>
       <c r="C120" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -3267,7 +3297,7 @@
         <v>149</v>
       </c>
       <c r="F120" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="121">
@@ -3278,7 +3308,7 @@
         <v>67</v>
       </c>
       <c r="C121" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -3287,7 +3317,7 @@
         <v>149</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="122">
@@ -3298,7 +3328,7 @@
         <v>67</v>
       </c>
       <c r="C122" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -3318,7 +3348,7 @@
         <v>67</v>
       </c>
       <c r="C123" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
         <v>31</v>
@@ -3327,7 +3357,7 @@
         <v>149</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124">
@@ -3338,7 +3368,7 @@
         <v>67</v>
       </c>
       <c r="C124" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D124" t="s">
         <v>31</v>
@@ -3347,7 +3377,7 @@
         <v>149</v>
       </c>
       <c r="F124" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125">
@@ -3358,7 +3388,7 @@
         <v>67</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -3378,7 +3408,7 @@
         <v>67</v>
       </c>
       <c r="C126" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D126" t="s">
         <v>31</v>
@@ -3398,7 +3428,7 @@
         <v>67</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -3407,7 +3437,7 @@
         <v>149</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
     </row>
     <row r="128">
@@ -3418,7 +3448,7 @@
         <v>67</v>
       </c>
       <c r="C128" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D128" t="s">
         <v>31</v>
@@ -3427,7 +3457,7 @@
         <v>149</v>
       </c>
       <c r="F128" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="129">
@@ -3438,7 +3468,7 @@
         <v>67</v>
       </c>
       <c r="C129" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -3447,7 +3477,7 @@
         <v>149</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
     </row>
     <row r="130">
@@ -3458,7 +3488,7 @@
         <v>67</v>
       </c>
       <c r="C130" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -3467,7 +3497,7 @@
         <v>149</v>
       </c>
       <c r="F130" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131">
@@ -3478,7 +3508,7 @@
         <v>67</v>
       </c>
       <c r="C131" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
@@ -3487,7 +3517,7 @@
         <v>149</v>
       </c>
       <c r="F131" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132">
@@ -3498,7 +3528,7 @@
         <v>67</v>
       </c>
       <c r="C132" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D132" t="s">
         <v>31</v>
@@ -3507,7 +3537,7 @@
         <v>149</v>
       </c>
       <c r="F132" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133">
@@ -3518,7 +3548,7 @@
         <v>67</v>
       </c>
       <c r="C133" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D133" t="s">
         <v>31</v>
@@ -3527,7 +3557,7 @@
         <v>149</v>
       </c>
       <c r="F133" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="134">
@@ -3538,7 +3568,7 @@
         <v>67</v>
       </c>
       <c r="C134" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D134" t="s">
         <v>31</v>
@@ -3547,7 +3577,7 @@
         <v>149</v>
       </c>
       <c r="F134" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="135">
@@ -3558,7 +3588,7 @@
         <v>67</v>
       </c>
       <c r="C135" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="D135" t="s">
         <v>31</v>
@@ -3567,7 +3597,7 @@
         <v>149</v>
       </c>
       <c r="F135" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
@@ -3578,7 +3608,7 @@
         <v>67</v>
       </c>
       <c r="C136" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -3598,7 +3628,7 @@
         <v>67</v>
       </c>
       <c r="C137" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
         <v>31</v>
@@ -3607,7 +3637,7 @@
         <v>149</v>
       </c>
       <c r="F137" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138">
@@ -3618,13 +3648,13 @@
         <v>90</v>
       </c>
       <c r="C138" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
         <v>93</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F138" t="s">
         <v>10</v>
@@ -3638,13 +3668,13 @@
         <v>90</v>
       </c>
       <c r="C139" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D139" t="s">
         <v>93</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F139" t="s">
         <v>10</v>
@@ -3658,13 +3688,13 @@
         <v>90</v>
       </c>
       <c r="C140" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D140" t="s">
         <v>93</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F140" t="s">
         <v>10</v>
@@ -3678,13 +3708,13 @@
         <v>90</v>
       </c>
       <c r="C141" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D141" t="s">
         <v>93</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F141" t="s">
         <v>10</v>
@@ -3698,16 +3728,16 @@
         <v>90</v>
       </c>
       <c r="C142" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D142" t="s">
         <v>93</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F142" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="143">
@@ -3718,16 +3748,16 @@
         <v>90</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>92</v>
       </c>
       <c r="D143" t="s">
         <v>93</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="F143" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144">
@@ -3744,10 +3774,10 @@
         <v>100</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145">
@@ -3764,7 +3794,7 @@
         <v>100</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F145" t="s">
         <v>10</v>
@@ -3784,10 +3814,10 @@
         <v>100</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147">
@@ -3804,10 +3834,10 @@
         <v>100</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F147" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="148">
@@ -3824,10 +3854,10 @@
         <v>100</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F148" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149">
@@ -3844,7 +3874,7 @@
         <v>100</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F149" t="s">
         <v>10</v>
@@ -3864,7 +3894,7 @@
         <v>100</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F150" t="s">
         <v>10</v>
@@ -3884,7 +3914,7 @@
         <v>100</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F151" t="s">
         <v>10</v>
@@ -3898,7 +3928,7 @@
         <v>44</v>
       </c>
       <c r="C152" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
         <v>31</v>
@@ -3918,7 +3948,7 @@
         <v>44</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" t="s">
         <v>31</v>
@@ -3938,7 +3968,7 @@
         <v>44</v>
       </c>
       <c r="C154" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D154" t="s">
         <v>31</v>
@@ -3958,7 +3988,7 @@
         <v>44</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D155" t="s">
         <v>31</v>
@@ -3978,7 +4008,7 @@
         <v>44</v>
       </c>
       <c r="C156" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
         <v>31</v>
@@ -3998,13 +4028,13 @@
         <v>46</v>
       </c>
       <c r="C157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D157" t="s">
         <v>31</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F157" t="s">
         <v>10</v>
@@ -4018,13 +4048,13 @@
         <v>46</v>
       </c>
       <c r="C158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D158" t="s">
         <v>31</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F158" t="s">
         <v>10</v>
@@ -4038,13 +4068,13 @@
         <v>46</v>
       </c>
       <c r="C159" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D159" t="s">
         <v>31</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F159" t="s">
         <v>10</v>
@@ -4058,16 +4088,16 @@
         <v>46</v>
       </c>
       <c r="C160" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D160" t="s">
         <v>31</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F160" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="161">
@@ -4078,13 +4108,13 @@
         <v>46</v>
       </c>
       <c r="C161" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D161" t="s">
         <v>31</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F161" t="s">
         <v>10</v>
@@ -4098,13 +4128,13 @@
         <v>46</v>
       </c>
       <c r="C162" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D162" t="s">
         <v>31</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F162" t="s">
         <v>10</v>
@@ -4118,13 +4148,13 @@
         <v>46</v>
       </c>
       <c r="C163" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D163" t="s">
         <v>31</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F163" t="s">
         <v>10</v>
@@ -4138,13 +4168,13 @@
         <v>46</v>
       </c>
       <c r="C164" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D164" t="s">
         <v>31</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F164" t="s">
         <v>10</v>
@@ -4158,13 +4188,13 @@
         <v>46</v>
       </c>
       <c r="C165" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D165" t="s">
         <v>31</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F165" t="s">
         <v>10</v>
@@ -4178,13 +4208,13 @@
         <v>46</v>
       </c>
       <c r="C166" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D166" t="s">
         <v>31</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F166" t="s">
         <v>10</v>
@@ -4198,16 +4228,16 @@
         <v>46</v>
       </c>
       <c r="C167" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D167" t="s">
         <v>31</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F167" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168">
@@ -4218,13 +4248,13 @@
         <v>46</v>
       </c>
       <c r="C168" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D168" t="s">
         <v>31</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F168" t="s">
         <v>10</v>
@@ -4238,13 +4268,13 @@
         <v>46</v>
       </c>
       <c r="C169" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D169" t="s">
         <v>31</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F169" t="s">
         <v>10</v>
@@ -4258,13 +4288,13 @@
         <v>46</v>
       </c>
       <c r="C170" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D170" t="s">
         <v>31</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F170" t="s">
         <v>10</v>
@@ -4278,13 +4308,13 @@
         <v>46</v>
       </c>
       <c r="C171" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D171" t="s">
         <v>31</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F171" t="s">
         <v>10</v>
@@ -4298,13 +4328,13 @@
         <v>46</v>
       </c>
       <c r="C172" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D172" t="s">
         <v>31</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F172" t="s">
         <v>10</v>
@@ -4318,13 +4348,13 @@
         <v>46</v>
       </c>
       <c r="C173" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D173" t="s">
         <v>31</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F173" t="s">
         <v>10</v>
@@ -4338,13 +4368,13 @@
         <v>46</v>
       </c>
       <c r="C174" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D174" t="s">
         <v>31</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F174" t="s">
         <v>10</v>
@@ -4358,13 +4388,13 @@
         <v>46</v>
       </c>
       <c r="C175" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D175" t="s">
         <v>31</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F175" t="s">
         <v>10</v>
@@ -4378,16 +4408,16 @@
         <v>46</v>
       </c>
       <c r="C176" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D176" t="s">
         <v>31</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F176" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="177">
@@ -4398,13 +4428,13 @@
         <v>46</v>
       </c>
       <c r="C177" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D177" t="s">
         <v>31</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F177" t="s">
         <v>10</v>
@@ -4418,13 +4448,13 @@
         <v>46</v>
       </c>
       <c r="C178" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D178" t="s">
         <v>31</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F178" t="s">
         <v>10</v>
@@ -4438,13 +4468,13 @@
         <v>46</v>
       </c>
       <c r="C179" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="D179" t="s">
         <v>31</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F179" t="s">
         <v>10</v>
@@ -4458,13 +4488,13 @@
         <v>46</v>
       </c>
       <c r="C180" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D180" t="s">
         <v>31</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F180" t="s">
         <v>10</v>
@@ -4478,13 +4508,13 @@
         <v>46</v>
       </c>
       <c r="C181" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D181" t="s">
         <v>31</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F181" t="s">
         <v>10</v>
@@ -4498,13 +4528,13 @@
         <v>46</v>
       </c>
       <c r="C182" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D182" t="s">
         <v>31</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F182" t="s">
         <v>10</v>
@@ -4518,13 +4548,13 @@
         <v>46</v>
       </c>
       <c r="C183" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D183" t="s">
         <v>31</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F183" t="s">
         <v>10</v>
@@ -4538,13 +4568,13 @@
         <v>46</v>
       </c>
       <c r="C184" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D184" t="s">
         <v>31</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F184" t="s">
         <v>10</v>
@@ -4558,13 +4588,13 @@
         <v>46</v>
       </c>
       <c r="C185" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D185" t="s">
         <v>31</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F185" t="s">
         <v>10</v>
@@ -4578,13 +4608,13 @@
         <v>46</v>
       </c>
       <c r="C186" t="s">
-        <v>13</v>
+        <v>47</v>
       </c>
       <c r="D186" t="s">
         <v>31</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F186" t="s">
         <v>10</v>
@@ -4598,16 +4628,16 @@
         <v>46</v>
       </c>
       <c r="C187" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D187" t="s">
         <v>31</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F187" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="188">
@@ -4618,13 +4648,13 @@
         <v>46</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D188" t="s">
         <v>31</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F188" t="s">
         <v>10</v>
@@ -4638,13 +4668,13 @@
         <v>46</v>
       </c>
       <c r="C189" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D189" t="s">
         <v>31</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F189" t="s">
         <v>10</v>
@@ -4658,13 +4688,13 @@
         <v>46</v>
       </c>
       <c r="C190" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D190" t="s">
         <v>31</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F190" t="s">
         <v>10</v>
@@ -4678,13 +4708,13 @@
         <v>46</v>
       </c>
       <c r="C191" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D191" t="s">
         <v>31</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F191" t="s">
         <v>10</v>
@@ -4698,13 +4728,13 @@
         <v>46</v>
       </c>
       <c r="C192" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D192" t="s">
         <v>31</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F192" t="s">
         <v>10</v>
@@ -4724,10 +4754,10 @@
         <v>31</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F193" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="194">
@@ -4738,13 +4768,13 @@
         <v>46</v>
       </c>
       <c r="C194" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D194" t="s">
         <v>31</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F194" t="s">
         <v>10</v>
@@ -4758,13 +4788,13 @@
         <v>46</v>
       </c>
       <c r="C195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D195" t="s">
         <v>31</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F195" t="s">
         <v>10</v>
@@ -4778,13 +4808,13 @@
         <v>46</v>
       </c>
       <c r="C196" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D196" t="s">
         <v>31</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="F196" t="s">
         <v>10</v>
@@ -4798,7 +4828,7 @@
         <v>106</v>
       </c>
       <c r="C197" t="s">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="D197" t="s">
         <v>109</v>
@@ -4818,7 +4848,7 @@
         <v>106</v>
       </c>
       <c r="C198" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D198" t="s">
         <v>109</v>
@@ -4838,7 +4868,7 @@
         <v>106</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>117</v>
       </c>
       <c r="D199" t="s">
         <v>109</v>
@@ -4858,7 +4888,7 @@
         <v>106</v>
       </c>
       <c r="C200" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D200" t="s">
         <v>109</v>
@@ -4878,7 +4908,7 @@
         <v>106</v>
       </c>
       <c r="C201" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D201" t="s">
         <v>109</v>
@@ -4898,7 +4928,7 @@
         <v>106</v>
       </c>
       <c r="C202" t="s">
-        <v>117</v>
+        <v>54</v>
       </c>
       <c r="D202" t="s">
         <v>109</v>
@@ -4918,7 +4948,7 @@
         <v>106</v>
       </c>
       <c r="C203" t="s">
-        <v>113</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
         <v>109</v>
@@ -4938,7 +4968,7 @@
         <v>106</v>
       </c>
       <c r="C204" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D204" t="s">
         <v>109</v>
@@ -4958,7 +4988,7 @@
         <v>106</v>
       </c>
       <c r="C205" t="s">
-        <v>54</v>
+        <v>112</v>
       </c>
       <c r="D205" t="s">
         <v>109</v>
@@ -4978,7 +5008,7 @@
         <v>106</v>
       </c>
       <c r="C206" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="D206" t="s">
         <v>109</v>
@@ -4998,7 +5028,7 @@
         <v>106</v>
       </c>
       <c r="C207" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D207" t="s">
         <v>109</v>
@@ -5018,7 +5048,7 @@
         <v>106</v>
       </c>
       <c r="C208" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D208" t="s">
         <v>109</v>
@@ -5038,7 +5068,7 @@
         <v>106</v>
       </c>
       <c r="C209" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D209" t="s">
         <v>109</v>
@@ -5138,16 +5168,16 @@
         <v>102</v>
       </c>
       <c r="C214" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D214" t="s">
         <v>100</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F214" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="215">
@@ -5158,16 +5188,16 @@
         <v>102</v>
       </c>
       <c r="C215" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D215" t="s">
         <v>100</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F215" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216">
@@ -5178,16 +5208,16 @@
         <v>102</v>
       </c>
       <c r="C216" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
         <v>100</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
@@ -5198,13 +5228,13 @@
         <v>103</v>
       </c>
       <c r="C217" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D217" t="s">
         <v>100</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F217" t="s">
         <v>10</v>
@@ -5218,13 +5248,13 @@
         <v>103</v>
       </c>
       <c r="C218" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D218" t="s">
         <v>100</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F218" t="s">
         <v>10</v>
@@ -5238,13 +5268,13 @@
         <v>103</v>
       </c>
       <c r="C219" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D219" t="s">
         <v>100</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F219" t="s">
         <v>10</v>
@@ -5304,10 +5334,10 @@
         <v>100</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223">
@@ -5324,7 +5354,7 @@
         <v>100</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F223" t="s">
         <v>10</v>
@@ -5338,16 +5368,16 @@
         <v>98</v>
       </c>
       <c r="C224" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
         <v>100</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F224" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225">
@@ -5358,13 +5388,13 @@
         <v>98</v>
       </c>
       <c r="C225" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D225" t="s">
         <v>100</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F225" t="s">
         <v>10</v>
@@ -5384,10 +5414,10 @@
         <v>100</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227">
@@ -5404,7 +5434,7 @@
         <v>100</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F227" t="s">
         <v>10</v>
@@ -5424,10 +5454,10 @@
         <v>100</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229">
@@ -5444,7 +5474,7 @@
         <v>100</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F229" t="s">
         <v>10</v>
@@ -5458,16 +5488,16 @@
         <v>102</v>
       </c>
       <c r="C230" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D230" t="s">
         <v>100</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F230" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231">
@@ -5478,16 +5508,16 @@
         <v>102</v>
       </c>
       <c r="C231" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D231" t="s">
         <v>100</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F231" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="232">
@@ -5498,16 +5528,16 @@
         <v>102</v>
       </c>
       <c r="C232" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
         <v>100</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233">
@@ -5524,10 +5554,10 @@
         <v>100</v>
       </c>
       <c r="E233" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234">
@@ -5544,10 +5574,10 @@
         <v>100</v>
       </c>
       <c r="E234" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F234" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235">
@@ -5564,10 +5594,10 @@
         <v>100</v>
       </c>
       <c r="E235" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F235" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="236">
@@ -5584,10 +5614,10 @@
         <v>100</v>
       </c>
       <c r="E236" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237">
@@ -5604,10 +5634,10 @@
         <v>100</v>
       </c>
       <c r="E237" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F237" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238">
@@ -5624,10 +5654,10 @@
         <v>100</v>
       </c>
       <c r="E238" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="239">
@@ -5644,10 +5674,10 @@
         <v>100</v>
       </c>
       <c r="E239" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240">
@@ -5664,10 +5694,10 @@
         <v>100</v>
       </c>
       <c r="E240" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F240" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241">
@@ -5684,10 +5714,10 @@
         <v>100</v>
       </c>
       <c r="E241" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F241" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="242">
@@ -5704,10 +5734,10 @@
         <v>100</v>
       </c>
       <c r="E242" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243">
@@ -5724,10 +5754,10 @@
         <v>100</v>
       </c>
       <c r="E243" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F243" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="244">
@@ -5744,7 +5774,7 @@
         <v>100</v>
       </c>
       <c r="E244" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
@@ -5764,7 +5794,7 @@
         <v>100</v>
       </c>
       <c r="E245" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F245" t="s">
         <v>10</v>
@@ -5784,7 +5814,7 @@
         <v>100</v>
       </c>
       <c r="E246" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F246" t="s">
         <v>10</v>
@@ -5798,13 +5828,13 @@
         <v>103</v>
       </c>
       <c r="C247" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D247" t="s">
         <v>100</v>
       </c>
       <c r="E247" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F247" t="s">
         <v>10</v>
@@ -5818,13 +5848,13 @@
         <v>103</v>
       </c>
       <c r="C248" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D248" t="s">
         <v>100</v>
       </c>
       <c r="E248" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F248" t="s">
         <v>10</v>
@@ -5838,13 +5868,13 @@
         <v>103</v>
       </c>
       <c r="C249" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D249" t="s">
         <v>100</v>
       </c>
       <c r="E249" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F249" t="s">
         <v>10</v>
@@ -5858,13 +5888,13 @@
         <v>103</v>
       </c>
       <c r="C250" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D250" t="s">
         <v>100</v>
       </c>
       <c r="E250" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F250" t="s">
         <v>10</v>
@@ -5878,13 +5908,13 @@
         <v>103</v>
       </c>
       <c r="C251" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D251" t="s">
         <v>100</v>
       </c>
       <c r="E251" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F251" t="s">
         <v>10</v>
@@ -5898,13 +5928,13 @@
         <v>103</v>
       </c>
       <c r="C252" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D252" t="s">
         <v>100</v>
       </c>
       <c r="E252" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F252" t="s">
         <v>10</v>
@@ -5924,7 +5954,7 @@
         <v>100</v>
       </c>
       <c r="E253" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F253" t="s">
         <v>10</v>
@@ -5944,7 +5974,7 @@
         <v>100</v>
       </c>
       <c r="E254" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F254" t="s">
         <v>10</v>
@@ -5964,7 +5994,7 @@
         <v>100</v>
       </c>
       <c r="E255" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F255" t="s">
         <v>10</v>
@@ -5984,7 +6014,7 @@
         <v>100</v>
       </c>
       <c r="E256" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F256" t="s">
         <v>10</v>
@@ -6004,7 +6034,7 @@
         <v>100</v>
       </c>
       <c r="E257" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F257" t="s">
         <v>10</v>
@@ -6024,7 +6054,7 @@
         <v>100</v>
       </c>
       <c r="E258" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F258" t="s">
         <v>10</v>
@@ -6038,13 +6068,13 @@
         <v>103</v>
       </c>
       <c r="C259" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D259" t="s">
         <v>100</v>
       </c>
       <c r="E259" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F259" t="s">
         <v>10</v>
@@ -6058,13 +6088,13 @@
         <v>103</v>
       </c>
       <c r="C260" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D260" t="s">
         <v>100</v>
       </c>
       <c r="E260" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F260" t="s">
         <v>10</v>
@@ -6078,13 +6108,13 @@
         <v>103</v>
       </c>
       <c r="C261" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D261" t="s">
         <v>100</v>
       </c>
       <c r="E261" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F261" t="s">
         <v>10</v>
@@ -6104,7 +6134,7 @@
         <v>100</v>
       </c>
       <c r="E262" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F262" t="s">
         <v>10</v>
@@ -6124,7 +6154,7 @@
         <v>100</v>
       </c>
       <c r="E263" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F263" t="s">
         <v>10</v>
@@ -6144,7 +6174,7 @@
         <v>100</v>
       </c>
       <c r="E264" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F264" t="s">
         <v>10</v>
@@ -6158,13 +6188,13 @@
         <v>103</v>
       </c>
       <c r="C265" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D265" t="s">
         <v>100</v>
       </c>
       <c r="E265" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F265" t="s">
         <v>10</v>
@@ -6178,13 +6208,13 @@
         <v>103</v>
       </c>
       <c r="C266" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D266" t="s">
         <v>100</v>
       </c>
       <c r="E266" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F266" t="s">
         <v>10</v>
@@ -6198,13 +6228,13 @@
         <v>103</v>
       </c>
       <c r="C267" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D267" t="s">
         <v>100</v>
       </c>
       <c r="E267" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F267" t="s">
         <v>10</v>
@@ -6224,7 +6254,7 @@
         <v>100</v>
       </c>
       <c r="E268" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F268" t="s">
         <v>10</v>
@@ -6244,7 +6274,7 @@
         <v>100</v>
       </c>
       <c r="E269" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F269" t="s">
         <v>10</v>
@@ -6264,7 +6294,7 @@
         <v>100</v>
       </c>
       <c r="E270" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F270" t="s">
         <v>10</v>
@@ -6278,13 +6308,13 @@
         <v>103</v>
       </c>
       <c r="C271" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="D271" t="s">
         <v>100</v>
       </c>
       <c r="E271" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F271" t="s">
         <v>10</v>
@@ -6298,13 +6328,13 @@
         <v>103</v>
       </c>
       <c r="C272" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D272" t="s">
         <v>100</v>
       </c>
       <c r="E272" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F272" t="s">
         <v>10</v>
@@ -6318,13 +6348,13 @@
         <v>103</v>
       </c>
       <c r="C273" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="D273" t="s">
         <v>100</v>
       </c>
       <c r="E273" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F273" t="s">
         <v>10</v>
@@ -6344,7 +6374,7 @@
         <v>100</v>
       </c>
       <c r="E274" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F274" t="s">
         <v>10</v>
@@ -6364,7 +6394,7 @@
         <v>100</v>
       </c>
       <c r="E275" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F275" t="s">
         <v>10</v>
@@ -6384,7 +6414,7 @@
         <v>100</v>
       </c>
       <c r="E276" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F276" t="s">
         <v>10</v>
@@ -6404,7 +6434,7 @@
         <v>100</v>
       </c>
       <c r="E277" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F277" t="s">
         <v>10</v>
@@ -6424,7 +6454,7 @@
         <v>100</v>
       </c>
       <c r="E278" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F278" t="s">
         <v>10</v>
@@ -6444,7 +6474,7 @@
         <v>100</v>
       </c>
       <c r="E279" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F279" t="s">
         <v>10</v>
@@ -6464,7 +6494,7 @@
         <v>100</v>
       </c>
       <c r="E280" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F280" t="s">
         <v>10</v>
@@ -6484,7 +6514,7 @@
         <v>100</v>
       </c>
       <c r="E281" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F281" t="s">
         <v>10</v>
@@ -6504,7 +6534,7 @@
         <v>100</v>
       </c>
       <c r="E282" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F282" t="s">
         <v>10</v>
@@ -6524,7 +6554,7 @@
         <v>100</v>
       </c>
       <c r="E283" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F283" t="s">
         <v>10</v>
@@ -6544,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="E284" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F284" t="s">
         <v>10</v>
@@ -6564,7 +6594,7 @@
         <v>100</v>
       </c>
       <c r="E285" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F285" t="s">
         <v>10</v>
@@ -6584,10 +6614,10 @@
         <v>100</v>
       </c>
       <c r="E286" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F286" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287">
@@ -6604,7 +6634,7 @@
         <v>100</v>
       </c>
       <c r="E287" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F287" t="s">
         <v>10</v>
@@ -6624,7 +6654,7 @@
         <v>100</v>
       </c>
       <c r="E288" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F288" t="s">
         <v>10</v>
@@ -6644,10 +6674,10 @@
         <v>100</v>
       </c>
       <c r="E289" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290">
@@ -6664,7 +6694,7 @@
         <v>100</v>
       </c>
       <c r="E290" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F290" t="s">
         <v>10</v>
@@ -6684,7 +6714,7 @@
         <v>100</v>
       </c>
       <c r="E291" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F291" t="s">
         <v>10</v>
@@ -6704,7 +6734,7 @@
         <v>100</v>
       </c>
       <c r="E292" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F292" t="s">
         <v>10</v>
@@ -6724,7 +6754,7 @@
         <v>100</v>
       </c>
       <c r="E293" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F293" t="s">
         <v>10</v>
@@ -6744,10 +6774,10 @@
         <v>100</v>
       </c>
       <c r="E294" t="s">
-        <v>10</v>
+        <v>159</v>
       </c>
       <c r="F294" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295">
@@ -6884,10 +6914,10 @@
         <v>100</v>
       </c>
       <c r="E301" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F301" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302">
@@ -6904,7 +6934,7 @@
         <v>100</v>
       </c>
       <c r="E302" t="s">
-        <v>10</v>
+        <v>156</v>
       </c>
       <c r="F302" t="s">
         <v>10</v>
@@ -6918,16 +6948,16 @@
         <v>102</v>
       </c>
       <c r="C303" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D303" t="s">
         <v>100</v>
       </c>
       <c r="E303" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304">
@@ -6938,16 +6968,16 @@
         <v>102</v>
       </c>
       <c r="C304" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D304" t="s">
         <v>100</v>
       </c>
       <c r="E304" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F304" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305">
@@ -6958,16 +6988,16 @@
         <v>102</v>
       </c>
       <c r="C305" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D305" t="s">
         <v>100</v>
       </c>
       <c r="E305" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F305" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="306">
@@ -6984,10 +7014,10 @@
         <v>100</v>
       </c>
       <c r="E306" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307">
@@ -7004,10 +7034,10 @@
         <v>100</v>
       </c>
       <c r="E307" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F307" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308">
@@ -7024,10 +7054,10 @@
         <v>100</v>
       </c>
       <c r="E308" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F308" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="309">
@@ -7044,10 +7074,10 @@
         <v>100</v>
       </c>
       <c r="E309" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310">
@@ -7064,10 +7094,10 @@
         <v>100</v>
       </c>
       <c r="E310" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F310" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311">
@@ -7084,10 +7114,10 @@
         <v>100</v>
       </c>
       <c r="E311" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F311" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="312">
@@ -7098,16 +7128,16 @@
         <v>102</v>
       </c>
       <c r="C312" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D312" t="s">
         <v>100</v>
       </c>
       <c r="E312" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F312" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="313">
@@ -7118,16 +7148,16 @@
         <v>102</v>
       </c>
       <c r="C313" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D313" t="s">
         <v>100</v>
       </c>
       <c r="E313" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314">
@@ -7138,16 +7168,16 @@
         <v>102</v>
       </c>
       <c r="C314" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D314" t="s">
         <v>100</v>
       </c>
       <c r="E314" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F314" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315">
@@ -7158,16 +7188,16 @@
         <v>102</v>
       </c>
       <c r="C315" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D315" t="s">
         <v>100</v>
       </c>
       <c r="E315" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F315" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316">
@@ -7178,16 +7208,16 @@
         <v>102</v>
       </c>
       <c r="C316" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D316" t="s">
         <v>100</v>
       </c>
       <c r="E316" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F316" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="317">
@@ -7198,16 +7228,16 @@
         <v>102</v>
       </c>
       <c r="C317" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D317" t="s">
         <v>100</v>
       </c>
       <c r="E317" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318">
@@ -7218,16 +7248,16 @@
         <v>102</v>
       </c>
       <c r="C318" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D318" t="s">
         <v>100</v>
       </c>
       <c r="E318" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F318" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319">
@@ -7238,16 +7268,16 @@
         <v>102</v>
       </c>
       <c r="C319" t="s">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="D319" t="s">
         <v>100</v>
       </c>
       <c r="E319" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F319" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="320">
@@ -7258,16 +7288,16 @@
         <v>102</v>
       </c>
       <c r="C320" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="D320" t="s">
         <v>100</v>
       </c>
       <c r="E320" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321">
@@ -7278,16 +7308,16 @@
         <v>102</v>
       </c>
       <c r="C321" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D321" t="s">
         <v>100</v>
       </c>
       <c r="E321" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322">
@@ -7298,16 +7328,16 @@
         <v>102</v>
       </c>
       <c r="C322" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D322" t="s">
         <v>100</v>
       </c>
       <c r="E322" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F322" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323">
@@ -7318,16 +7348,16 @@
         <v>102</v>
       </c>
       <c r="C323" t="s">
-        <v>9</v>
+        <v>101</v>
       </c>
       <c r="D323" t="s">
         <v>100</v>
       </c>
       <c r="E323" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F323" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324">
@@ -7344,10 +7374,10 @@
         <v>100</v>
       </c>
       <c r="E324" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325">
@@ -7364,10 +7394,10 @@
         <v>100</v>
       </c>
       <c r="E325" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F325" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326">
@@ -7384,10 +7414,10 @@
         <v>100</v>
       </c>
       <c r="E326" t="s">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="F326" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
     </row>
     <row r="327">
@@ -7404,7 +7434,7 @@
         <v>100</v>
       </c>
       <c r="E327" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F327" t="s">
         <v>10</v>
@@ -7424,7 +7454,7 @@
         <v>100</v>
       </c>
       <c r="E328" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F328" t="s">
         <v>10</v>
@@ -7444,7 +7474,7 @@
         <v>100</v>
       </c>
       <c r="E329" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F329" t="s">
         <v>10</v>
@@ -7458,13 +7488,13 @@
         <v>134</v>
       </c>
       <c r="C330" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D330" t="s">
         <v>100</v>
       </c>
       <c r="E330" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F330" t="s">
         <v>10</v>
@@ -7478,13 +7508,13 @@
         <v>134</v>
       </c>
       <c r="C331" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D331" t="s">
         <v>100</v>
       </c>
       <c r="E331" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F331" t="s">
         <v>10</v>
@@ -7498,13 +7528,13 @@
         <v>134</v>
       </c>
       <c r="C332" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D332" t="s">
         <v>100</v>
       </c>
       <c r="E332" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F332" t="s">
         <v>10</v>
@@ -7524,7 +7554,7 @@
         <v>100</v>
       </c>
       <c r="E333" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F333" t="s">
         <v>10</v>
@@ -7544,7 +7574,7 @@
         <v>100</v>
       </c>
       <c r="E334" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F334" t="s">
         <v>10</v>
@@ -7564,7 +7594,7 @@
         <v>100</v>
       </c>
       <c r="E335" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F335" t="s">
         <v>10</v>
@@ -7578,13 +7608,13 @@
         <v>134</v>
       </c>
       <c r="C336" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="D336" t="s">
         <v>100</v>
       </c>
       <c r="E336" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F336" t="s">
         <v>10</v>
@@ -7598,13 +7628,13 @@
         <v>134</v>
       </c>
       <c r="C337" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D337" t="s">
         <v>100</v>
       </c>
       <c r="E337" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F337" t="s">
         <v>10</v>
@@ -7618,13 +7648,13 @@
         <v>134</v>
       </c>
       <c r="C338" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D338" t="s">
         <v>100</v>
       </c>
       <c r="E338" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F338" t="s">
         <v>10</v>
@@ -7638,13 +7668,13 @@
         <v>134</v>
       </c>
       <c r="C339" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D339" t="s">
         <v>100</v>
       </c>
       <c r="E339" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F339" t="s">
         <v>10</v>
@@ -7658,13 +7688,13 @@
         <v>134</v>
       </c>
       <c r="C340" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D340" t="s">
         <v>100</v>
       </c>
       <c r="E340" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F340" t="s">
         <v>10</v>
@@ -7678,13 +7708,13 @@
         <v>134</v>
       </c>
       <c r="C341" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D341" t="s">
         <v>100</v>
       </c>
       <c r="E341" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F341" t="s">
         <v>10</v>
@@ -7698,13 +7728,13 @@
         <v>134</v>
       </c>
       <c r="C342" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D342" t="s">
         <v>100</v>
       </c>
       <c r="E342" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F342" t="s">
         <v>10</v>
@@ -7718,13 +7748,13 @@
         <v>134</v>
       </c>
       <c r="C343" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D343" t="s">
         <v>100</v>
       </c>
       <c r="E343" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F343" t="s">
         <v>10</v>
@@ -7738,13 +7768,13 @@
         <v>134</v>
       </c>
       <c r="C344" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D344" t="s">
         <v>100</v>
       </c>
       <c r="E344" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F344" t="s">
         <v>10</v>
@@ -7758,13 +7788,13 @@
         <v>134</v>
       </c>
       <c r="C345" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D345" t="s">
         <v>100</v>
       </c>
       <c r="E345" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F345" t="s">
         <v>10</v>
@@ -7778,13 +7808,13 @@
         <v>134</v>
       </c>
       <c r="C346" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="D346" t="s">
         <v>100</v>
       </c>
       <c r="E346" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F346" t="s">
         <v>10</v>
@@ -7798,13 +7828,13 @@
         <v>134</v>
       </c>
       <c r="C347" t="s">
-        <v>104</v>
+        <v>132</v>
       </c>
       <c r="D347" t="s">
         <v>100</v>
       </c>
       <c r="E347" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F347" t="s">
         <v>10</v>
@@ -7824,7 +7854,7 @@
         <v>100</v>
       </c>
       <c r="E348" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F348" t="s">
         <v>10</v>
@@ -7844,7 +7874,7 @@
         <v>100</v>
       </c>
       <c r="E349" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F349" t="s">
         <v>10</v>
@@ -7864,7 +7894,7 @@
         <v>100</v>
       </c>
       <c r="E350" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F350" t="s">
         <v>10</v>
@@ -7884,7 +7914,7 @@
         <v>100</v>
       </c>
       <c r="E351" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F351" t="s">
         <v>10</v>
@@ -7904,7 +7934,7 @@
         <v>100</v>
       </c>
       <c r="E352" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F352" t="s">
         <v>10</v>
@@ -7924,7 +7954,7 @@
         <v>100</v>
       </c>
       <c r="E353" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F353" t="s">
         <v>10</v>
@@ -7938,13 +7968,13 @@
         <v>103</v>
       </c>
       <c r="C354" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="D354" t="s">
         <v>100</v>
       </c>
       <c r="E354" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F354" t="s">
         <v>10</v>
@@ -7958,13 +7988,13 @@
         <v>103</v>
       </c>
       <c r="C355" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D355" t="s">
         <v>100</v>
       </c>
       <c r="E355" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F355" t="s">
         <v>10</v>
@@ -7978,20 +8008,20 @@
         <v>103</v>
       </c>
       <c r="C356" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D356" t="s">
         <v>100</v>
       </c>
       <c r="E356" t="s">
-        <v>10</v>
+        <v>158</v>
       </c>
       <c r="F356" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="103">
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="E2:E5"/>
     <mergeCell ref="B6:B11"/>
@@ -8012,25 +8042,32 @@
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="D25:D28"/>
+    <mergeCell ref="E25:E28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="E29:E31"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B50"/>
+    <mergeCell ref="E37:E50"/>
     <mergeCell ref="B51:B55"/>
     <mergeCell ref="A29:A69"/>
     <mergeCell ref="B56:B69"/>
     <mergeCell ref="D29:D69"/>
+    <mergeCell ref="E56:E69"/>
     <mergeCell ref="B70:B78"/>
+    <mergeCell ref="E70:E78"/>
     <mergeCell ref="A70:A83"/>
     <mergeCell ref="B79:B83"/>
     <mergeCell ref="D70:D83"/>
+    <mergeCell ref="E79:E83"/>
     <mergeCell ref="A84:A96"/>
     <mergeCell ref="B84:B96"/>
     <mergeCell ref="D84:D96"/>
     <mergeCell ref="E84:E96"/>
     <mergeCell ref="B97:B99"/>
+    <mergeCell ref="E97:E99"/>
     <mergeCell ref="B100:B102"/>
     <mergeCell ref="B103:B107"/>
+    <mergeCell ref="E100:E107"/>
     <mergeCell ref="A97:A111"/>
     <mergeCell ref="B108:B111"/>
     <mergeCell ref="D97:D111"/>
@@ -8041,15 +8078,20 @@
     <mergeCell ref="A138:A143"/>
     <mergeCell ref="B138:B143"/>
     <mergeCell ref="D138:D143"/>
+    <mergeCell ref="E138:E143"/>
     <mergeCell ref="B144:B145"/>
+    <mergeCell ref="E144:E145"/>
     <mergeCell ref="B146:B148"/>
+    <mergeCell ref="E146:E148"/>
     <mergeCell ref="A144:A151"/>
     <mergeCell ref="B149:B151"/>
     <mergeCell ref="D144:D151"/>
+    <mergeCell ref="E149:E151"/>
     <mergeCell ref="B152:B156"/>
     <mergeCell ref="A152:A196"/>
     <mergeCell ref="B157:B196"/>
     <mergeCell ref="D152:D196"/>
+    <mergeCell ref="E157:E196"/>
     <mergeCell ref="A197:A209"/>
     <mergeCell ref="B197:B209"/>
     <mergeCell ref="D197:D209"/>
@@ -8057,23 +8099,32 @@
     <mergeCell ref="B210:B213"/>
     <mergeCell ref="D210:D213"/>
     <mergeCell ref="B214:B216"/>
+    <mergeCell ref="E214:E216"/>
     <mergeCell ref="A214:A219"/>
     <mergeCell ref="B217:B219"/>
     <mergeCell ref="D214:D219"/>
+    <mergeCell ref="E217:E219"/>
     <mergeCell ref="A220:A221"/>
     <mergeCell ref="B220:B221"/>
     <mergeCell ref="D220:D221"/>
     <mergeCell ref="B222:B229"/>
+    <mergeCell ref="E222:E229"/>
     <mergeCell ref="B230:B243"/>
+    <mergeCell ref="E230:E243"/>
     <mergeCell ref="B244:B285"/>
+    <mergeCell ref="E244:E285"/>
     <mergeCell ref="B286:B294"/>
+    <mergeCell ref="E286:E294"/>
     <mergeCell ref="B295:B300"/>
     <mergeCell ref="B301:B302"/>
+    <mergeCell ref="E301:E302"/>
     <mergeCell ref="B303:B326"/>
+    <mergeCell ref="E303:E326"/>
     <mergeCell ref="B327:B353"/>
     <mergeCell ref="A222:A356"/>
     <mergeCell ref="B354:B356"/>
     <mergeCell ref="D222:D356"/>
+    <mergeCell ref="E327:E356"/>
   </mergeCells>
 </worksheet>
 </file>
--- a/tf_template.xlsx
+++ b/tf_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-64380" yWindow="-5060" windowWidth="52620" windowHeight="29480"/>
+    <workbookView xWindow="-65480" yWindow="-1360" windowWidth="52620" windowHeight="29480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="188">
   <si>
     <t>alicloud</t>
   </si>
@@ -629,12 +629,21 @@
   <si>
     <t>tencentcloud_subnet</t>
   </si>
+  <si>
+    <t>能支持,install_cloud_monitor为是否安装云监控 tke能够安装cls进行日志管理
+(另外：阿里用到enable_ssh，key_name，pod_cidr腾讯没有对应的字段,经确认腾讯不需要额外输入这些字段。master_instance_types，worker_instance_types的取值和cvm一样需要找到与阿里对应的实例类型)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alicloud_images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,12 +662,25 @@
     <font>
       <b val="1"/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
       <color/>
       <name val="等线"/>
       <family val="2"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,66 +689,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="dashed">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="dotted">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -735,39 +707,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
       <alignment/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="false">
-      <alignment/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="false">
-      <alignment/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1095,32 +1056,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1128,7 +1089,7 @@
       <c r="A2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C2" t="s">
@@ -1137,13 +1098,13 @@
       <c r="D2" t="s">
         <v>154</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1151,7 +1112,7 @@
       <c r="A3" t="s">
         <v>151</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C3" t="s">
@@ -1160,13 +1121,13 @@
       <c r="D3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1174,7 +1135,7 @@
       <c r="A4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C4" t="s">
@@ -1183,13 +1144,13 @@
       <c r="D4" t="s">
         <v>154</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1197,7 +1158,7 @@
       <c r="A5" t="s">
         <v>151</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>152</v>
       </c>
       <c r="C5" t="s">
@@ -1206,13 +1167,13 @@
       <c r="D5" t="s">
         <v>154</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>155</v>
       </c>
       <c r="F5" t="s">
         <v>156</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>164</v>
       </c>
     </row>
@@ -1220,7 +1181,7 @@
       <c r="A6" t="s">
         <v>125</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C6" t="s">
@@ -1235,7 +1196,7 @@
       <c r="F6" t="s">
         <v>10</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1243,7 +1204,7 @@
       <c r="A7" t="s">
         <v>125</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>124</v>
       </c>
       <c r="C7" t="s">
@@ -1258,7 +1219,7 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="7" t="s">
         <v>165</v>
       </c>
     </row>
@@ -1266,7 +1227,7 @@
       <c r="A8" t="s">
         <v>107</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C8" t="s">
@@ -1275,21 +1236,21 @@
       <c r="D8" t="s">
         <v>109</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>166</v>
+      <c r="G8" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>107</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C9" t="s">
@@ -1298,21 +1259,21 @@
       <c r="D9" t="s">
         <v>109</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
-        <v>166</v>
+      <c r="G9" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C10" t="s">
@@ -1321,21 +1282,21 @@
       <c r="D10" t="s">
         <v>109</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="s">
-        <v>166</v>
+      <c r="G10" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>107</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C11" t="s">
@@ -1344,21 +1305,21 @@
       <c r="D11" t="s">
         <v>109</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>166</v>
+      <c r="G11" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>107</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C12" t="s">
@@ -1367,21 +1328,21 @@
       <c r="D12" t="s">
         <v>109</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="s">
-        <v>166</v>
+      <c r="G12" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>107</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C13" t="s">
@@ -1390,21 +1351,21 @@
       <c r="D13" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
       </c>
-      <c r="G13" t="s">
-        <v>166</v>
+      <c r="G13" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C14" t="s">
@@ -1413,21 +1374,21 @@
       <c r="D14" t="s">
         <v>109</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
       </c>
-      <c r="G14" t="s">
-        <v>166</v>
+      <c r="G14" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C15" t="s">
@@ -1436,21 +1397,21 @@
       <c r="D15" t="s">
         <v>109</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
       </c>
-      <c r="G15" t="s">
-        <v>166</v>
+      <c r="G15" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>107</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C16" t="s">
@@ -1459,21 +1420,21 @@
       <c r="D16" t="s">
         <v>109</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F16" t="s">
         <v>118</v>
       </c>
-      <c r="G16" t="s">
-        <v>166</v>
+      <c r="G16" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>107</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C17" t="s">
@@ -1482,21 +1443,21 @@
       <c r="D17" t="s">
         <v>109</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
-        <v>166</v>
+      <c r="G17" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>107</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C18" t="s">
@@ -1505,21 +1466,21 @@
       <c r="D18" t="s">
         <v>109</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F18" t="s">
         <v>10</v>
       </c>
-      <c r="G18" t="s">
-        <v>166</v>
+      <c r="G18" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>107</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C19" t="s">
@@ -1528,21 +1489,21 @@
       <c r="D19" t="s">
         <v>109</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>166</v>
+      <c r="G19" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>107</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>106</v>
       </c>
       <c r="C20" t="s">
@@ -1551,14 +1512,14 @@
       <c r="D20" t="s">
         <v>109</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="6" t="s">
         <v>161</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="s">
-        <v>166</v>
+      <c r="G20" s="7" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="21">
@@ -1566,7 +1527,7 @@
         <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C21" t="s">
         <v>123</v>
@@ -1580,7 +1541,7 @@
       <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1589,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C22" t="s">
         <v>121</v>
@@ -1603,7 +1564,7 @@
       <c r="F22" t="s">
         <v>10</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1612,7 +1573,7 @@
         <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C23" t="s">
         <v>120</v>
@@ -1626,7 +1587,7 @@
       <c r="F23" t="s">
         <v>10</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1635,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="C24" t="s">
         <v>122</v>
@@ -1649,7 +1610,7 @@
       <c r="F24" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1657,7 +1618,7 @@
       <c r="A25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C25" t="s">
@@ -1666,13 +1627,13 @@
       <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F25" t="s">
         <v>10</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1680,7 +1641,7 @@
       <c r="A26" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C26" t="s">
@@ -1689,13 +1650,13 @@
       <c r="D26" t="s">
         <v>31</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F26" t="s">
         <v>68</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1703,7 +1664,7 @@
       <c r="A27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C27" t="s">
@@ -1712,13 +1673,13 @@
       <c r="D27" t="s">
         <v>31</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F27" t="s">
         <v>62</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1726,7 +1687,7 @@
       <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C28" t="s">
@@ -1735,13 +1696,13 @@
       <c r="D28" t="s">
         <v>31</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F28" t="s">
         <v>59</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1749,7 +1710,7 @@
       <c r="A29" t="s">
         <v>41</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C29" t="s">
@@ -1758,13 +1719,13 @@
       <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F29" t="s">
         <v>69</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1772,7 +1733,7 @@
       <c r="A30" t="s">
         <v>41</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
@@ -1781,13 +1742,13 @@
       <c r="D30" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F30" t="s">
         <v>42</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1795,7 +1756,7 @@
       <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
@@ -1804,13 +1765,13 @@
       <c r="D31" t="s">
         <v>31</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1818,7 +1779,7 @@
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C32" t="s">
@@ -1827,13 +1788,13 @@
       <c r="D32" t="s">
         <v>31</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F32" t="s">
         <v>74</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1841,7 +1802,7 @@
       <c r="A33" t="s">
         <v>41</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C33" t="s">
@@ -1850,13 +1811,13 @@
       <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1864,7 +1825,7 @@
       <c r="A34" t="s">
         <v>41</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C34" t="s">
@@ -1873,13 +1834,13 @@
       <c r="D34" t="s">
         <v>31</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F34" t="s">
         <v>14</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1887,7 +1848,7 @@
       <c r="A35" t="s">
         <v>41</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
@@ -1896,13 +1857,13 @@
       <c r="D35" t="s">
         <v>31</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F35" t="s">
         <v>75</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1910,7 +1871,7 @@
       <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
@@ -1919,13 +1880,13 @@
       <c r="D36" t="s">
         <v>31</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1933,7 +1894,7 @@
       <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
@@ -1942,13 +1903,13 @@
       <c r="D37" t="s">
         <v>31</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="6" t="s">
         <v>141</v>
       </c>
       <c r="F37" t="s">
         <v>10</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1956,7 +1917,7 @@
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
@@ -1965,13 +1926,13 @@
       <c r="D38" t="s">
         <v>31</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="6" t="s">
         <v>140</v>
       </c>
       <c r="F38" t="s">
         <v>42</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -1979,7 +1940,7 @@
       <c r="A39" t="s">
         <v>41</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
@@ -1988,13 +1949,13 @@
       <c r="D39" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E39" s="6" t="s">
         <v>140</v>
       </c>
       <c r="F39" t="s">
         <v>43</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2002,7 +1963,7 @@
       <c r="A40" t="s">
         <v>41</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
@@ -2011,13 +1972,13 @@
       <c r="D40" t="s">
         <v>31</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="6" t="s">
         <v>140</v>
       </c>
       <c r="F40" t="s">
         <v>14</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="7" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2025,7 +1986,7 @@
       <c r="A41" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C41" t="s">
@@ -2034,13 +1995,13 @@
       <c r="D41" t="s">
         <v>31</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F41" t="s">
         <v>47</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2048,7 +2009,7 @@
       <c r="A42" t="s">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C42" t="s">
@@ -2057,13 +2018,13 @@
       <c r="D42" t="s">
         <v>31</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2071,7 +2032,7 @@
       <c r="A43" t="s">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C43" t="s">
@@ -2080,13 +2041,13 @@
       <c r="D43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F43" t="s">
         <v>49</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2094,7 +2055,7 @@
       <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C44" t="s">
@@ -2103,13 +2064,13 @@
       <c r="D44" t="s">
         <v>31</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F44" t="s">
         <v>10</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2117,7 +2078,7 @@
       <c r="A45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
@@ -2126,13 +2087,13 @@
       <c r="D45" t="s">
         <v>31</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2140,7 +2101,7 @@
       <c r="A46" t="s">
         <v>41</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C46" t="s">
@@ -2149,13 +2110,13 @@
       <c r="D46" t="s">
         <v>31</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F46" t="s">
         <v>52</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2163,7 +2124,7 @@
       <c r="A47" t="s">
         <v>41</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C47" t="s">
@@ -2172,13 +2133,13 @@
       <c r="D47" t="s">
         <v>31</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F47" t="s">
         <v>10</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2186,7 +2147,7 @@
       <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C48" t="s">
@@ -2195,13 +2156,13 @@
       <c r="D48" t="s">
         <v>31</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F48" t="s">
         <v>54</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2209,7 +2170,7 @@
       <c r="A49" t="s">
         <v>41</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>46</v>
       </c>
       <c r="C49" t="s">
@@ -2218,13 +2179,13 @@
       <c r="D49" t="s">
         <v>31</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="6" t="s">
         <v>167</v>
       </c>
       <c r="F49" t="s">
         <v>48</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="7" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2232,7 +2193,7 @@
       <c r="A50" t="s">
         <v>41</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C50" t="s">
@@ -2241,13 +2202,13 @@
       <c r="D50" t="s">
         <v>31</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="6" t="s">
         <v>169</v>
       </c>
       <c r="F50" t="s">
         <v>13</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2255,7 +2216,7 @@
       <c r="A51" t="s">
         <v>41</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C51" t="s">
@@ -2264,13 +2225,13 @@
       <c r="D51" t="s">
         <v>31</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="6" t="s">
         <v>169</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2278,7 +2239,7 @@
       <c r="A52" t="s">
         <v>41</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C52" t="s">
@@ -2287,13 +2248,13 @@
       <c r="D52" t="s">
         <v>31</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="6" t="s">
         <v>169</v>
       </c>
       <c r="F52" t="s">
         <v>9</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2301,7 +2262,7 @@
       <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C53" t="s">
@@ -2310,13 +2271,13 @@
       <c r="D53" t="s">
         <v>31</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="6" t="s">
         <v>169</v>
       </c>
       <c r="F53" t="s">
         <v>14</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2324,7 +2285,7 @@
       <c r="A54" t="s">
         <v>41</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>44</v>
       </c>
       <c r="C54" t="s">
@@ -2333,13 +2294,13 @@
       <c r="D54" t="s">
         <v>31</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="6" t="s">
         <v>169</v>
       </c>
       <c r="F54" t="s">
         <v>10</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -2347,7 +2308,7 @@
       <c r="A55" t="s">
         <v>30</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C55" t="s">
@@ -2356,13 +2317,13 @@
       <c r="D55" t="s">
         <v>31</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="6" t="s">
         <v>139</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2370,7 +2331,7 @@
       <c r="A56" t="s">
         <v>30</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C56" t="s">
@@ -2379,13 +2340,13 @@
       <c r="D56" t="s">
         <v>31</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E56" s="6" t="s">
         <v>139</v>
       </c>
       <c r="F56" t="s">
         <v>34</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="7" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2393,7 +2354,7 @@
       <c r="A57" t="s">
         <v>30</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C57" t="s">
@@ -2402,13 +2363,13 @@
       <c r="D57" t="s">
         <v>31</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="6" t="s">
         <v>138</v>
       </c>
       <c r="F57" t="s">
         <v>9</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2416,7 +2377,7 @@
       <c r="A58" t="s">
         <v>30</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C58" t="s">
@@ -2425,13 +2386,13 @@
       <c r="D58" t="s">
         <v>31</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="6" t="s">
         <v>138</v>
       </c>
       <c r="F58" t="s">
         <v>14</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2439,7 +2400,7 @@
       <c r="A59" t="s">
         <v>91</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C59" t="s">
@@ -2448,13 +2409,13 @@
       <c r="D59" t="s">
         <v>93</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2462,7 +2423,7 @@
       <c r="A60" t="s">
         <v>91</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C60" t="s">
@@ -2471,13 +2432,13 @@
       <c r="D60" t="s">
         <v>93</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2485,7 +2446,7 @@
       <c r="A61" t="s">
         <v>91</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C61" t="s">
@@ -2494,13 +2455,13 @@
       <c r="D61" t="s">
         <v>93</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F61" t="s">
         <v>10</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2508,7 +2469,7 @@
       <c r="A62" t="s">
         <v>91</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C62" t="s">
@@ -2517,13 +2478,13 @@
       <c r="D62" t="s">
         <v>93</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F62" t="s">
         <v>10</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2531,7 +2492,7 @@
       <c r="A63" t="s">
         <v>91</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C63" t="s">
@@ -2540,13 +2501,13 @@
       <c r="D63" t="s">
         <v>93</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F63" t="s">
         <v>92</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2554,7 +2515,7 @@
       <c r="A64" t="s">
         <v>91</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C64" t="s">
@@ -2563,13 +2524,13 @@
       <c r="D64" t="s">
         <v>93</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="6" t="s">
         <v>146</v>
       </c>
       <c r="F64" t="s">
         <v>97</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="7" t="s">
         <v>172</v>
       </c>
     </row>
@@ -2577,7 +2538,7 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C65" t="s">
@@ -2586,13 +2547,13 @@
       <c r="D65" t="s">
         <v>26</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F65" t="s">
         <v>9</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2600,7 +2561,7 @@
       <c r="A66" t="s">
         <v>24</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C66" t="s">
@@ -2609,13 +2570,13 @@
       <c r="D66" t="s">
         <v>26</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F66" t="s">
         <v>10</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2623,7 +2584,7 @@
       <c r="A67" t="s">
         <v>24</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C67" t="s">
@@ -2632,13 +2593,13 @@
       <c r="D67" t="s">
         <v>26</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F67" t="s">
         <v>10</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2646,7 +2607,7 @@
       <c r="A68" t="s">
         <v>24</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C68" t="s">
@@ -2655,13 +2616,13 @@
       <c r="D68" t="s">
         <v>26</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F68" t="s">
         <v>16</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2669,7 +2630,7 @@
       <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C69" t="s">
@@ -2678,13 +2639,13 @@
       <c r="D69" t="s">
         <v>26</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="6" t="s">
         <v>137</v>
       </c>
       <c r="F69" t="s">
         <v>10</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="7" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2692,7 +2653,7 @@
       <c r="A70" t="s">
         <v>24</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C70" t="s">
@@ -2701,13 +2662,13 @@
       <c r="D70" t="s">
         <v>26</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2715,7 +2676,7 @@
       <c r="A71" t="s">
         <v>24</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C71" t="s">
@@ -2724,13 +2685,13 @@
       <c r="D71" t="s">
         <v>26</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F71" t="s">
         <v>10</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2738,7 +2699,7 @@
       <c r="A72" t="s">
         <v>24</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C72" t="s">
@@ -2747,13 +2708,13 @@
       <c r="D72" t="s">
         <v>26</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F72" t="s">
         <v>10</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2761,7 +2722,7 @@
       <c r="A73" t="s">
         <v>24</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>35</v>
       </c>
       <c r="C73" t="s">
@@ -2770,13 +2731,13 @@
       <c r="D73" t="s">
         <v>26</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F73" t="s">
         <v>10</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="7" t="s">
         <v>174</v>
       </c>
     </row>
@@ -2784,7 +2745,7 @@
       <c r="A74" t="s">
         <v>77</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C74" t="s">
@@ -2793,13 +2754,13 @@
       <c r="D74" t="s">
         <v>79</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F74" t="s">
         <v>10</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2807,7 +2768,7 @@
       <c r="A75" t="s">
         <v>77</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C75" t="s">
@@ -2816,13 +2777,13 @@
       <c r="D75" t="s">
         <v>79</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F75" t="s">
         <v>10</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2830,7 +2791,7 @@
       <c r="A76" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>81</v>
       </c>
       <c r="C76" t="s">
@@ -2839,13 +2800,13 @@
       <c r="D76" t="s">
         <v>79</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F76" t="s">
         <v>10</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2853,7 +2814,7 @@
       <c r="A77" t="s">
         <v>77</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C77" t="s">
@@ -2862,13 +2823,13 @@
       <c r="D77" t="s">
         <v>79</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F77" t="s">
         <v>10</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2876,7 +2837,7 @@
       <c r="A78" t="s">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C78" t="s">
@@ -2885,13 +2846,13 @@
       <c r="D78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F78" t="s">
         <v>53</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2899,7 +2860,7 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C79" t="s">
@@ -2908,13 +2869,13 @@
       <c r="D79" t="s">
         <v>79</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F79" t="s">
         <v>10</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2922,7 +2883,7 @@
       <c r="A80" t="s">
         <v>77</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C80" t="s">
@@ -2931,13 +2892,13 @@
       <c r="D80" t="s">
         <v>79</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F80" t="s">
         <v>10</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2945,7 +2906,7 @@
       <c r="A81" t="s">
         <v>77</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>84</v>
       </c>
       <c r="C81" t="s">
@@ -2954,13 +2915,13 @@
       <c r="D81" t="s">
         <v>79</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="6" t="s">
         <v>145</v>
       </c>
       <c r="F81" t="s">
         <v>10</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2968,7 +2929,7 @@
       <c r="A82" t="s">
         <v>77</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C82" t="s">
@@ -2977,13 +2938,13 @@
       <c r="D82" t="s">
         <v>79</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F82" t="s">
         <v>10</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -2991,7 +2952,7 @@
       <c r="A83" t="s">
         <v>77</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C83" t="s">
@@ -3000,13 +2961,13 @@
       <c r="D83" t="s">
         <v>79</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F83" t="s">
         <v>10</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3014,7 +2975,7 @@
       <c r="A84" t="s">
         <v>77</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>76</v>
       </c>
       <c r="C84" t="s">
@@ -3023,13 +2984,13 @@
       <c r="D84" t="s">
         <v>79</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F84" t="s">
         <v>80</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="7" t="s">
         <v>175</v>
       </c>
     </row>
@@ -3037,7 +2998,7 @@
       <c r="A85" t="s">
         <v>77</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C85" t="s">
@@ -3046,13 +3007,13 @@
       <c r="D85" t="s">
         <v>79</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F85" t="s">
         <v>10</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3060,7 +3021,7 @@
       <c r="A86" t="s">
         <v>77</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C86" t="s">
@@ -3069,13 +3030,13 @@
       <c r="D86" t="s">
         <v>79</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F86" t="s">
         <v>10</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3083,7 +3044,7 @@
       <c r="A87" t="s">
         <v>77</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
@@ -3092,13 +3053,13 @@
       <c r="D87" t="s">
         <v>79</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F87" t="s">
         <v>10</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3106,7 +3067,7 @@
       <c r="A88" t="s">
         <v>77</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>88</v>
       </c>
       <c r="C88" t="s">
@@ -3115,13 +3076,13 @@
       <c r="D88" t="s">
         <v>79</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="6" t="s">
         <v>176</v>
       </c>
       <c r="F88" t="s">
         <v>10</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3129,7 +3090,7 @@
       <c r="A89" t="s">
         <v>99</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C89" t="s">
@@ -3144,7 +3105,7 @@
       <c r="F89" t="s">
         <v>10</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3152,7 +3113,7 @@
       <c r="A90" t="s">
         <v>99</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>131</v>
       </c>
       <c r="C90" t="s">
@@ -3167,7 +3128,7 @@
       <c r="F90" t="s">
         <v>10</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3175,7 +3136,7 @@
       <c r="A91" t="s">
         <v>99</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C91" t="s">
@@ -3184,13 +3145,13 @@
       <c r="D91" t="s">
         <v>100</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F91" t="s">
         <v>13</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3198,7 +3159,7 @@
       <c r="A92" t="s">
         <v>99</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C92" t="s">
@@ -3207,13 +3168,13 @@
       <c r="D92" t="s">
         <v>100</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F92" t="s">
         <v>101</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3221,7 +3182,7 @@
       <c r="A93" t="s">
         <v>99</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>102</v>
       </c>
       <c r="C93" t="s">
@@ -3230,13 +3191,13 @@
       <c r="D93" t="s">
         <v>100</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="6" t="s">
         <v>148</v>
       </c>
       <c r="F93" t="s">
         <v>9</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3244,7 +3205,7 @@
       <c r="A94" t="s">
         <v>99</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C94" t="s">
@@ -3253,13 +3214,13 @@
       <c r="D94" t="s">
         <v>100</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="6" t="s">
         <v>149</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3267,7 +3228,7 @@
       <c r="A95" t="s">
         <v>99</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C95" t="s">
@@ -3276,13 +3237,13 @@
       <c r="D95" t="s">
         <v>100</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="6" t="s">
         <v>149</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3290,7 +3251,7 @@
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>103</v>
       </c>
       <c r="C96" t="s">
@@ -3299,13 +3260,13 @@
       <c r="D96" t="s">
         <v>100</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="6" t="s">
         <v>149</v>
       </c>
       <c r="F96" t="s">
         <v>10</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="7" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3313,7 +3274,7 @@
       <c r="A97" t="s">
         <v>99</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
@@ -3322,13 +3283,13 @@
       <c r="D97" t="s">
         <v>100</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F97" t="s">
         <v>13</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3336,7 +3297,7 @@
       <c r="A98" t="s">
         <v>99</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C98" t="s">
@@ -3345,13 +3306,13 @@
       <c r="D98" t="s">
         <v>100</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3359,7 +3320,7 @@
       <c r="A99" t="s">
         <v>99</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="6" t="s">
         <v>98</v>
       </c>
       <c r="C99" t="s">
@@ -3368,13 +3329,13 @@
       <c r="D99" t="s">
         <v>100</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="6" t="s">
         <v>147</v>
       </c>
       <c r="F99" t="s">
         <v>9</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3382,7 +3343,7 @@
       <c r="A100" t="s">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C100" t="s">
@@ -3391,13 +3352,13 @@
       <c r="D100" t="s">
         <v>100</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="6" t="s">
         <v>180</v>
       </c>
       <c r="F100" t="s">
         <v>10</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3405,7 +3366,7 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C101" t="s">
@@ -3414,13 +3375,13 @@
       <c r="D101" t="s">
         <v>100</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="6" t="s">
         <v>180</v>
       </c>
       <c r="F101" t="s">
         <v>10</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3428,7 +3389,7 @@
       <c r="A102" t="s">
         <v>99</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C102" t="s">
@@ -3437,13 +3398,13 @@
       <c r="D102" t="s">
         <v>100</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="6" t="s">
         <v>180</v>
       </c>
       <c r="F102" t="s">
         <v>132</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="7" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3451,7 +3412,7 @@
       <c r="A103" t="s">
         <v>99</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C103" t="s">
@@ -3460,13 +3421,13 @@
       <c r="D103" t="s">
         <v>100</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F103" t="s">
         <v>10</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3474,7 +3435,7 @@
       <c r="A104" t="s">
         <v>99</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C104" t="s">
@@ -3483,13 +3444,13 @@
       <c r="D104" t="s">
         <v>100</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F104" t="s">
         <v>10</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3497,7 +3458,7 @@
       <c r="A105" t="s">
         <v>99</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>128</v>
       </c>
       <c r="C105" t="s">
@@ -3506,13 +3467,13 @@
       <c r="D105" t="s">
         <v>100</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="6" t="s">
         <v>150</v>
       </c>
       <c r="F105" t="s">
         <v>9</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="7" t="s">
         <v>182</v>
       </c>
     </row>
@@ -3520,7 +3481,7 @@
       <c r="A106" t="s">
         <v>56</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C106" t="s">
@@ -3529,13 +3490,13 @@
       <c r="D106" t="s">
         <v>58</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F106" t="s">
         <v>13</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3543,7 +3504,7 @@
       <c r="A107" t="s">
         <v>56</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C107" t="s">
@@ -3552,13 +3513,13 @@
       <c r="D107" t="s">
         <v>58</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F107" t="s">
         <v>10</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3566,7 +3527,7 @@
       <c r="A108" t="s">
         <v>56</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C108" t="s">
@@ -3575,13 +3536,13 @@
       <c r="D108" t="s">
         <v>58</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F108" t="s">
         <v>9</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3589,7 +3550,7 @@
       <c r="A109" t="s">
         <v>56</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C109" t="s">
@@ -3598,13 +3559,13 @@
       <c r="D109" t="s">
         <v>58</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F109" t="s">
         <v>66</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3612,7 +3573,7 @@
       <c r="A110" t="s">
         <v>56</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C110" t="s">
@@ -3621,13 +3582,13 @@
       <c r="D110" t="s">
         <v>58</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="6" t="s">
         <v>143</v>
       </c>
       <c r="F110" t="s">
         <v>10</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3635,7 +3596,7 @@
       <c r="A111" t="s">
         <v>56</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C111" t="s">
@@ -3644,13 +3605,13 @@
       <c r="D111" t="s">
         <v>58</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F111" t="s">
         <v>10</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3658,7 +3619,7 @@
       <c r="A112" t="s">
         <v>56</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C112" t="s">
@@ -3667,13 +3628,13 @@
       <c r="D112" t="s">
         <v>58</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F112" t="s">
         <v>10</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3681,7 +3642,7 @@
       <c r="A113" t="s">
         <v>56</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C113" t="s">
@@ -3690,13 +3651,13 @@
       <c r="D113" t="s">
         <v>58</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F113" t="s">
         <v>63</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3704,7 +3665,7 @@
       <c r="A114" t="s">
         <v>56</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C114" t="s">
@@ -3713,13 +3674,13 @@
       <c r="D114" t="s">
         <v>58</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F114" t="s">
         <v>62</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3727,7 +3688,7 @@
       <c r="A115" t="s">
         <v>56</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C115" t="s">
@@ -3736,13 +3697,13 @@
       <c r="D115" t="s">
         <v>58</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F115" t="s">
         <v>10</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3750,7 +3711,7 @@
       <c r="A116" t="s">
         <v>56</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C116" t="s">
@@ -3759,13 +3720,13 @@
       <c r="D116" t="s">
         <v>58</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F116" t="s">
         <v>10</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3773,7 +3734,7 @@
       <c r="A117" t="s">
         <v>56</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C117" t="s">
@@ -3782,13 +3743,13 @@
       <c r="D117" t="s">
         <v>58</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F117" t="s">
         <v>10</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3796,7 +3757,7 @@
       <c r="A118" t="s">
         <v>56</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C118" t="s">
@@ -3805,13 +3766,13 @@
       <c r="D118" t="s">
         <v>58</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F118" t="s">
         <v>14</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3819,7 +3780,7 @@
       <c r="A119" t="s">
         <v>56</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="6" t="s">
         <v>55</v>
       </c>
       <c r="C119" t="s">
@@ -3828,13 +3789,13 @@
       <c r="D119" t="s">
         <v>58</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="6" t="s">
         <v>142</v>
       </c>
       <c r="F119" t="s">
         <v>10</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3842,7 +3803,7 @@
       <c r="A120" t="s">
         <v>8</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C120" t="s">
@@ -3851,13 +3812,13 @@
       <c r="D120" t="s">
         <v>11</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F120" t="s">
         <v>10</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3865,7 +3826,7 @@
       <c r="A121" t="s">
         <v>8</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C121" t="s">
@@ -3874,13 +3835,13 @@
       <c r="D121" t="s">
         <v>11</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F121" t="s">
         <v>10</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3888,7 +3849,7 @@
       <c r="A122" t="s">
         <v>8</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C122" t="s">
@@ -3897,13 +3858,13 @@
       <c r="D122" t="s">
         <v>11</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F122" t="s">
         <v>10</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3911,7 +3872,7 @@
       <c r="A123" t="s">
         <v>8</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="6" t="s">
         <v>18</v>
       </c>
       <c r="C123" t="s">
@@ -3920,13 +3881,13 @@
       <c r="D123" t="s">
         <v>11</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F123" t="s">
         <v>19</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -3949,7 +3910,7 @@
       <c r="F124" t="s">
         <v>10</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3957,7 +3918,7 @@
       <c r="A125" t="s">
         <v>8</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C125" t="s">
@@ -3966,13 +3927,13 @@
       <c r="D125" t="s">
         <v>11</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F125" t="s">
         <v>12</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3980,7 +3941,7 @@
       <c r="A126" t="s">
         <v>8</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C126" t="s">
@@ -3989,13 +3950,13 @@
       <c r="D126" t="s">
         <v>11</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E126" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F126" t="s">
         <v>10</v>
       </c>
-      <c r="G126" t="s">
+      <c r="G126" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4003,7 +3964,7 @@
       <c r="A127" t="s">
         <v>8</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C127" t="s">
@@ -4012,13 +3973,13 @@
       <c r="D127" t="s">
         <v>11</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E127" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F127" t="s">
         <v>9</v>
       </c>
-      <c r="G127" t="s">
+      <c r="G127" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4041,7 +4002,7 @@
       <c r="F128" t="s">
         <v>10</v>
       </c>
-      <c r="G128" t="s">
+      <c r="G128" s="7" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4049,7 +4010,7 @@
       <c r="A129" t="s">
         <v>8</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C129" t="s">
@@ -4058,13 +4019,13 @@
       <c r="D129" t="s">
         <v>11</v>
       </c>
-      <c r="E129" t="s">
+      <c r="E129" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F129" t="s">
         <v>14</v>
       </c>
-      <c r="G129" t="s">
+      <c r="G129" s="7" t="s">
         <v>184</v>
       </c>
     </row>
@@ -4072,7 +4033,7 @@
       <c r="A130" t="s">
         <v>8</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C130" t="s">
@@ -4081,13 +4042,13 @@
       <c r="D130" t="s">
         <v>11</v>
       </c>
-      <c r="E130" t="s">
+      <c r="E130" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F130" t="s">
         <v>17</v>
       </c>
-      <c r="G130" t="s">
+      <c r="G130" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4095,7 +4056,7 @@
       <c r="A131" t="s">
         <v>8</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C131" t="s">
@@ -4104,13 +4065,13 @@
       <c r="D131" t="s">
         <v>11</v>
       </c>
-      <c r="E131" t="s">
+      <c r="E131" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F131" t="s">
         <v>12</v>
       </c>
-      <c r="G131" t="s">
+      <c r="G131" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4118,7 +4079,7 @@
       <c r="A132" t="s">
         <v>8</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C132" t="s">
@@ -4127,13 +4088,13 @@
       <c r="D132" t="s">
         <v>11</v>
       </c>
-      <c r="E132" t="s">
+      <c r="E132" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F132" t="s">
         <v>10</v>
       </c>
-      <c r="G132" t="s">
+      <c r="G132" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4141,7 +4102,7 @@
       <c r="A133" t="s">
         <v>8</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C133" t="s">
@@ -4150,13 +4111,13 @@
       <c r="D133" t="s">
         <v>11</v>
       </c>
-      <c r="E133" t="s">
+      <c r="E133" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F133" t="s">
         <v>9</v>
       </c>
-      <c r="G133" t="s">
+      <c r="G133" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4164,7 +4125,7 @@
       <c r="A134" t="s">
         <v>8</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C134" t="s">
@@ -4173,13 +4134,13 @@
       <c r="D134" t="s">
         <v>11</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E134" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F134" t="s">
         <v>14</v>
       </c>
-      <c r="G134" t="s">
+      <c r="G134" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4187,7 +4148,7 @@
       <c r="A135" t="s">
         <v>8</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C135" t="s">
@@ -4196,13 +4157,13 @@
       <c r="D135" t="s">
         <v>11</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E135" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F135" t="s">
         <v>16</v>
       </c>
-      <c r="G135" t="s">
+      <c r="G135" s="7" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4302,5 +4263,259 @@
     <mergeCell ref="E130:E135"/>
     <mergeCell ref="G130:G135"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="E8" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="E9" r:id="rId14"/>
+    <hyperlink ref="B10" r:id="rId15"/>
+    <hyperlink ref="E10" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="E11" r:id="rId18"/>
+    <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="E12" r:id="rId20"/>
+    <hyperlink ref="B13" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="E14" r:id="rId24"/>
+    <hyperlink ref="B15" r:id="rId25"/>
+    <hyperlink ref="E15" r:id="rId26"/>
+    <hyperlink ref="B16" r:id="rId27"/>
+    <hyperlink ref="E16" r:id="rId28"/>
+    <hyperlink ref="B17" r:id="rId29"/>
+    <hyperlink ref="E17" r:id="rId30"/>
+    <hyperlink ref="B18" r:id="rId31"/>
+    <hyperlink ref="E18" r:id="rId32"/>
+    <hyperlink ref="B19" r:id="rId33"/>
+    <hyperlink ref="E19" r:id="rId34"/>
+    <hyperlink ref="B20" r:id="rId35"/>
+    <hyperlink ref="E20" r:id="rId36"/>
+    <hyperlink ref="B25" r:id="rId37"/>
+    <hyperlink ref="E25" r:id="rId38"/>
+    <hyperlink ref="B26" r:id="rId39"/>
+    <hyperlink ref="E26" r:id="rId40"/>
+    <hyperlink ref="B27" r:id="rId41"/>
+    <hyperlink ref="E27" r:id="rId42"/>
+    <hyperlink ref="B28" r:id="rId43"/>
+    <hyperlink ref="E28" r:id="rId44"/>
+    <hyperlink ref="B29" r:id="rId45"/>
+    <hyperlink ref="E29" r:id="rId46"/>
+    <hyperlink ref="B30" r:id="rId47"/>
+    <hyperlink ref="E30" r:id="rId48"/>
+    <hyperlink ref="B31" r:id="rId49"/>
+    <hyperlink ref="E31" r:id="rId50"/>
+    <hyperlink ref="B32" r:id="rId51"/>
+    <hyperlink ref="E32" r:id="rId52"/>
+    <hyperlink ref="B33" r:id="rId53"/>
+    <hyperlink ref="E33" r:id="rId54"/>
+    <hyperlink ref="B34" r:id="rId55"/>
+    <hyperlink ref="E34" r:id="rId56"/>
+    <hyperlink ref="B35" r:id="rId57"/>
+    <hyperlink ref="E35" r:id="rId58"/>
+    <hyperlink ref="B36" r:id="rId59"/>
+    <hyperlink ref="E36" r:id="rId60"/>
+    <hyperlink ref="B37" r:id="rId61"/>
+    <hyperlink ref="E37" r:id="rId62"/>
+    <hyperlink ref="B38" r:id="rId63"/>
+    <hyperlink ref="E38" r:id="rId64"/>
+    <hyperlink ref="B39" r:id="rId65"/>
+    <hyperlink ref="E39" r:id="rId66"/>
+    <hyperlink ref="B40" r:id="rId67"/>
+    <hyperlink ref="E40" r:id="rId68"/>
+    <hyperlink ref="B41" r:id="rId69"/>
+    <hyperlink ref="E41" r:id="rId70"/>
+    <hyperlink ref="B42" r:id="rId71"/>
+    <hyperlink ref="E42" r:id="rId72"/>
+    <hyperlink ref="B43" r:id="rId73"/>
+    <hyperlink ref="E43" r:id="rId74"/>
+    <hyperlink ref="B44" r:id="rId75"/>
+    <hyperlink ref="E44" r:id="rId76"/>
+    <hyperlink ref="B45" r:id="rId77"/>
+    <hyperlink ref="E45" r:id="rId78"/>
+    <hyperlink ref="B46" r:id="rId79"/>
+    <hyperlink ref="E46" r:id="rId80"/>
+    <hyperlink ref="B47" r:id="rId81"/>
+    <hyperlink ref="E47" r:id="rId82"/>
+    <hyperlink ref="B48" r:id="rId83"/>
+    <hyperlink ref="E48" r:id="rId84"/>
+    <hyperlink ref="B49" r:id="rId85"/>
+    <hyperlink ref="E49" r:id="rId86"/>
+    <hyperlink ref="B50" r:id="rId87"/>
+    <hyperlink ref="E50" r:id="rId88"/>
+    <hyperlink ref="B51" r:id="rId89"/>
+    <hyperlink ref="E51" r:id="rId90"/>
+    <hyperlink ref="B52" r:id="rId91"/>
+    <hyperlink ref="E52" r:id="rId92"/>
+    <hyperlink ref="B53" r:id="rId93"/>
+    <hyperlink ref="E53" r:id="rId94"/>
+    <hyperlink ref="B54" r:id="rId95"/>
+    <hyperlink ref="E54" r:id="rId96"/>
+    <hyperlink ref="B55" r:id="rId97"/>
+    <hyperlink ref="E55" r:id="rId98"/>
+    <hyperlink ref="B56" r:id="rId99"/>
+    <hyperlink ref="E56" r:id="rId100"/>
+    <hyperlink ref="B57" r:id="rId101"/>
+    <hyperlink ref="E57" r:id="rId102"/>
+    <hyperlink ref="B58" r:id="rId103"/>
+    <hyperlink ref="E58" r:id="rId104"/>
+    <hyperlink ref="B59" r:id="rId105"/>
+    <hyperlink ref="E59" r:id="rId106"/>
+    <hyperlink ref="B60" r:id="rId107"/>
+    <hyperlink ref="E60" r:id="rId108"/>
+    <hyperlink ref="B61" r:id="rId109"/>
+    <hyperlink ref="E61" r:id="rId110"/>
+    <hyperlink ref="B62" r:id="rId111"/>
+    <hyperlink ref="E62" r:id="rId112"/>
+    <hyperlink ref="B63" r:id="rId113"/>
+    <hyperlink ref="E63" r:id="rId114"/>
+    <hyperlink ref="B64" r:id="rId115"/>
+    <hyperlink ref="E64" r:id="rId116"/>
+    <hyperlink ref="B65" r:id="rId117"/>
+    <hyperlink ref="E65" r:id="rId118"/>
+    <hyperlink ref="B66" r:id="rId119"/>
+    <hyperlink ref="E66" r:id="rId120"/>
+    <hyperlink ref="B67" r:id="rId121"/>
+    <hyperlink ref="E67" r:id="rId122"/>
+    <hyperlink ref="B68" r:id="rId123"/>
+    <hyperlink ref="E68" r:id="rId124"/>
+    <hyperlink ref="B69" r:id="rId125"/>
+    <hyperlink ref="E69" r:id="rId126"/>
+    <hyperlink ref="B70" r:id="rId127"/>
+    <hyperlink ref="E70" r:id="rId128"/>
+    <hyperlink ref="B71" r:id="rId129"/>
+    <hyperlink ref="E71" r:id="rId130"/>
+    <hyperlink ref="B72" r:id="rId131"/>
+    <hyperlink ref="E72" r:id="rId132"/>
+    <hyperlink ref="B73" r:id="rId133"/>
+    <hyperlink ref="E73" r:id="rId134"/>
+    <hyperlink ref="B74" r:id="rId135"/>
+    <hyperlink ref="E74" r:id="rId136"/>
+    <hyperlink ref="B75" r:id="rId137"/>
+    <hyperlink ref="E75" r:id="rId138"/>
+    <hyperlink ref="B76" r:id="rId139"/>
+    <hyperlink ref="E76" r:id="rId140"/>
+    <hyperlink ref="B77" r:id="rId141"/>
+    <hyperlink ref="E77" r:id="rId142"/>
+    <hyperlink ref="B78" r:id="rId143"/>
+    <hyperlink ref="E78" r:id="rId144"/>
+    <hyperlink ref="B79" r:id="rId145"/>
+    <hyperlink ref="E79" r:id="rId146"/>
+    <hyperlink ref="B80" r:id="rId147"/>
+    <hyperlink ref="E80" r:id="rId148"/>
+    <hyperlink ref="B81" r:id="rId149"/>
+    <hyperlink ref="E81" r:id="rId150"/>
+    <hyperlink ref="B82" r:id="rId151"/>
+    <hyperlink ref="E82" r:id="rId152"/>
+    <hyperlink ref="B83" r:id="rId153"/>
+    <hyperlink ref="E83" r:id="rId154"/>
+    <hyperlink ref="B84" r:id="rId155"/>
+    <hyperlink ref="E84" r:id="rId156"/>
+    <hyperlink ref="B85" r:id="rId157"/>
+    <hyperlink ref="E85" r:id="rId158"/>
+    <hyperlink ref="B86" r:id="rId159"/>
+    <hyperlink ref="E86" r:id="rId160"/>
+    <hyperlink ref="B87" r:id="rId161"/>
+    <hyperlink ref="E87" r:id="rId162"/>
+    <hyperlink ref="B88" r:id="rId163"/>
+    <hyperlink ref="E88" r:id="rId164"/>
+    <hyperlink ref="B89" r:id="rId165"/>
+    <hyperlink ref="B90" r:id="rId166"/>
+    <hyperlink ref="B91" r:id="rId167"/>
+    <hyperlink ref="E91" r:id="rId168"/>
+    <hyperlink ref="B92" r:id="rId169"/>
+    <hyperlink ref="E92" r:id="rId170"/>
+    <hyperlink ref="B93" r:id="rId171"/>
+    <hyperlink ref="E93" r:id="rId172"/>
+    <hyperlink ref="B94" r:id="rId173"/>
+    <hyperlink ref="E94" r:id="rId174"/>
+    <hyperlink ref="B95" r:id="rId175"/>
+    <hyperlink ref="E95" r:id="rId176"/>
+    <hyperlink ref="B96" r:id="rId177"/>
+    <hyperlink ref="E96" r:id="rId178"/>
+    <hyperlink ref="B97" r:id="rId179"/>
+    <hyperlink ref="E97" r:id="rId180"/>
+    <hyperlink ref="B98" r:id="rId181"/>
+    <hyperlink ref="E98" r:id="rId182"/>
+    <hyperlink ref="B99" r:id="rId183"/>
+    <hyperlink ref="E99" r:id="rId184"/>
+    <hyperlink ref="B100" r:id="rId185"/>
+    <hyperlink ref="E100" r:id="rId186"/>
+    <hyperlink ref="B101" r:id="rId187"/>
+    <hyperlink ref="E101" r:id="rId188"/>
+    <hyperlink ref="B102" r:id="rId189"/>
+    <hyperlink ref="E102" r:id="rId190"/>
+    <hyperlink ref="B103" r:id="rId191"/>
+    <hyperlink ref="E103" r:id="rId192"/>
+    <hyperlink ref="B104" r:id="rId193"/>
+    <hyperlink ref="E104" r:id="rId194"/>
+    <hyperlink ref="B105" r:id="rId195"/>
+    <hyperlink ref="E105" r:id="rId196"/>
+    <hyperlink ref="B106" r:id="rId197"/>
+    <hyperlink ref="E106" r:id="rId198"/>
+    <hyperlink ref="B107" r:id="rId199"/>
+    <hyperlink ref="E107" r:id="rId200"/>
+    <hyperlink ref="B108" r:id="rId201"/>
+    <hyperlink ref="E108" r:id="rId202"/>
+    <hyperlink ref="B109" r:id="rId203"/>
+    <hyperlink ref="E109" r:id="rId204"/>
+    <hyperlink ref="B110" r:id="rId205"/>
+    <hyperlink ref="E110" r:id="rId206"/>
+    <hyperlink ref="B111" r:id="rId207"/>
+    <hyperlink ref="E111" r:id="rId208"/>
+    <hyperlink ref="B112" r:id="rId209"/>
+    <hyperlink ref="E112" r:id="rId210"/>
+    <hyperlink ref="B113" r:id="rId211"/>
+    <hyperlink ref="E113" r:id="rId212"/>
+    <hyperlink ref="B114" r:id="rId213"/>
+    <hyperlink ref="E114" r:id="rId214"/>
+    <hyperlink ref="B115" r:id="rId215"/>
+    <hyperlink ref="E115" r:id="rId216"/>
+    <hyperlink ref="B116" r:id="rId217"/>
+    <hyperlink ref="E116" r:id="rId218"/>
+    <hyperlink ref="B117" r:id="rId219"/>
+    <hyperlink ref="E117" r:id="rId220"/>
+    <hyperlink ref="B118" r:id="rId221"/>
+    <hyperlink ref="E118" r:id="rId222"/>
+    <hyperlink ref="B119" r:id="rId223"/>
+    <hyperlink ref="E119" r:id="rId224"/>
+    <hyperlink ref="B120" r:id="rId225"/>
+    <hyperlink ref="E120" r:id="rId226"/>
+    <hyperlink ref="B121" r:id="rId227"/>
+    <hyperlink ref="E121" r:id="rId228"/>
+    <hyperlink ref="B122" r:id="rId229"/>
+    <hyperlink ref="E122" r:id="rId230"/>
+    <hyperlink ref="B123" r:id="rId231"/>
+    <hyperlink ref="E123" r:id="rId232"/>
+    <hyperlink ref="B125" r:id="rId233"/>
+    <hyperlink ref="E125" r:id="rId234"/>
+    <hyperlink ref="B126" r:id="rId235"/>
+    <hyperlink ref="E126" r:id="rId236"/>
+    <hyperlink ref="B127" r:id="rId237"/>
+    <hyperlink ref="E127" r:id="rId238"/>
+    <hyperlink ref="B129" r:id="rId239"/>
+    <hyperlink ref="E129" r:id="rId240"/>
+    <hyperlink ref="B130" r:id="rId241"/>
+    <hyperlink ref="E130" r:id="rId242"/>
+    <hyperlink ref="B131" r:id="rId243"/>
+    <hyperlink ref="E131" r:id="rId244"/>
+    <hyperlink ref="B132" r:id="rId245"/>
+    <hyperlink ref="E132" r:id="rId246"/>
+    <hyperlink ref="B133" r:id="rId247"/>
+    <hyperlink ref="E133" r:id="rId248"/>
+    <hyperlink ref="B134" r:id="rId249"/>
+    <hyperlink ref="E134" r:id="rId250"/>
+    <hyperlink ref="B135" r:id="rId251"/>
+    <hyperlink ref="E135" r:id="rId252"/>
+  </hyperlinks>
 </worksheet>
 </file>
--- a/tf_template.xlsx
+++ b/tf_template.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andy/go/src/github/terraform-analysis-tool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B911AD-6931-2045-B2D5-549D1A546FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-65160" yWindow="-5280" windowWidth="46680" windowHeight="33780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-65160" yWindow="-5280" windowWidth="46680" windowHeight="33780"/>
   </bookViews>
   <sheets>
-    <sheet name="分析报告" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="分析报告" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="111">
   <si>
     <t>alicloud_product</t>
   </si>
@@ -279,12 +278,163 @@
 tencentcloud: (Required, String) The image to use for the instance. Changing &lt;code&gt;image_id&lt;/code&gt; will cause the instance reset.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>resource_group_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.58.0+, Modifiable in 1.115.0+) The Id of resource group which the security_group belongs.
+</t>
+  </si>
+  <si>
+    <t>alicloud_security_group_rule</t>
+  </si>
+  <si>
+    <t>cidr_ip</t>
+  </si>
+  <si>
+    <t>tencentcloud_security_group_rule</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional, ForceNew) The target IP address range. The default value is 0.0.0.0/0 (which means no restriction will be applied). Other supported formats include 10.159.6.&lt;sup&gt;18&lt;/sup&gt;⁄&lt;sub&gt;12&lt;/sub&gt;. Only IPv4 is supported.
+tencentcloud: (Optional, String, ForceNew) An IP address network or segment, and conflict with &lt;code&gt;source_sgid&lt;/code&gt; and &lt;code&gt;address_template&lt;/code&gt;.</t>
+  </si>
+  <si>
+    <t>腾讯云缺少 nic_type 网络类型参数。(阿里专有网络VPC类型安全组规则无需设置网卡类型，默认为intranet，只能为intranet。)
+腾讯云缺少 priority 优先级参数，出入站规则创建没有这个参数，接口不支持。(项目中该参数值都为1，设置该参数意义不大)
+https://cloud.tencent.com/document/api/215/15807</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) The description of the security group rule. The description can be up to 1 to 512 characters in length. Defaults to null.
+tencentcloud: (Optional, String, ForceNew) Description of the security group rule.</t>
+  </si>
+  <si>
+    <t>ip_protocol</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) The protocol. Can be &lt;code&gt;tcp&lt;/code&gt;, &lt;code&gt;udp&lt;/code&gt;, &lt;code&gt;icmp&lt;/code&gt;, &lt;code&gt;gre&lt;/code&gt; or &lt;code&gt;all&lt;/code&gt;.
+tencentcloud: (Optional, String, ForceNew) Type of IP protocol. Valid values: &lt;code&gt;TCP&lt;/code&gt;, &lt;code&gt;UDP&lt;/code&gt; and &lt;code&gt;ICMP&lt;/code&gt;. Default to all types protocol, and conflicts with &lt;code&gt;protocol_template&lt;/code&gt;.</t>
+  </si>
+  <si>
+    <t>nic_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) Network type, can be either &lt;code&gt;internet&lt;/code&gt; or &lt;code&gt;intranet&lt;/code&gt;, the default value is &lt;code&gt;internet&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>port_range</t>
+  </si>
+  <si>
+    <t>aliyun: (ForceNew) The range of port numbers relevant to the IP protocol. Default to “-1/-1”. When the protocol is tcp or udp, each side port number range from 1 to 65535 and ‘-1/-1’ will be invalid
+tencentcloud: (Optional, String, ForceNew) Range of the port. The available value can be one, multiple or one segment. E.g. &lt;code&gt;80&lt;/code&gt;, &lt;code&gt;80,90&lt;/code&gt; and &lt;code&gt;80-90&lt;/code&gt;. Default to all ports, and confilicts with &lt;code&gt;protocol_template&lt;/code&gt;.</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) Authorization policy priority, with parameter values: &lt;code&gt;1-100&lt;/code&gt;, default value: 1.
+</t>
+  </si>
+  <si>
+    <t>security_group_id</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) The security group to apply this rule to.
+tencentcloud: (Required, String, ForceNew) ID of the security group to be queried.</t>
+  </si>
+  <si>
+    <t>source_security_group_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) The target security group ID within the same region. If this field is specified, the &lt;code&gt;nic_type&lt;/code&gt; can only select &lt;code&gt;intranet&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) The type of rule being created. Valid options are &lt;code&gt;ingress&lt;/code&gt; (inbound) or &lt;code&gt;egress&lt;/code&gt; (outbound).
+tencentcloud: (Required, String, ForceNew) Type of the security group rule. Valid values: &lt;code&gt;ingress&lt;/code&gt; and &lt;code&gt;egress&lt;/code&gt;.</t>
+  </si>
+  <si>
+    <t>security_group_type</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) A mapping of tags to assign to the resource.
+tencentcloud: (Optional, Map) Tags of the security group.</t>
+  </si>
+  <si>
+    <t>alicloud_route_entry</t>
+  </si>
+  <si>
+    <t>destination_cidrblock</t>
+  </si>
+  <si>
+    <t>tencentcloud_route_entry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (ForceNew) The RouteEntry’s target network segment.
+</t>
+  </si>
+  <si>
+    <t>可以满足（tencentcloud中需要vpc_id的参数）</t>
+  </si>
+  <si>
+    <t>nexthop_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (ForceNew) The route entry’s next hop. ECS instance ID or VPC router interface ID.
+</t>
+  </si>
+  <si>
+    <t>nexthop_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (ForceNew) The next hop type. Available values:
+</t>
+  </si>
+  <si>
+    <t>route_table_id</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) The ID of the route table.
+tencentcloud: (Required, String, ForceNew) The ID of the route table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.40.0+, Modifiable in 1.115.0+) The ID of resource group which the VPC belongs.
+</t>
+  </si>
+  <si>
+    <t>vpc_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in v1.119.0+) The name of the VPC. Defaults to null.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) The switch description. Defaults to null.
+</t>
+  </si>
+  <si>
+    <t>vswitch_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.119.0+) The name of the switch. Defaults to null.
+</t>
+  </si>
+  <si>
+    <t>zone_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew, Available in 1.119.0+) The AZ for the switch. &lt;strong&gt;Note:&lt;/strong&gt; Required for a VPC switch.
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -308,8 +458,22 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color/>
       <name val="等线"/>
       <family val="2"/>
     </font>
@@ -341,26 +505,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="false">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -373,154 +543,154 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题​​">
+  <themeElements>
+    <clrScheme name="Office">
+      <dk1>
+        <sysClr val="windowText" lastClr="000000"/>
+      </dk1>
+      <lt1>
+        <sysClr val="window" lastClr="FFFFFF"/>
+      </lt1>
+      <dk2>
+        <srgbClr val="44546A"/>
+      </dk2>
+      <lt2>
+        <srgbClr val="E7E6E6"/>
+      </lt2>
+      <accent1>
+        <srgbClr val="4472C4"/>
+      </accent1>
+      <accent2>
+        <srgbClr val="ED7D31"/>
+      </accent2>
+      <accent3>
+        <srgbClr val="A5A5A5"/>
+      </accent3>
+      <accent4>
+        <srgbClr val="FFC000"/>
+      </accent4>
+      <accent5>
+        <srgbClr val="5B9BD5"/>
+      </accent5>
+      <accent6>
+        <srgbClr val="70AD47"/>
+      </accent6>
+      <hlink>
+        <srgbClr val="0563C1"/>
+      </hlink>
+      <folHlink>
+        <srgbClr val="954F72"/>
+      </folHlink>
+    </clrScheme>
+    <fontScheme name="Office">
+      <majorFont>
+        <latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック Light"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线 Light"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Times New Roman"/>
+        <font script="Hebr" typeface="Times New Roman"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="MoolBoran"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Times New Roman"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+        <font script="Armn" typeface="Arial"/>
+        <font script="Bugi" typeface="Leelawadee UI"/>
+        <font script="Bopo" typeface="Microsoft JhengHei"/>
+        <font script="Java" typeface="Javanese Text"/>
+        <font script="Lisu" typeface="Segoe UI"/>
+        <font script="Mymr" typeface="Myanmar Text"/>
+        <font script="Nkoo" typeface="Ebrima"/>
+        <font script="Olck" typeface="Nirmala UI"/>
+        <font script="Osma" typeface="Ebrima"/>
+        <font script="Phag" typeface="Phagspa"/>
+        <font script="Syrn" typeface="Estrangelo Edessa"/>
+        <font script="Syrj" typeface="Estrangelo Edessa"/>
+        <font script="Syre" typeface="Estrangelo Edessa"/>
+        <font script="Sora" typeface="Nirmala UI"/>
+        <font script="Tale" typeface="Microsoft Tai Le"/>
+        <font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <font script="Tfng" typeface="Ebrima"/>
+      </majorFont>
+      <minorFont>
+        <latin typeface="Calibri" panose="020F0502020204030204"/>
+        <ea typeface=""/>
+        <cs typeface=""/>
+        <font script="Jpan" typeface="游ゴシック"/>
+        <font script="Hang" typeface="맑은 고딕"/>
+        <font script="Hans" typeface="等线"/>
+        <font script="Hant" typeface="新細明體"/>
+        <font script="Arab" typeface="Arial"/>
+        <font script="Hebr" typeface="Arial"/>
+        <font script="Thai" typeface="Tahoma"/>
+        <font script="Ethi" typeface="Nyala"/>
+        <font script="Beng" typeface="Vrinda"/>
+        <font script="Gujr" typeface="Shruti"/>
+        <font script="Khmr" typeface="DaunPenh"/>
+        <font script="Knda" typeface="Tunga"/>
+        <font script="Guru" typeface="Raavi"/>
+        <font script="Cans" typeface="Euphemia"/>
+        <font script="Cher" typeface="Plantagenet Cherokee"/>
+        <font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <font script="Tibt" typeface="Microsoft Himalaya"/>
+        <font script="Thaa" typeface="MV Boli"/>
+        <font script="Deva" typeface="Mangal"/>
+        <font script="Telu" typeface="Gautami"/>
+        <font script="Taml" typeface="Latha"/>
+        <font script="Syrc" typeface="Estrangelo Edessa"/>
+        <font script="Orya" typeface="Kalinga"/>
+        <font script="Mlym" typeface="Kartika"/>
+        <font script="Laoo" typeface="DokChampa"/>
+        <font script="Sinh" typeface="Iskoola Pota"/>
+        <font script="Mong" typeface="Mongolian Baiti"/>
+        <font script="Viet" typeface="Arial"/>
+        <font script="Uigh" typeface="Microsoft Uighur"/>
+        <font script="Geor" typeface="Sylfaen"/>
+        <font script="Armn" typeface="Arial"/>
+        <font script="Bugi" typeface="Leelawadee UI"/>
+        <font script="Bopo" typeface="Microsoft JhengHei"/>
+        <font script="Java" typeface="Javanese Text"/>
+        <font script="Lisu" typeface="Segoe UI"/>
+        <font script="Mymr" typeface="Myanmar Text"/>
+        <font script="Nkoo" typeface="Ebrima"/>
+        <font script="Olck" typeface="Nirmala UI"/>
+        <font script="Osma" typeface="Ebrima"/>
+        <font script="Phag" typeface="Phagspa"/>
+        <font script="Syrn" typeface="Estrangelo Edessa"/>
+        <font script="Syrj" typeface="Estrangelo Edessa"/>
+        <font script="Syre" typeface="Estrangelo Edessa"/>
+        <font script="Sora" typeface="Nirmala UI"/>
+        <font script="Tale" typeface="Microsoft Tai Le"/>
+        <font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <font script="Tfng" typeface="Ebrima"/>
+      </minorFont>
+    </fontScheme>
+    <fmtScheme name="Office">
+      <fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -576,8 +746,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
+      </fillStyleLst>
+      <lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -599,8 +769,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
+      </lnStyleLst>
+      <effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -616,8 +786,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
+      </effectStyleLst>
+      <bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -654,73 +824,83 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
+      </bgFillStyleLst>
+    </fmtScheme>
+  </themeElements>
+  <objectDefaults/>
+  <extraClrSchemeLst/>
+  <extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
       <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
-  </a:extLst>
-</a:theme>
+  </extLst>
+</theme>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H24"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FA1C3-A33D-DB45-87BA-2D89A7767565}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
-    </sheetView>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <cols>
-    <col min="1" max="6" width="20" customWidth="1"/>
-    <col min="7" max="8" width="90" customWidth="1"/>
+    <col customWidth="true" max="6" min="1" width="20"/>
+    <col customWidth="true" max="8" min="7" width="90"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
+    <row r="2">
+      <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
@@ -729,50 +909,50 @@
       <c r="G2" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s">
         <v>67</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
@@ -781,24 +961,24 @@
       <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
@@ -807,24 +987,24 @@
       <c r="G5" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="H5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
@@ -833,24 +1013,24 @@
       <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" t="s">
@@ -859,24 +1039,24 @@
       <c r="G7" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
@@ -885,24 +1065,24 @@
       <c r="G8" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="H8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F9" t="s">
@@ -911,24 +1091,24 @@
       <c r="G9" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F10" t="s">
@@ -937,24 +1117,24 @@
       <c r="G10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="11">
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F11" t="s">
@@ -963,24 +1143,24 @@
       <c r="G11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="F12" t="s">
@@ -989,50 +1169,50 @@
       <c r="G12" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="13">
+      <c r="A13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="G13" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F14" t="s">
@@ -1041,50 +1221,50 @@
       <c r="G14" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="51">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15">
+      <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="4" t="s">
+      <c r="G15" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3" t="s">
+    <row r="16">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F16" t="s">
@@ -1093,128 +1273,128 @@
       <c r="G16" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="51">
-      <c r="A17" s="3" t="s">
+    <row r="17">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="68">
-      <c r="A18" s="3" t="s">
+    <row r="18">
+      <c r="A18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F18" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" t="s">
         <v>63</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="51">
-      <c r="A19" s="3" t="s">
+    <row r="19">
+      <c r="A19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="G19" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="85">
-      <c r="A20" s="3" t="s">
+    <row r="20">
+      <c r="A20" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G20" t="s">
         <v>66</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="3" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C21" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F21" t="s">
@@ -1223,24 +1403,24 @@
       <c r="G21" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="3" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F22" t="s">
@@ -1249,24 +1429,24 @@
       <c r="G22" t="s">
         <v>51</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="3" t="s">
+    <row r="23">
+      <c r="A23" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F23" t="s">
@@ -1275,24 +1455,24 @@
       <c r="G23" t="s">
         <v>52</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="3" t="s">
+    <row r="24">
+      <c r="A24" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="5" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="5" t="s">
         <v>38</v>
       </c>
       <c r="F24" t="s">
@@ -1301,12 +1481,23 @@
       <c r="G24" t="s">
         <v>53</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="E2:E9"/>
+    <mergeCell ref="H2:H9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="D2:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="H13:H15"/>
     <mergeCell ref="B16:B19"/>
     <mergeCell ref="E16:E19"/>
     <mergeCell ref="H16:H19"/>
@@ -1315,80 +1506,54 @@
     <mergeCell ref="D16:D24"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="H20:H24"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H10:H12"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="E2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="B3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="E5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="B6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="E6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="B7" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="E7" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="B8" r:id="rId13" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="E8" r:id="rId14" xr:uid="{00000000-0004-0000-0100-00000D000000}"/>
-    <hyperlink ref="B9" r:id="rId15" xr:uid="{00000000-0004-0000-0100-00000E000000}"/>
-    <hyperlink ref="E9" r:id="rId16" xr:uid="{00000000-0004-0000-0100-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" xr:uid="{00000000-0004-0000-0100-000010000000}"/>
-    <hyperlink ref="E10" r:id="rId18" xr:uid="{00000000-0004-0000-0100-000011000000}"/>
-    <hyperlink ref="B11" r:id="rId19" xr:uid="{00000000-0004-0000-0100-000012000000}"/>
-    <hyperlink ref="E11" r:id="rId20" xr:uid="{00000000-0004-0000-0100-000013000000}"/>
-    <hyperlink ref="B12" r:id="rId21" xr:uid="{00000000-0004-0000-0100-000014000000}"/>
-    <hyperlink ref="E12" r:id="rId22" xr:uid="{00000000-0004-0000-0100-000015000000}"/>
-    <hyperlink ref="B13" r:id="rId23" xr:uid="{00000000-0004-0000-0100-000016000000}"/>
-    <hyperlink ref="E13" r:id="rId24" xr:uid="{00000000-0004-0000-0100-000017000000}"/>
-    <hyperlink ref="B14" r:id="rId25" xr:uid="{00000000-0004-0000-0100-000018000000}"/>
-    <hyperlink ref="E14" r:id="rId26" xr:uid="{00000000-0004-0000-0100-000019000000}"/>
-    <hyperlink ref="B15" r:id="rId27" xr:uid="{00000000-0004-0000-0100-00001A000000}"/>
-    <hyperlink ref="E15" r:id="rId28" xr:uid="{00000000-0004-0000-0100-00001B000000}"/>
-    <hyperlink ref="B16" r:id="rId29" xr:uid="{00000000-0004-0000-0100-00001C000000}"/>
-    <hyperlink ref="E16" r:id="rId30" xr:uid="{00000000-0004-0000-0100-00001D000000}"/>
-    <hyperlink ref="B17" r:id="rId31" xr:uid="{00000000-0004-0000-0100-00001E000000}"/>
-    <hyperlink ref="E17" r:id="rId32" xr:uid="{00000000-0004-0000-0100-00001F000000}"/>
-    <hyperlink ref="B18" r:id="rId33" xr:uid="{00000000-0004-0000-0100-000020000000}"/>
-    <hyperlink ref="E18" r:id="rId34" xr:uid="{00000000-0004-0000-0100-000021000000}"/>
-    <hyperlink ref="B19" r:id="rId35" xr:uid="{00000000-0004-0000-0100-000022000000}"/>
-    <hyperlink ref="E19" r:id="rId36" xr:uid="{00000000-0004-0000-0100-000023000000}"/>
-    <hyperlink ref="B20" r:id="rId37" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
-    <hyperlink ref="E20" r:id="rId38" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
-    <hyperlink ref="B21" r:id="rId39" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="E21" r:id="rId40" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="B22" r:id="rId41" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="E22" r:id="rId42" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="B23" r:id="rId43" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="E23" r:id="rId44" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="B24" r:id="rId45" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="E24" r:id="rId46" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="B4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="B7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+    <hyperlink ref="B8" r:id="rId13"/>
+    <hyperlink ref="E8" r:id="rId14"/>
+    <hyperlink ref="B9" r:id="rId15"/>
+    <hyperlink ref="E9" r:id="rId16"/>
+    <hyperlink ref="B10" r:id="rId17"/>
+    <hyperlink ref="E10" r:id="rId18"/>
+    <hyperlink ref="B11" r:id="rId19"/>
+    <hyperlink ref="E11" r:id="rId20"/>
+    <hyperlink ref="B12" r:id="rId21"/>
+    <hyperlink ref="E12" r:id="rId22"/>
+    <hyperlink ref="B13" r:id="rId23"/>
+    <hyperlink ref="E13" r:id="rId24"/>
+    <hyperlink ref="B14" r:id="rId25"/>
+    <hyperlink ref="E14" r:id="rId26"/>
+    <hyperlink ref="B15" r:id="rId27"/>
+    <hyperlink ref="E15" r:id="rId28"/>
+    <hyperlink ref="B16" r:id="rId29"/>
+    <hyperlink ref="E16" r:id="rId30"/>
+    <hyperlink ref="B17" r:id="rId31"/>
+    <hyperlink ref="E17" r:id="rId32"/>
+    <hyperlink ref="B18" r:id="rId33"/>
+    <hyperlink ref="E18" r:id="rId34"/>
+    <hyperlink ref="B19" r:id="rId35"/>
+    <hyperlink ref="E19" r:id="rId36"/>
+    <hyperlink ref="B20" r:id="rId37"/>
+    <hyperlink ref="E20" r:id="rId38"/>
+    <hyperlink ref="B21" r:id="rId39"/>
+    <hyperlink ref="E21" r:id="rId40"/>
+    <hyperlink ref="B22" r:id="rId41"/>
+    <hyperlink ref="E22" r:id="rId42"/>
+    <hyperlink ref="B23" r:id="rId43"/>
+    <hyperlink ref="E23" r:id="rId44"/>
+    <hyperlink ref="B24" r:id="rId45"/>
+    <hyperlink ref="E24" r:id="rId46"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FA1C3-A33D-DB45-87BA-2D89A7767565}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/tf_template.xlsx
+++ b/tf_template.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-65160" yWindow="-5280" windowWidth="46680" windowHeight="33780"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="24040"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="分析报告" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="319">
   <si>
     <t>alicloud_product</t>
   </si>
@@ -68,9 +68,6 @@
     <t>key_name</t>
   </si>
   <si>
-    <t>ECS</t>
-  </si>
-  <si>
     <t>Cloud Virtual Machine(CVM)</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
   </si>
   <si>
     <t>public_key</t>
-  </si>
-  <si>
-    <t>description</t>
   </si>
   <si>
     <t>alicloud_security_group</t>
@@ -235,9 +229,6 @@
   </si>
   <si>
     <t>host_name = hostname，vswitch_id 因腾讯云无此产品，无法匹配，可参考阿里云与腾讯云产品替代方案</t>
-  </si>
-  <si>
-    <t>host_name = hostname，vswitch_id 因腾讯云无此产品，无法匹配，可参考阿里云与腾讯云产品替代方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -279,10 +270,252 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>resource_group_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliyun: (Optional, Available in 1.58.0+, Modifiable in 1.115.0+) The Id of resource group which the security_group belongs.
+    <t>Alidns</t>
+  </si>
+  <si>
+    <t>alicloud_dns_record</t>
+  </si>
+  <si>
+    <t>host_record</t>
+  </si>
+  <si>
+    <t>DNSPOD</t>
+  </si>
+  <si>
+    <t>tencentcloud_dnspod_record</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) Host record for the domain record. This host_record can have at most 253 characters, and each part split with “.” can have at most 63 characters, and must contain only alphanumeric characters or hyphens, such as “-”,“.”,”*“,”@“,  and must not begin or end with “-”.
+</t>
+  </si>
+  <si>
+    <t>DNS 功能可以满足对应
+域名列表：(子域名 -&gt; 对应ip)
+bastion -&gt; alicloud_instance.bastion-node.public_ip
+data-access-node -&gt; alicloud_instance.data-access-node.private_ip
+sftp -&gt; alicloud_instance.sftp-node.public_ip
+主域名都为：var.tags.Environment-FQDN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) Name of the domain. This name without suffix can have a string of 1 to 63 characters, must contain only alphanumeric characters or “-”, and must not begin or end with “-”, and “-” must not in the 3th and 4th character positions at the same time. Suffix &lt;code&gt;.sh&lt;/code&gt; and &lt;code&gt;.tel&lt;/code&gt; are not supported.
+</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) The type of domain record. Valid values are &lt;code&gt;A&lt;/code&gt;,&lt;code&gt;NS&lt;/code&gt;,&lt;code&gt;MX&lt;/code&gt;,&lt;code&gt;TXT&lt;/code&gt;,&lt;code&gt;CNAME&lt;/code&gt;,&lt;code&gt;SRV&lt;/code&gt;,&lt;code&gt;AAAA&lt;/code&gt;,&lt;code&gt;CAA&lt;/code&gt;, &lt;code&gt;REDIRECT_URL&lt;/code&gt; and &lt;code&gt;FORWORD_URL&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>aliyun: (Required) The value of domain record, When the &lt;code&gt;type&lt;/code&gt; is &lt;code&gt;MX&lt;/code&gt;,&lt;code&gt;NS&lt;/code&gt;,&lt;code&gt;CNAME&lt;/code&gt;,&lt;code&gt;SRV&lt;/code&gt;, the server will treat the &lt;code&gt;value&lt;/code&gt; as a fully qualified domain name, so it’s no need to add a &lt;code&gt;.&lt;/code&gt; at the end.
+tencentcloud: (Required, String) The record value.</t>
+  </si>
+  <si>
+    <t>Classic Load Balancer (SLB)</t>
+  </si>
+  <si>
+    <t>alicloud_slb_acl</t>
+  </si>
+  <si>
+    <t>ip_version</t>
+  </si>
+  <si>
+    <t>Cloud Load Balancer(CLB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) The IP Version of access control list is the type of its entry (IP addresses or CIDR blocks). It values ipv4/ipv6. Our plugin provides a default ip_version: “ipv4”.
+</t>
+  </si>
+  <si>
+    <t>暂无对应，直接使用tke的安全组功能可以实现白名单功能(项目中只创建了alicloud_slb_acl，
+似乎没有使用这个资源的地方，因为没有创建alicloud_slb资源)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) Name of the access control list.
+</t>
+  </si>
+  <si>
+    <t>Container Service for Kubernetes (ACK)</t>
+  </si>
+  <si>
+    <t>alicloud_cs_kubernetes</t>
+  </si>
+  <si>
+    <t>enable_ssh</t>
+  </si>
+  <si>
+    <t>Tencent Kubernetes Engine(TKE)</t>
+  </si>
+  <si>
+    <t>tencentcloud_kubernetes_cluster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) Enable login to the node through SSH. Default to &lt;code&gt;false&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>能支持,install_cloud_monitor为是否安装云监控 tke能够安装cls进行日志管理
+(另外：阿里用到enable_ssh，key_name，pod_cidr腾讯没有对应的字段,经确认腾讯不需要额外输入这些字段。master_instance_types，worker_instance_types的取值和cvm一样需要找到与阿里对应的实例类型)</t>
+  </si>
+  <si>
+    <t>install_cloud_monitor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) Install cloud monitor agent on ECS. Default to &lt;code&gt;true&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) The keypair of ssh login cluster node, you have to create it first. You have to specify one of &lt;code&gt;password&lt;/code&gt; &lt;code&gt;key_name&lt;/code&gt; &lt;code&gt;kms_encrypted_password&lt;/code&gt; fields.
+</t>
+  </si>
+  <si>
+    <t>master_instance_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (&lt;strong&gt;Required&lt;/strong&gt;) The instance type of master node. Specify one type for single AZ Cluster, three types for MultiAZ Cluster.
+</t>
+  </si>
+  <si>
+    <t>master_vswitch_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (&lt;strong&gt;Required&lt;/strong&gt;) The vswitches used by master, you can specific 3 or 5 vswitches because of the amount of masters. Detailed below.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) The kubernetes cluster’s name. It is unique in one Alicloud account.
+</t>
+  </si>
+  <si>
+    <t>pod_cidr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) [Flannel Specific] The CIDR block for the pod network when using Flannel.
+</t>
+  </si>
+  <si>
+    <t>security_group_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.91.0+) The ID of the security group to which the ECS instances in the cluster belong. If it is not specified, a new Security group will be built.
+</t>
+  </si>
+  <si>
+    <t>service_cidr</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) The CIDR block for the service network. It cannot be duplicated with the VPC CIDR and CIDR used by Kubernetes cluster in VPC, cannot be modified after creation.
+tencentcloud: (Optional, String, ForceNew) A network address block of the service. Different from vpc cidr and cidr of other clusters within this vpc. Must be in  10./192.&lt;sup&gt;168&lt;/sup&gt;⁄&lt;sub&gt;172&lt;/sub&gt;.[16-31] segments.</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available since 1.70.1) Desired Kubernetes version. If you do not specify a value, the latest available version at resource creation is used and no upgrades will occur except you set a higher version number. The value must be configured and increased to upgrade the version when desired. Downgrades are not supported by ACK.
+</t>
+  </si>
+  <si>
+    <t>worker_instance_types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Deprecated from version 1.177.0)(Optional) The instance type of worker node. Specify one type for single AZ Cluster, three types for MultiAZ Cluster.
+</t>
+  </si>
+  <si>
+    <t>worker_number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Deprecated from version 1.177.0)(Optional) The worker node number of the kubernetes cluster. Default to 3. It is limited up to 50 and if you want to enlarge it, please apply white list or contact with us.
+</t>
+  </si>
+  <si>
+    <t>worker_vswitch_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Deprecated from version 1.177.0)(Optional) The vswitches used by workers.
+</t>
+  </si>
+  <si>
+    <t>alicloud_images</t>
+  </si>
+  <si>
+    <t>architecture</t>
+  </si>
+  <si>
+    <t>tencentcloud_images</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.95.0+) The image architecture. Valid values: &lt;code&gt;i386&lt;/code&gt; and &lt;code&gt;x86_64&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>data资源，</t>
+  </si>
+  <si>
+    <t>most_recent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, type: bool) If more than one result are returned, select the most recent one.
+</t>
+  </si>
+  <si>
+    <t>name_regex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) A regex string to filter resulting images by name.
+</t>
+  </si>
+  <si>
+    <t>owners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) Filter results by a specific image owner. Valid items are &lt;code&gt;system&lt;/code&gt;, &lt;code&gt;self&lt;/code&gt;, &lt;code&gt;others&lt;/code&gt;, &lt;code&gt;marketplace&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>role_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Force new resource) Instance RAM role name. The name is provided and maintained by RAM. You can use &lt;code&gt;alicloud_ram_role&lt;/code&gt; to create a new one.
+</t>
+  </si>
+  <si>
+    <t>system_disk_category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional,ForceNew) Valid values are &lt;code&gt;ephemeral_ssd&lt;/code&gt;, &lt;code&gt;cloud_efficiency&lt;/code&gt;, &lt;code&gt;cloud_ssd&lt;/code&gt;, &lt;code&gt;cloud_essd&lt;/code&gt;, &lt;code&gt;cloud&lt;/code&gt;, &lt;code&gt;cloud_auto&lt;/code&gt;. only is used to some none I/O optimized instance. Default to &lt;code&gt;cloud_efficiency&lt;/code&gt;. Valid values &lt;code&gt;cloud_auto&lt;/code&gt; Available in 1.184.0+.
+</t>
+  </si>
+  <si>
+    <t>user_data</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) User-defined data to customize the startup behaviors of an ECS instance and to pass data into an ECS instance
+tencentcloud: (Optional, String, ForceNew) The user data to be injected into this instance. Must be base64 encoded and up to 16 KB.</t>
+  </si>
+  <si>
+    <t>volume_tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) A mapping of tags to assign to the devices created by the instance at launch time.
+</t>
+  </si>
+  <si>
+    <t>vswitch_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) The virtual switch ID to launch in VPC. This parameter must be set unless you can create classic network instances. When it is changed, the instance will reboot to make the change take effect.
+</t>
+  </si>
+  <si>
+    <t>inner_access_policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.55.3+) Whether to allow both machines to access each other on all ports in the same security group. Valid values: [“Accept”, “Drop”]
 </t>
   </si>
   <si>
@@ -322,6 +555,13 @@
 </t>
   </si>
   <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional, ForceNew) Authorization policy, can be either &lt;code&gt;accept&lt;/code&gt; or &lt;code&gt;drop&lt;/code&gt;, the default value is &lt;code&gt;accept&lt;/code&gt;.
+tencentcloud: (Required, String, ForceNew) Rule policy of security group. Valid values: &lt;code&gt;ACCEPT&lt;/code&gt; and &lt;code&gt;DROP&lt;/code&gt;.</t>
+  </si>
+  <si>
     <t>port_range</t>
   </si>
   <si>
@@ -336,41 +576,542 @@
 </t>
   </si>
   <si>
-    <t>security_group_id</t>
-  </si>
-  <si>
     <t>aliyun: (Required, ForceNew) The security group to apply this rule to.
 tencentcloud: (Required, String, ForceNew) ID of the security group to be queried.</t>
   </si>
   <si>
-    <t>source_security_group_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliyun: (Optional, ForceNew) The target security group ID within the same region. If this field is specified, the &lt;code&gt;nic_type&lt;/code&gt; can only select &lt;code&gt;intranet&lt;/code&gt;.
-</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>aliyun: (Required, ForceNew) The type of rule being created. Valid options are &lt;code&gt;ingress&lt;/code&gt; (inbound) or &lt;code&gt;egress&lt;/code&gt; (outbound).
 tencentcloud: (Required, String, ForceNew) Type of the security group rule. Valid values: &lt;code&gt;ingress&lt;/code&gt; and &lt;code&gt;egress&lt;/code&gt;.</t>
   </si>
   <si>
-    <t>security_group_type</t>
-  </si>
-  <si>
     <t>aliyun: (Optional) A mapping of tags to assign to the resource.
 tencentcloud: (Optional, Map) Tags of the security group.</t>
   </si>
   <si>
+    <t>Elastic IP Address (EIP)</t>
+  </si>
+  <si>
+    <t>alicloud_eip_association</t>
+  </si>
+  <si>
+    <t>allocation_id</t>
+  </si>
+  <si>
+    <t>tencentcloud_eip_association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForcesNew) The allocation EIP ID.
+</t>
+  </si>
+  <si>
+    <t>可以满足（根据腾讯AssociateAddress api文档，该功能在tencentcloud中需要通过NAT接口AssociateNatGatewayAddress实现） 替代方法参考 tencentcloud_nat_gateway 的示例</t>
+  </si>
+  <si>
+    <t>instance_id</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForcesNew) The ID of the ECS or SLB instance or Nat Gateway or NetworkInterface or HaVip.
+tencentcloud: (Optional, String, ForceNew) The CVM or CLB instance id going to bind with the EIP. This field is conflict with &lt;code&gt;network_interface_id&lt;/code&gt; and &lt;code&gt;private_ip fields&lt;/code&gt;.</t>
+  </si>
+  <si>
+    <t>alicloud_eip</t>
+  </si>
+  <si>
+    <t>tencentcloud_eip</t>
+  </si>
+  <si>
+    <t>aliyun: (Deprecated) It has been deprecated from version 1.126.0 and using new attribute &lt;code&gt;address_name&lt;/code&gt; instead.
+tencentcloud: (Optional, String) The name of eip.</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional, Available in v1.55.3+) A mapping of tags to assign to the resource.
+tencentcloud: (Optional, Map) The tags of eip.</t>
+  </si>
+  <si>
+    <t>Message Service</t>
+  </si>
+  <si>
+    <t>alicloud_mns_queue</t>
+  </si>
+  <si>
+    <t>delay_seconds</t>
+  </si>
+  <si>
+    <t>TDMQ for CMQ</t>
+  </si>
+  <si>
+    <t>tencentcloud_tcmq_queue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional)This attribute defines the length of time, in seconds, after which every message sent to the queue is dequeued. Valid value range: 0-604800 seconds, i.e., 0 to 7 days. Default value to 0.
+</t>
+  </si>
+  <si>
+    <t>阿里云resource是一个合集，对应腾讯云存在多个产品，需要人工确认，默认腾讯云对应选定的是CMQ版本。
+腾讯云缺少 message_retention_period 字段：消息在指定的时间长度后从队列中删除，无论它们是否已被激活。但支持Policy 死信策略：0为消息被多次消费未删除，1为Time-To-Live过期，可能满足客户需求。
+1. 确认下腾讯云 COS 系统能否与消息队列产生关联 (项目中看不出mns消息队列和对象存储oss有什么关联，应该不需要关联)</t>
+  </si>
+  <si>
+    <t>maximum_message_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional)This indicates the maximum length, in bytes, of any message body sent to the queue. Valid value range: 1024-65536, i.e., 1K to 64K. Default value to 65536.
+</t>
+  </si>
+  <si>
+    <t>message_retention_period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) Messages are deleted from the queue after a specified length of time, whether they have been activated or not. This attribute defines the viability period, in seconds, for every message in the queue. Valid value range: 60-604800 seconds, i.e., 1 minutes to 7 days. Default value to 345600.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForcesNew)Two queues on a single account in the same region cannot have the same name. A queue name must start with an English letter or a digit, and can contain English letters, digits, and hyphens, with the length not exceeding 256 characters .
+</t>
+  </si>
+  <si>
+    <t>polling_wait_seconds</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) Long polling is measured in seconds. When this attribute is set to 0, long polling is disabled. When it is not set to 0, long polling is enabled and message dequeue requests will be processed only when valid messages are received or when long polling times out. Valid value range: 0-30 seconds. Default value to 0.
+tencentcloud: (Optional, Int) Long polling wait time for message reception. Value range: 0-30 seconds. Default value: 0.</t>
+  </si>
+  <si>
+    <t>visibility_timeout</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) The VisibilityTimeout attribute of the queue. A dequeued messages will change from active (visible) status to inactive (invisible) status, and this attribute defines the length of time, in seconds, that messages remain invisible. Messages return to active status after the set period. Valid value range: 1-43200 seconds, i.e., 1 seconds to 12 hours. Default value to 30.
+tencentcloud: (Optional, Int) Message visibility timeout period. Value range: 1-43200 seconds (i.e., 12 hours). Default value: 30.</t>
+  </si>
+  <si>
+    <t>NAT Gateway</t>
+  </si>
+  <si>
+    <t>alicloud_nat_gateway</t>
+  </si>
+  <si>
+    <t>VPN Gateway</t>
+  </si>
+  <si>
+    <t>tencentcloud_nat_gateway</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional,  Deprecated from v1.121.0+) Field &lt;code&gt;name&lt;/code&gt; has been deprecated from provider version 1.121.0. New field &lt;code&gt;nat_gateway_name&lt;/code&gt; instead.
+tencentcloud: (Required, String) Name of the NAT gateway.</t>
+  </si>
+  <si>
+    <t>vpc_id和name字段都有对应字段直接替换；可以使用子网替换阿里的交换机，即subnet_id替换vswitch_id（但腾讯tencentcloud_nat_gateway provier里面没有subnet_id字段）。specification和nat_type腾讯云缺少替代参数。</t>
+  </si>
+  <si>
+    <t>nat_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.102.0+) The type of NAT gateway. Valid values: &lt;code&gt;Normal&lt;/code&gt; and &lt;code&gt;Enhanced&lt;/code&gt;. &lt;strong&gt;NOTE:&lt;/strong&gt; From 1.137.0+,  The &lt;code&gt;Normal&lt;/code&gt; has been deprecated.
+</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Computed) The specification of the nat gateway. Valid values are &lt;code&gt;Small&lt;/code&gt;, &lt;code&gt;Middle&lt;/code&gt; and &lt;code&gt;Large&lt;/code&gt;. Effective when &lt;code&gt;internet_charge_type&lt;/code&gt; is &lt;code&gt;PayBySpec&lt;/code&gt; and &lt;code&gt;network_type&lt;/code&gt; is &lt;code&gt;internet&lt;/code&gt;. Details refer to &lt;a href="https://help.aliyun.com/document_detail/203500.html" rel="nofollow"&gt;Nat Gateway Specification&lt;/a&gt;.
+</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) The VPC ID.
+tencentcloud: (Required, String, ForceNew) ID of the vpc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, Available in 1.102.0+) The id of VSwitch.
+</t>
+  </si>
+  <si>
+    <t>alicloud_snat_entry</t>
+  </si>
+  <si>
+    <t>depends_on</t>
+  </si>
+  <si>
+    <t>tencentcloud_route_entry</t>
+  </si>
+  <si>
+    <t>snat_table_id可以替换为nat_gateway_id，source_vswitch_id可以替换为subnet_id，snat_ip可以替换为public_ip_addr。
+1. 确认下用途
+ECS实例会随机通过SNAT地址池中的EIP访问互联网</t>
+  </si>
+  <si>
+    <t>snat_ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) The SNAT ip address, the ip must along bandwidth package public ip which &lt;code&gt;alicloud_nat_gateway&lt;/code&gt; argument &lt;code&gt;bandwidth_packages&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>snat_table_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) The value can get from &lt;code&gt;alicloud_nat_gateway&lt;/code&gt; Attributes “snat_table_ids”.
+</t>
+  </si>
+  <si>
+    <t>source_vswitch_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew, Computed) The vswitch ID.
+</t>
+  </si>
+  <si>
+    <t>Network Attached Storage (NAS)</t>
+  </si>
+  <si>
+    <t>alicloud_nas_access_group</t>
+  </si>
+  <si>
+    <t>access_group_name</t>
+  </si>
+  <si>
+    <t>Cloud File Storage(CFS)</t>
+  </si>
+  <si>
+    <t>tencentcloud_cfs_access_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew, Available in v1.92.0+) A Name of one Access Group.
+</t>
+  </si>
+  <si>
+    <t>access_group_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew, Available in v1.92.0+) A Type of one Access Group. Valid values: &lt;code&gt;Vpc&lt;/code&gt; and &lt;code&gt;Classic&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) The Access Group description.
+</t>
+  </si>
+  <si>
+    <t>alicloud_nas_access_rule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) Permission group name.
+</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) Priority level. Range: 1-100. Default value: &lt;code&gt;1&lt;/code&gt;.
+tencentcloud: (Required, Int) The priority level of rule. Valid value ranges: (1~100). &lt;code&gt;1&lt;/code&gt; indicates the highest priority.</t>
+  </si>
+  <si>
+    <t>rw_access_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) Read-write permission type: &lt;code&gt;RDWR&lt;/code&gt; (default), &lt;code&gt;RDONLY&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>source_cidr_ip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) Address or address segment.
+</t>
+  </si>
+  <si>
+    <t>user_access_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) User permission type: &lt;code&gt;no_squash&lt;/code&gt; (default), &lt;code&gt;root_squash&lt;/code&gt;, &lt;code&gt;all_squash&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>alicloud_nas_file_system</t>
+  </si>
+  <si>
+    <t>tencentcloud_cfs_file_system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) The File System description
+</t>
+  </si>
+  <si>
+    <t>阿里云支持encrypt_type设置是否加密,kms_key_id设置KMS密钥(项目中没有使用加密)，vswitch_id设置交换机ID（可对应到腾讯的subnet_id）
+（文件系统和挂载点的创建都在tencentcloud_cfs_file_system这一个资源里实现。阿里protocol_type，storage_type，access_group_name，vswitch_id四个字段腾讯对应字段是protocol，storage_type，access_group_id，subnet_id ）
+https://help.aliyun.com/document_detail/62611.htm?spm=a2c4g.11186623.0.0.54d423edLjG94S#doc-api-NAS-CreateFileSystem
+1. 确认下CFS产品是否加密存储（功能是否开放，Terraform 是否接入）
+腾讯云使用行业标准的 AES-256 算法，利用数据密钥加密您的云文件存储数据。
+当前加密将默认使用云文件存储密钥，暂不支持自定义密钥。该密钥存储在受严格的物理和逻辑安全控制保护的密钥管理服务上，能有效防止未经授权的访问。云文件存储的数据密钥仅在宿主机的内存中使用，不会以明文形式存储在任何持久化介质上。
+2. 建了多少个 NAS，
+挂载是将计算节点与NAS文件系统相连接的操作。完成挂载后，计算节点可以访问NAS文件系统中的数据。
+挂载点是NAS文件系统在网络环境中的连接点，以域名形式出现。
+3. 挂载到在哪里了
+文件系统：文件系统是文件存储的实例，将文件系统挂载（ mount ）到 CVM 云服务器后，可以像使用本地文件系统一样使用文件存储、支持子目录挂载。
+挂载点：挂载点是计算节点访问文件存储的入口，定义了什么类型网络的计算节点、采用怎样的权限来访问文件存储。</t>
+  </si>
+  <si>
+    <t>protocol_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) The protocol type of the file system
+</t>
+  </si>
+  <si>
+    <t>storage_type</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) The storage type of the file System
+tencentcloud: (Optional, String, ForceNew) File service StorageType. Valid values are &lt;code&gt;SD&lt;/code&gt; and &lt;code&gt;HP&lt;/code&gt;. and the default is &lt;code&gt;SD&lt;/code&gt;.</t>
+  </si>
+  <si>
+    <t>alicloud_nas_mount_target</t>
+  </si>
+  <si>
+    <t>tencentcloud_cfs_mount_targets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) The name of the permission group that applies to the mount target.
+</t>
+  </si>
+  <si>
+    <t>阿里云支持创建挂载点，腾讯云属于datasource资源，查询挂载点
+1. 确认阿里云目的，以及在腾讯云上达成这个目的是否需要 mount_targets
+创建权限组和规则、添加挂载点 执行完成后，可执行挂载文件系统操作
+腾讯云创建文件系统后自动创建挂载点。（腾讯貌似没有提供单独创建挂载点接口，挂载点和文件系统一起创建，这里应该不需要关联）</t>
+  </si>
+  <si>
+    <t>file_system_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) The ID of the file system.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) The ID of the VSwitch in the VPC where the mount target resides.
+</t>
+  </si>
+  <si>
+    <t>RAM</t>
+  </si>
+  <si>
+    <t>alicloud_ram_access_key</t>
+  </si>
+  <si>
+    <t>secret_file</t>
+  </si>
+  <si>
+    <t>Cloud Access Management(CAM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) The name of file that can save access key id and access key secret. Strongly suggest you to specified it when you creating access key, otherwise, you wouldn’t get its secret ever.
+</t>
+  </si>
+  <si>
+    <t>tf暂未支持</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew) Name of the RAM user. This name can have a string of 1 to 64 characters, must contain only alphanumeric characters or hyphens, such as “-”,“.”,”_“, and must not begin with a hyphen.
+</t>
+  </si>
+  <si>
+    <t>alicloud_ram_policy</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_policy</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional, ForceNew) Description of the RAM policy. This name can have a string of 1 to 1024 characters
+tencentcloud: (Optional, String) Description of the CAM policy.</t>
+  </si>
+  <si>
+    <t>document</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional, Conflicts with &lt;code&gt;policy_document&lt;/code&gt;, &lt;code&gt;statement&lt;/code&gt; and &lt;code&gt;version&lt;/code&gt;) It has been deprecated from provider version 1.114.0 and &lt;code&gt;policy_document&lt;/code&gt; instead
+tencentcloud: (Required, String) Document of the CAM policy. The syntax refers to &lt;a href="https://intl.cloud.tencent.com/document/product/598/10604" rel="nofollow"&gt;CAM POLICY&lt;/a&gt;. There are some notes when using this para in terraform: 1. The elements in JSON claimed supporting two types as &lt;code&gt;string&lt;/code&gt; and &lt;code&gt;array&lt;/code&gt; only support type &lt;code&gt;array&lt;/code&gt;; 2. Terraform does not support the &lt;code&gt;root&lt;/code&gt; syntax, when it appears, it must be replaced with the uin it stands for.</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) It has been deprecated from provider version 1.114.0 and &lt;code&gt;policy_name&lt;/code&gt; instead
+tencentcloud: (Required, String, ForceNew) Name of CAM policy.</t>
+  </si>
+  <si>
+    <t>alicloud_ram_role</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_role_sso</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) Description of the RAM role. This name can have a string of 1 to 1024 characters. &lt;strong&gt;NOTE:&lt;/strong&gt; The &lt;code&gt;description&lt;/code&gt; supports modification since V1.144.0.
+tencentcloud: (Optional, String) The description of resource.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Conflicts with &lt;code&gt;services&lt;/code&gt;, &lt;code&gt;ram_users&lt;/code&gt; and &lt;code&gt;version&lt;/code&gt;) Authorization strategy of the RAM role. It is required when the &lt;code&gt;services&lt;/code&gt; and &lt;code&gt;ram_users&lt;/code&gt; are not specified.
+</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) Name of the RAM role. This name can have a string of 1 to 64 characters, must contain only alphanumeric characters or hyphens, such as “-”, “_“, and must not begin with a hyphen.
+tencentcloud: (Required, String) The name of resource.</t>
+  </si>
+  <si>
+    <t>alicloud_ram_role_policy_attachment</t>
+  </si>
+  <si>
+    <t>policy_name</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_group_policy_attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) Name of the RAM policy. This name can have a string of 1 to 128 characters, must contain only alphanumeric characters or hyphen “-”, and must not begin with a hyphen.
+</t>
+  </si>
+  <si>
+    <t>role_name可以替换为role_id。policy_name和policy_type替换为policy_id。</t>
+  </si>
+  <si>
+    <t>policy_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) Type of the RAM policy. It must be &lt;code&gt;Custom&lt;/code&gt; or &lt;code&gt;System&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) Name of the RAM Role. This name can have a string of 1 to 64 characters, must contain only alphanumeric characters or hyphens, such as “-”, “_“, and must not begin with a hyphen.
+</t>
+  </si>
+  <si>
+    <t>alicloud_ram_user</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) Name of the RAM user which for display. This name can have a string of 1 to 128 characters or Chinese characters, must contain only alphanumeric characters or Chinese characters or hyphens, such as “-”,“.”, and must not end with a hyphen.
+</t>
+  </si>
+  <si>
+    <t>display_name参数是显示name，考虑使用name替代即可，不影响资源的创建。
+force 参数是强制销毁相关联的资源(包括access keys,policies,groups,login profile等资源)，腾讯云TF无此功能。</t>
+  </si>
+  <si>
+    <t>force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) This parameter is used for resource destroy. Default value is &lt;code&gt;false&lt;/code&gt;.
+</t>
+  </si>
+  <si>
+    <t>aliyun: (Required) Name of the RAM user. This name can have a string of 1 to 64 characters, must contain only alphanumeric characters or hyphens, such as “-”,“.”,”_“, and must not begin with a hyphen.
+tencentcloud: (Required, String, ForceNew) Name of the CAM user.</t>
+  </si>
+  <si>
+    <t>alicloud_ram_user_policy_attachment</t>
+  </si>
+  <si>
+    <t>tencentcloud_cam_user_policy_attachment</t>
+  </si>
+  <si>
+    <t>user_name可以直接替换。policy_name和policy_type替换为policy_id。</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) Name of the RAM user. This name can have a string of 1 to 64 characters, must contain only alphanumeric characters or hyphens, such as “-”,“.”,”_“, and must not begin with a hyphen.
+tencentcloud: (Optional, String, ForceNew) Name of the attached CAM user as uniq key.</t>
+  </si>
+  <si>
+    <t>RDS</t>
+  </si>
+  <si>
+    <t>alicloud_db_account</t>
+  </si>
+  <si>
+    <t>TencentDB for MySQL(cdb)</t>
+  </si>
+  <si>
+    <t>tencentcloud_mysql_account</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) Database description. It cannot begin with https://. It must start with a Chinese character or English letter. It can include Chinese and English characters, underlines (_), hyphens (-), and numbers. The length may be 2-256 characters.
+tencentcloud: (Optional, String) Database description.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required, ForceNew) The Id of instance in which account belongs.
+</t>
+  </si>
+  <si>
+    <t>aliyun: (Required, ForceNew) Operation account requiring a uniqueness check. It may consist of lower case letters, numbers, and underlines, and must start with a letter and have no more than 16 characters.
+tencentcloud: (Required, String, ForceNew) Account name.</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional, Sensitive) Operation password. It may consist of letters, digits, or underlines, with a length of 6 to 32 characters. You have to specify one of &lt;code&gt;password&lt;/code&gt; and &lt;code&gt;kms_encrypted_password&lt;/code&gt; fields.
+tencentcloud: (Required, String) Operation password.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, ForceNew)Privilege type of account. The SQLServer engine does not support create high privilege accounts.
+</t>
+  </si>
+  <si>
+    <t>alicloud_db_instance</t>
+  </si>
+  <si>
+    <t>db_instance_storage_type</t>
+  </si>
+  <si>
+    <t>tencentcloud_mysql_instance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.68.0+) The storage type of the instance. Serverless instance, only &lt;code&gt;cloud_essd&lt;/code&gt; can be selected. Valid values:
+</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required,ForceNew) Database type. Value options: MySQL, SQLServer, PostgreSQL, MariaDB.
+</t>
+  </si>
+  <si>
+    <t>engine_version</t>
+  </si>
+  <si>
+    <t>aliyun: (Required) Database version. Value options can refer to the latest docs &lt;a href="https://www.alibabacloud.com/help/doc-detail/26228.htm" rel="nofollow"&gt;CreateDBInstance&lt;/a&gt; &lt;code&gt;EngineVersion&lt;/code&gt;
+tencentcloud: (Optional, String, ForceNew) The version number of the database engine to use. Supported versions include 5.&lt;sup&gt;5&lt;/sup&gt;⁄&lt;sub&gt;5&lt;/sub&gt;.&lt;sup&gt;6&lt;/sup&gt;⁄&lt;sub&gt;5&lt;/sub&gt;.&lt;sup&gt;7&lt;/sup&gt;⁄&lt;sub&gt;8&lt;/sub&gt;.0, and default is 5.7.</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) The name of DB instance. It a string of 2 to 256 characters.
+tencentcloud: (Required, String) The name of a mysql instance.</t>
+  </si>
+  <si>
+    <t>instance_storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Required) DB Instance type. For details, see &lt;a href="https://www.alibabacloud.com/help/doc-detail/26312.htm" rel="nofollow"&gt;Instance type table&lt;/a&gt;
+</t>
+  </si>
+  <si>
+    <t>security_ips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional) List of IP addresses allowed to access all databases of an instance. The list contains up to 1,000 IP addresses, separated by commas. Supported formats include 0.0.0.0/0, 10.23.12.24 (IP), and 10.23.12.&lt;sup&gt;24&lt;/sup&gt;⁄&lt;sub&gt;24&lt;/sub&gt; (Classless Inter-Domain Routing (CIDR) mode. /24 represents the length of the prefix in an IP address. The range of the prefix length is [1,32]).
+</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) A mapping of tags to assign to the resource
+tencentcloud: (Optional, Map) Instance tags.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (ForceNew) The virtual switch ID to launch DB instances in one VPC. If there are multiple vswitches, separate them with commas.
+</t>
+  </si>
+  <si>
     <t>alicloud_route_entry</t>
   </si>
   <si>
     <t>destination_cidrblock</t>
-  </si>
-  <si>
-    <t>tencentcloud_route_entry</t>
   </si>
   <si>
     <t xml:space="preserve">aliyun: (ForceNew) The RouteEntry’s target network segment.
@@ -401,32 +1142,27 @@
 tencentcloud: (Required, String, ForceNew) The ID of the route table.</t>
   </si>
   <si>
-    <t xml:space="preserve">aliyun: (Optional, Available in 1.40.0+, Modifiable in 1.115.0+) The ID of resource group which the VPC belongs.
-</t>
-  </si>
-  <si>
-    <t>vpc_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliyun: (Optional, Available in v1.119.0+) The name of the VPC. Defaults to null.
+    <t>alicloud_route_tables</t>
+  </si>
+  <si>
+    <t>tencentcloud_vpc_route_tables</t>
+  </si>
+  <si>
+    <t>aliyun: (Optional) Vpc id of the route table.
+tencentcloud: (Optional, String) ID of the VPC to be queried.</t>
+  </si>
+  <si>
+    <t>alicloud_vpcs</t>
+  </si>
+  <si>
+    <t>ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aliyun: (Optional, Available in 1.52.0+) A list of VPC IDs.
 </t>
   </si>
   <si>
     <t xml:space="preserve">aliyun: (Optional) The switch description. Defaults to null.
-</t>
-  </si>
-  <si>
-    <t>vswitch_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliyun: (Optional, Available in 1.119.0+) The name of the switch. Defaults to null.
-</t>
-  </si>
-  <si>
-    <t>zone_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aliyun: (Optional, ForceNew, Available in 1.119.0+) The AZ for the switch. &lt;strong&gt;Note:&lt;/strong&gt; Required for a VPC switch.
 </t>
   </si>
 </sst>
@@ -505,7 +1241,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -515,9 +1251,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
-      <alignment vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="left" vertical="center"/>
@@ -837,11 +1570,13 @@
 </theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F3FA1C3-A33D-DB45-87BA-2D89A7767565}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:M34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
@@ -862,650 +1597,3615 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
+        <v>68</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>77</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>12</v>
+        <v>84</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
+        <v>87</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>27</v>
+        <v>87</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>107</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>84</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>34</v>
+        <v>87</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>110</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
+        <v>84</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>38</v>
+        <v>87</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>57</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>38</v>
+        <v>10</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G23" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="H23" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" t="s">
+        <v>53</v>
+      </c>
+      <c r="H25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" t="s">
+        <v>39</v>
+      </c>
+      <c r="H27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s">
+        <v>40</v>
+      </c>
+      <c r="H28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>54</v>
+      </c>
+      <c r="H30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" t="s">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" t="s">
+        <v>52</v>
+      </c>
+      <c r="H34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>131</v>
+      </c>
+      <c r="H36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>43</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" t="s">
+        <v>23</v>
+      </c>
+      <c r="G39" t="s">
+        <v>44</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" t="s">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G44" t="s">
+        <v>139</v>
+      </c>
+      <c r="H44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+      <c r="G45" t="s">
+        <v>141</v>
+      </c>
+      <c r="H45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" t="s">
+        <v>142</v>
+      </c>
+      <c r="G46" t="s">
+        <v>143</v>
+      </c>
+      <c r="H46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" t="s">
+        <v>145</v>
+      </c>
+      <c r="H47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" t="s">
+        <v>147</v>
+      </c>
+      <c r="H48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" t="s">
+        <v>148</v>
+      </c>
+      <c r="G49" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" t="s">
+        <v>151</v>
+      </c>
+      <c r="H50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" t="s">
+        <v>152</v>
+      </c>
+      <c r="H51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G52" t="s">
+        <v>153</v>
+      </c>
+      <c r="H52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s">
+        <v>154</v>
+      </c>
+      <c r="H53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" t="s">
+        <v>61</v>
+      </c>
+      <c r="H54" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F55" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>159</v>
+      </c>
+      <c r="H55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>155</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F56" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" t="s">
+        <v>162</v>
+      </c>
+      <c r="H56" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C58" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="F58" t="s">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s">
+        <v>166</v>
+      </c>
+      <c r="H58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>167</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" t="s">
+        <v>172</v>
+      </c>
+      <c r="H59" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F60" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H60" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" t="s">
+        <v>170</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" t="s">
+        <v>177</v>
+      </c>
+      <c r="H61" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>167</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" t="s">
+        <v>170</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" t="s">
+        <v>178</v>
+      </c>
+      <c r="H62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" t="s">
+        <v>170</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F63" t="s">
+        <v>179</v>
+      </c>
+      <c r="G63" t="s">
+        <v>180</v>
+      </c>
+      <c r="H63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" t="s">
+        <v>170</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" t="s">
+        <v>185</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F65" t="s">
+        <v>8</v>
+      </c>
+      <c r="G65" t="s">
+        <v>187</v>
+      </c>
+      <c r="H65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>183</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F66" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" t="s">
+        <v>190</v>
+      </c>
+      <c r="H66" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>183</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C67" t="s">
+        <v>191</v>
+      </c>
+      <c r="D67" t="s">
+        <v>185</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>192</v>
+      </c>
+      <c r="H67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>183</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F68" t="s">
+        <v>27</v>
+      </c>
+      <c r="G68" t="s">
+        <v>193</v>
+      </c>
+      <c r="H68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" t="s">
+        <v>185</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>194</v>
+      </c>
+      <c r="H69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>183</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s">
+        <v>196</v>
+      </c>
+      <c r="D70" t="s">
+        <v>185</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F71" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>200</v>
+      </c>
+      <c r="H71" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>183</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" t="s">
+        <v>185</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F72" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>202</v>
+      </c>
+      <c r="H72" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>183</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>203</v>
+      </c>
+      <c r="D73" t="s">
+        <v>185</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F73" t="s">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>204</v>
+      </c>
+      <c r="H73" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C74" t="s">
+        <v>207</v>
+      </c>
+      <c r="D74" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" t="s">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>210</v>
+      </c>
+      <c r="H74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C75" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" t="s">
+        <v>208</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>212</v>
+      </c>
+      <c r="H75" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>205</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C76" t="s">
+        <v>58</v>
+      </c>
+      <c r="D76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F76" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>213</v>
+      </c>
+      <c r="H76" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D77" t="s">
+        <v>208</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" t="s">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>215</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>205</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" t="s">
+        <v>208</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F78" t="s">
+        <v>150</v>
+      </c>
+      <c r="G78" t="s">
+        <v>216</v>
+      </c>
+      <c r="H78" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" t="s">
+        <v>208</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s">
+        <v>7</v>
+      </c>
+      <c r="G79" t="s">
+        <v>218</v>
+      </c>
+      <c r="H79" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G80" t="s">
+        <v>220</v>
+      </c>
+      <c r="H80" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="C81" t="s">
+        <v>221</v>
+      </c>
+      <c r="D81" t="s">
+        <v>208</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F81" t="s">
+        <v>7</v>
+      </c>
+      <c r="G81" t="s">
+        <v>222</v>
+      </c>
+      <c r="H81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" t="s">
+        <v>58</v>
+      </c>
+      <c r="D82" t="s">
+        <v>208</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" t="s">
+        <v>7</v>
+      </c>
+      <c r="G82" t="s">
+        <v>225</v>
+      </c>
+      <c r="H82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" t="s">
+        <v>208</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" t="s">
+        <v>228</v>
+      </c>
+      <c r="H83" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" t="s">
+        <v>208</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" t="s">
+        <v>229</v>
+      </c>
+      <c r="G84" t="s">
+        <v>230</v>
+      </c>
+      <c r="H84" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C85" t="s">
+        <v>207</v>
+      </c>
+      <c r="D85" t="s">
+        <v>208</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F85" t="s">
+        <v>7</v>
+      </c>
+      <c r="G85" t="s">
+        <v>233</v>
+      </c>
+      <c r="H85" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>205</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" t="s">
+        <v>208</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F86" t="s">
+        <v>7</v>
+      </c>
+      <c r="G86" t="s">
+        <v>7</v>
+      </c>
+      <c r="H86" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>205</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>208</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F87" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" t="s">
+        <v>208</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F88" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>238</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" t="s">
+        <v>240</v>
+      </c>
+      <c r="D89" t="s">
+        <v>241</v>
+      </c>
+      <c r="E89" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G89" t="s">
+        <v>242</v>
+      </c>
+      <c r="H89" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" t="s">
+        <v>244</v>
+      </c>
+      <c r="D90" t="s">
+        <v>241</v>
+      </c>
+      <c r="E90" t="s">
+        <v>7</v>
+      </c>
+      <c r="F90" t="s">
+        <v>7</v>
+      </c>
+      <c r="G90" t="s">
+        <v>245</v>
+      </c>
+      <c r="H90" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>238</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C91" t="s">
+        <v>58</v>
+      </c>
+      <c r="D91" t="s">
+        <v>241</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F91" t="s">
+        <v>58</v>
+      </c>
+      <c r="G91" t="s">
+        <v>248</v>
+      </c>
+      <c r="H91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C92" t="s">
+        <v>249</v>
+      </c>
+      <c r="D92" t="s">
+        <v>241</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F92" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" t="s">
+        <v>250</v>
+      </c>
+      <c r="H92" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>241</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F93" t="s">
+        <v>8</v>
+      </c>
+      <c r="G93" t="s">
+        <v>251</v>
+      </c>
+      <c r="H93" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>238</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C94" t="s">
+        <v>58</v>
+      </c>
+      <c r="D94" t="s">
+        <v>241</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F94" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" t="s">
+        <v>254</v>
+      </c>
+      <c r="H94" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C95" t="s">
+        <v>249</v>
+      </c>
+      <c r="D95" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F95" t="s">
+        <v>7</v>
+      </c>
+      <c r="G95" t="s">
+        <v>255</v>
+      </c>
+      <c r="H95" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>238</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="F96" t="s">
+        <v>8</v>
+      </c>
+      <c r="G96" t="s">
+        <v>256</v>
+      </c>
+      <c r="H96" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>238</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C97" t="s">
+        <v>258</v>
+      </c>
+      <c r="D97" t="s">
+        <v>241</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F97" t="s">
+        <v>7</v>
+      </c>
+      <c r="G97" t="s">
+        <v>260</v>
+      </c>
+      <c r="H97" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>238</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C98" t="s">
+        <v>262</v>
+      </c>
+      <c r="D98" t="s">
+        <v>241</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F98" t="s">
+        <v>7</v>
+      </c>
+      <c r="G98" t="s">
+        <v>263</v>
+      </c>
+      <c r="H98" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>238</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C99" t="s">
+        <v>124</v>
+      </c>
+      <c r="D99" t="s">
+        <v>241</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F99" t="s">
+        <v>7</v>
+      </c>
+      <c r="G99" t="s">
+        <v>264</v>
+      </c>
+      <c r="H99" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>238</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C100" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F100" t="s">
+        <v>7</v>
+      </c>
+      <c r="G100" t="s">
+        <v>268</v>
+      </c>
+      <c r="H100" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>238</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" t="s">
+        <v>270</v>
+      </c>
+      <c r="D101" t="s">
+        <v>241</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F101" t="s">
+        <v>7</v>
+      </c>
+      <c r="G101" t="s">
+        <v>271</v>
+      </c>
+      <c r="H101" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>238</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C102" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" t="s">
+        <v>241</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F102" t="s">
+        <v>8</v>
+      </c>
+      <c r="G102" t="s">
+        <v>272</v>
+      </c>
+      <c r="H102" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>238</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" t="s">
+        <v>258</v>
+      </c>
+      <c r="D103" t="s">
+        <v>241</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F103" t="s">
+        <v>7</v>
+      </c>
+      <c r="G103" t="s">
+        <v>260</v>
+      </c>
+      <c r="H103" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" t="s">
+        <v>262</v>
+      </c>
+      <c r="D104" t="s">
+        <v>241</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F104" t="s">
+        <v>7</v>
+      </c>
+      <c r="G104" t="s">
+        <v>263</v>
+      </c>
+      <c r="H104" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>238</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" t="s">
+        <v>244</v>
+      </c>
+      <c r="D105" t="s">
+        <v>241</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F105" t="s">
+        <v>244</v>
+      </c>
+      <c r="G105" t="s">
+        <v>276</v>
+      </c>
+      <c r="H105" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F106" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" t="s">
+        <v>281</v>
+      </c>
+      <c r="H106" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>277</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C107" t="s">
+        <v>161</v>
+      </c>
+      <c r="D107" t="s">
+        <v>279</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F107" t="s">
+        <v>7</v>
+      </c>
+      <c r="G107" t="s">
+        <v>282</v>
+      </c>
+      <c r="H107" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>277</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" t="s">
+        <v>279</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F108" t="s">
+        <v>8</v>
+      </c>
+      <c r="G108" t="s">
+        <v>283</v>
+      </c>
+      <c r="H108" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C109" t="s">
+        <v>284</v>
+      </c>
+      <c r="D109" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F109" t="s">
+        <v>284</v>
+      </c>
+      <c r="G109" t="s">
+        <v>285</v>
+      </c>
+      <c r="H109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>277</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C110" t="s">
+        <v>73</v>
+      </c>
+      <c r="D110" t="s">
+        <v>279</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="F110" t="s">
+        <v>7</v>
+      </c>
+      <c r="G110" t="s">
+        <v>286</v>
+      </c>
+      <c r="H110" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>277</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C111" t="s">
+        <v>288</v>
+      </c>
+      <c r="D111" t="s">
+        <v>279</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F111" t="s">
+        <v>7</v>
+      </c>
+      <c r="G111" t="s">
+        <v>290</v>
+      </c>
+      <c r="H111" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>277</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C112" t="s">
+        <v>291</v>
+      </c>
+      <c r="D112" t="s">
+        <v>279</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F112" t="s">
+        <v>7</v>
+      </c>
+      <c r="G112" t="s">
+        <v>292</v>
+      </c>
+      <c r="H112" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>277</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C113" t="s">
+        <v>293</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F113" t="s">
+        <v>293</v>
+      </c>
+      <c r="G113" t="s">
+        <v>294</v>
+      </c>
+      <c r="H113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>277</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>279</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F114" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>295</v>
+      </c>
+      <c r="H114" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C115" t="s">
+        <v>296</v>
+      </c>
+      <c r="D115" t="s">
+        <v>279</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F115" t="s">
+        <v>7</v>
+      </c>
+      <c r="G115" t="s">
+        <v>7</v>
+      </c>
+      <c r="H115" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>277</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F116" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" t="s">
+        <v>297</v>
+      </c>
+      <c r="H116" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>277</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C117" t="s">
+        <v>298</v>
+      </c>
+      <c r="D117" t="s">
+        <v>279</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F117" t="s">
+        <v>7</v>
+      </c>
+      <c r="G117" t="s">
+        <v>299</v>
+      </c>
+      <c r="H117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>277</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>279</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F118" t="s">
+        <v>19</v>
+      </c>
+      <c r="G118" t="s">
+        <v>300</v>
+      </c>
+      <c r="H118" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>277</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119" t="s">
+        <v>132</v>
+      </c>
+      <c r="D119" t="s">
+        <v>279</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F119" t="s">
+        <v>7</v>
+      </c>
+      <c r="G119" t="s">
+        <v>301</v>
+      </c>
+      <c r="H119" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C120" t="s">
+        <v>303</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F120" t="s">
+        <v>7</v>
+      </c>
+      <c r="G120" t="s">
+        <v>304</v>
+      </c>
+      <c r="H120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C121" t="s">
+        <v>306</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F121" t="s">
+        <v>7</v>
+      </c>
+      <c r="G121" t="s">
+        <v>307</v>
+      </c>
+      <c r="H121" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>28</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C122" t="s">
+        <v>308</v>
+      </c>
+      <c r="D122" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F122" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" t="s">
+        <v>309</v>
+      </c>
+      <c r="H122" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>28</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C123" t="s">
+        <v>310</v>
+      </c>
+      <c r="D123" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F123" t="s">
+        <v>310</v>
+      </c>
+      <c r="G123" t="s">
+        <v>311</v>
+      </c>
+      <c r="H123" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>28</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C124" t="s">
+        <v>27</v>
+      </c>
+      <c r="D124" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F124" t="s">
+        <v>27</v>
+      </c>
+      <c r="G124" t="s">
+        <v>314</v>
+      </c>
+      <c r="H124" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>28</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C125" t="s">
+        <v>31</v>
+      </c>
+      <c r="D125" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>28</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F126" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" t="s">
+        <v>59</v>
+      </c>
+      <c r="H126" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>28</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C127" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G127" t="s">
+        <v>60</v>
+      </c>
+      <c r="H127" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C128" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128" t="s">
+        <v>19</v>
+      </c>
+      <c r="G128" t="s">
+        <v>62</v>
+      </c>
+      <c r="H128" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>28</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C129" t="s">
+        <v>316</v>
+      </c>
+      <c r="D129" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F129" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" t="s">
+        <v>317</v>
+      </c>
+      <c r="H129" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>28</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" t="s">
+        <v>35</v>
+      </c>
+      <c r="D130" t="s">
+        <v>29</v>
+      </c>
+      <c r="E130" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" t="s">
+      <c r="F130" t="s">
+        <v>35</v>
+      </c>
+      <c r="G130" t="s">
+        <v>63</v>
+      </c>
+      <c r="H130" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>28</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C131" t="s">
+        <v>31</v>
+      </c>
+      <c r="D131" t="s">
         <v>29</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E131" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F131" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="G131" t="s">
+        <v>48</v>
+      </c>
+      <c r="H131" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>28</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132" t="s">
         <v>29</v>
       </c>
-      <c r="G24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H24" t="s">
-        <v>39</v>
+      <c r="E132" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F132" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" t="s">
+        <v>318</v>
+      </c>
+      <c r="H132" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>28</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>29</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F133" t="s">
+        <v>8</v>
+      </c>
+      <c r="G133" t="s">
+        <v>49</v>
+      </c>
+      <c r="H133" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>28</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C134" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" t="s">
+        <v>29</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F134" t="s">
+        <v>19</v>
+      </c>
+      <c r="G134" t="s">
+        <v>50</v>
+      </c>
+      <c r="H134" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>28</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C135" t="s">
+        <v>27</v>
+      </c>
+      <c r="D135" t="s">
+        <v>29</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F135" t="s">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s">
+        <v>51</v>
+      </c>
+      <c r="H135" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="E2:E9"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="D2:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="H16:H19"/>
-    <mergeCell ref="A16:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="D16:D24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="H20:H24"/>
+  <mergeCells count="98">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A8:A20"/>
+    <mergeCell ref="B8:B20"/>
+    <mergeCell ref="D8:D20"/>
+    <mergeCell ref="E8:E20"/>
+    <mergeCell ref="H8:H20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="E21:E24"/>
+    <mergeCell ref="H21:H24"/>
+    <mergeCell ref="B25:B37"/>
+    <mergeCell ref="E25:E37"/>
+    <mergeCell ref="H25:H37"/>
+    <mergeCell ref="B38:B40"/>
+    <mergeCell ref="E38:E40"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="H41:H43"/>
+    <mergeCell ref="B44:B52"/>
+    <mergeCell ref="E44:E52"/>
+    <mergeCell ref="H44:H52"/>
+    <mergeCell ref="A21:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="H55:H56"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="D21:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="B59:B64"/>
+    <mergeCell ref="D59:D64"/>
+    <mergeCell ref="E59:E64"/>
+    <mergeCell ref="H59:H64"/>
+    <mergeCell ref="B65:B69"/>
+    <mergeCell ref="E65:E69"/>
+    <mergeCell ref="H65:H69"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="B70:B73"/>
+    <mergeCell ref="D65:D73"/>
+    <mergeCell ref="E70:E73"/>
+    <mergeCell ref="H70:H73"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="E74:E81"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="H82:H84"/>
+    <mergeCell ref="A74:A88"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="D74:D88"/>
+    <mergeCell ref="E85:E88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="H89:H90"/>
+    <mergeCell ref="B91:B93"/>
+    <mergeCell ref="E91:E93"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="E94:E96"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="H97:H99"/>
+    <mergeCell ref="B100:B102"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="A89:A105"/>
+    <mergeCell ref="B103:B105"/>
+    <mergeCell ref="D89:D105"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="E106:E110"/>
+    <mergeCell ref="A106:A119"/>
+    <mergeCell ref="B111:B119"/>
+    <mergeCell ref="D106:D119"/>
+    <mergeCell ref="E111:E119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="E120:E123"/>
+    <mergeCell ref="H120:H123"/>
+    <mergeCell ref="B125:B128"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="E125:E129"/>
+    <mergeCell ref="A120:A135"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="D120:D135"/>
+    <mergeCell ref="E130:E135"/>
+    <mergeCell ref="H130:H135"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
@@ -1517,43 +5217,261 @@
     <hyperlink ref="B5" r:id="rId7"/>
     <hyperlink ref="E5" r:id="rId8"/>
     <hyperlink ref="B6" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="B7" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
-    <hyperlink ref="B8" r:id="rId13"/>
-    <hyperlink ref="E8" r:id="rId14"/>
-    <hyperlink ref="B9" r:id="rId15"/>
-    <hyperlink ref="E9" r:id="rId16"/>
-    <hyperlink ref="B10" r:id="rId17"/>
-    <hyperlink ref="E10" r:id="rId18"/>
-    <hyperlink ref="B11" r:id="rId19"/>
-    <hyperlink ref="E11" r:id="rId20"/>
-    <hyperlink ref="B12" r:id="rId21"/>
-    <hyperlink ref="E12" r:id="rId22"/>
-    <hyperlink ref="B13" r:id="rId23"/>
-    <hyperlink ref="E13" r:id="rId24"/>
-    <hyperlink ref="B14" r:id="rId25"/>
-    <hyperlink ref="E14" r:id="rId26"/>
-    <hyperlink ref="B15" r:id="rId27"/>
-    <hyperlink ref="E15" r:id="rId28"/>
-    <hyperlink ref="B16" r:id="rId29"/>
-    <hyperlink ref="E16" r:id="rId30"/>
-    <hyperlink ref="B17" r:id="rId31"/>
-    <hyperlink ref="E17" r:id="rId32"/>
-    <hyperlink ref="B18" r:id="rId33"/>
-    <hyperlink ref="E18" r:id="rId34"/>
-    <hyperlink ref="B19" r:id="rId35"/>
-    <hyperlink ref="E19" r:id="rId36"/>
-    <hyperlink ref="B20" r:id="rId37"/>
-    <hyperlink ref="E20" r:id="rId38"/>
-    <hyperlink ref="B21" r:id="rId39"/>
-    <hyperlink ref="E21" r:id="rId40"/>
-    <hyperlink ref="B22" r:id="rId41"/>
-    <hyperlink ref="E22" r:id="rId42"/>
-    <hyperlink ref="B23" r:id="rId43"/>
-    <hyperlink ref="E23" r:id="rId44"/>
-    <hyperlink ref="B24" r:id="rId45"/>
-    <hyperlink ref="E24" r:id="rId46"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="E8" r:id="rId12"/>
+    <hyperlink ref="B9" r:id="rId13"/>
+    <hyperlink ref="E9" r:id="rId14"/>
+    <hyperlink ref="B10" r:id="rId15"/>
+    <hyperlink ref="E10" r:id="rId16"/>
+    <hyperlink ref="B11" r:id="rId17"/>
+    <hyperlink ref="E11" r:id="rId18"/>
+    <hyperlink ref="B12" r:id="rId19"/>
+    <hyperlink ref="E12" r:id="rId20"/>
+    <hyperlink ref="B13" r:id="rId21"/>
+    <hyperlink ref="E13" r:id="rId22"/>
+    <hyperlink ref="B14" r:id="rId23"/>
+    <hyperlink ref="E14" r:id="rId24"/>
+    <hyperlink ref="B15" r:id="rId25"/>
+    <hyperlink ref="E15" r:id="rId26"/>
+    <hyperlink ref="B16" r:id="rId27"/>
+    <hyperlink ref="E16" r:id="rId28"/>
+    <hyperlink ref="B17" r:id="rId29"/>
+    <hyperlink ref="E17" r:id="rId30"/>
+    <hyperlink ref="B18" r:id="rId31"/>
+    <hyperlink ref="E18" r:id="rId32"/>
+    <hyperlink ref="B19" r:id="rId33"/>
+    <hyperlink ref="E19" r:id="rId34"/>
+    <hyperlink ref="B20" r:id="rId35"/>
+    <hyperlink ref="E20" r:id="rId36"/>
+    <hyperlink ref="B21" r:id="rId37"/>
+    <hyperlink ref="E21" r:id="rId38"/>
+    <hyperlink ref="B22" r:id="rId39"/>
+    <hyperlink ref="E22" r:id="rId40"/>
+    <hyperlink ref="B23" r:id="rId41"/>
+    <hyperlink ref="E23" r:id="rId42"/>
+    <hyperlink ref="B24" r:id="rId43"/>
+    <hyperlink ref="E24" r:id="rId44"/>
+    <hyperlink ref="B25" r:id="rId45"/>
+    <hyperlink ref="E25" r:id="rId46"/>
+    <hyperlink ref="B26" r:id="rId47"/>
+    <hyperlink ref="E26" r:id="rId48"/>
+    <hyperlink ref="B27" r:id="rId49"/>
+    <hyperlink ref="E27" r:id="rId50"/>
+    <hyperlink ref="B28" r:id="rId51"/>
+    <hyperlink ref="E28" r:id="rId52"/>
+    <hyperlink ref="B29" r:id="rId53"/>
+    <hyperlink ref="E29" r:id="rId54"/>
+    <hyperlink ref="B30" r:id="rId55"/>
+    <hyperlink ref="E30" r:id="rId56"/>
+    <hyperlink ref="B31" r:id="rId57"/>
+    <hyperlink ref="E31" r:id="rId58"/>
+    <hyperlink ref="B32" r:id="rId59"/>
+    <hyperlink ref="E32" r:id="rId60"/>
+    <hyperlink ref="B33" r:id="rId61"/>
+    <hyperlink ref="E33" r:id="rId62"/>
+    <hyperlink ref="B34" r:id="rId63"/>
+    <hyperlink ref="E34" r:id="rId64"/>
+    <hyperlink ref="B35" r:id="rId65"/>
+    <hyperlink ref="E35" r:id="rId66"/>
+    <hyperlink ref="B36" r:id="rId67"/>
+    <hyperlink ref="E36" r:id="rId68"/>
+    <hyperlink ref="B37" r:id="rId69"/>
+    <hyperlink ref="E37" r:id="rId70"/>
+    <hyperlink ref="B38" r:id="rId71"/>
+    <hyperlink ref="E38" r:id="rId72"/>
+    <hyperlink ref="B39" r:id="rId73"/>
+    <hyperlink ref="E39" r:id="rId74"/>
+    <hyperlink ref="B40" r:id="rId75"/>
+    <hyperlink ref="E40" r:id="rId76"/>
+    <hyperlink ref="B41" r:id="rId77"/>
+    <hyperlink ref="E41" r:id="rId78"/>
+    <hyperlink ref="B42" r:id="rId79"/>
+    <hyperlink ref="E42" r:id="rId80"/>
+    <hyperlink ref="B43" r:id="rId81"/>
+    <hyperlink ref="E43" r:id="rId82"/>
+    <hyperlink ref="B44" r:id="rId83"/>
+    <hyperlink ref="E44" r:id="rId84"/>
+    <hyperlink ref="B45" r:id="rId85"/>
+    <hyperlink ref="E45" r:id="rId86"/>
+    <hyperlink ref="B46" r:id="rId87"/>
+    <hyperlink ref="E46" r:id="rId88"/>
+    <hyperlink ref="B47" r:id="rId89"/>
+    <hyperlink ref="E47" r:id="rId90"/>
+    <hyperlink ref="B48" r:id="rId91"/>
+    <hyperlink ref="E48" r:id="rId92"/>
+    <hyperlink ref="B49" r:id="rId93"/>
+    <hyperlink ref="E49" r:id="rId94"/>
+    <hyperlink ref="B50" r:id="rId95"/>
+    <hyperlink ref="E50" r:id="rId96"/>
+    <hyperlink ref="B51" r:id="rId97"/>
+    <hyperlink ref="E51" r:id="rId98"/>
+    <hyperlink ref="B52" r:id="rId99"/>
+    <hyperlink ref="E52" r:id="rId100"/>
+    <hyperlink ref="B53" r:id="rId101"/>
+    <hyperlink ref="E53" r:id="rId102"/>
+    <hyperlink ref="B54" r:id="rId103"/>
+    <hyperlink ref="E54" r:id="rId104"/>
+    <hyperlink ref="B55" r:id="rId105"/>
+    <hyperlink ref="E55" r:id="rId106"/>
+    <hyperlink ref="B56" r:id="rId107"/>
+    <hyperlink ref="E56" r:id="rId108"/>
+    <hyperlink ref="B57" r:id="rId109"/>
+    <hyperlink ref="E57" r:id="rId110"/>
+    <hyperlink ref="B58" r:id="rId111"/>
+    <hyperlink ref="E58" r:id="rId112"/>
+    <hyperlink ref="B59" r:id="rId113"/>
+    <hyperlink ref="E59" r:id="rId114"/>
+    <hyperlink ref="B60" r:id="rId115"/>
+    <hyperlink ref="E60" r:id="rId116"/>
+    <hyperlink ref="B61" r:id="rId117"/>
+    <hyperlink ref="E61" r:id="rId118"/>
+    <hyperlink ref="B62" r:id="rId119"/>
+    <hyperlink ref="E62" r:id="rId120"/>
+    <hyperlink ref="B63" r:id="rId121"/>
+    <hyperlink ref="E63" r:id="rId122"/>
+    <hyperlink ref="B64" r:id="rId123"/>
+    <hyperlink ref="E64" r:id="rId124"/>
+    <hyperlink ref="B65" r:id="rId125"/>
+    <hyperlink ref="E65" r:id="rId126"/>
+    <hyperlink ref="B66" r:id="rId127"/>
+    <hyperlink ref="E66" r:id="rId128"/>
+    <hyperlink ref="B67" r:id="rId129"/>
+    <hyperlink ref="E67" r:id="rId130"/>
+    <hyperlink ref="B68" r:id="rId131"/>
+    <hyperlink ref="E68" r:id="rId132"/>
+    <hyperlink ref="B69" r:id="rId133"/>
+    <hyperlink ref="E69" r:id="rId134"/>
+    <hyperlink ref="B70" r:id="rId135"/>
+    <hyperlink ref="E70" r:id="rId136"/>
+    <hyperlink ref="B71" r:id="rId137"/>
+    <hyperlink ref="E71" r:id="rId138"/>
+    <hyperlink ref="B72" r:id="rId139"/>
+    <hyperlink ref="E72" r:id="rId140"/>
+    <hyperlink ref="B73" r:id="rId141"/>
+    <hyperlink ref="E73" r:id="rId142"/>
+    <hyperlink ref="B74" r:id="rId143"/>
+    <hyperlink ref="E74" r:id="rId144"/>
+    <hyperlink ref="B75" r:id="rId145"/>
+    <hyperlink ref="E75" r:id="rId146"/>
+    <hyperlink ref="B76" r:id="rId147"/>
+    <hyperlink ref="E76" r:id="rId148"/>
+    <hyperlink ref="B77" r:id="rId149"/>
+    <hyperlink ref="E77" r:id="rId150"/>
+    <hyperlink ref="B78" r:id="rId151"/>
+    <hyperlink ref="E78" r:id="rId152"/>
+    <hyperlink ref="B79" r:id="rId153"/>
+    <hyperlink ref="E79" r:id="rId154"/>
+    <hyperlink ref="B80" r:id="rId155"/>
+    <hyperlink ref="E80" r:id="rId156"/>
+    <hyperlink ref="B81" r:id="rId157"/>
+    <hyperlink ref="E81" r:id="rId158"/>
+    <hyperlink ref="B82" r:id="rId159"/>
+    <hyperlink ref="E82" r:id="rId160"/>
+    <hyperlink ref="B83" r:id="rId161"/>
+    <hyperlink ref="E83" r:id="rId162"/>
+    <hyperlink ref="B84" r:id="rId163"/>
+    <hyperlink ref="E84" r:id="rId164"/>
+    <hyperlink ref="B85" r:id="rId165"/>
+    <hyperlink ref="E85" r:id="rId166"/>
+    <hyperlink ref="B86" r:id="rId167"/>
+    <hyperlink ref="E86" r:id="rId168"/>
+    <hyperlink ref="B87" r:id="rId169"/>
+    <hyperlink ref="E87" r:id="rId170"/>
+    <hyperlink ref="B88" r:id="rId171"/>
+    <hyperlink ref="E88" r:id="rId172"/>
+    <hyperlink ref="B89" r:id="rId173"/>
+    <hyperlink ref="B90" r:id="rId174"/>
+    <hyperlink ref="B91" r:id="rId175"/>
+    <hyperlink ref="E91" r:id="rId176"/>
+    <hyperlink ref="B92" r:id="rId177"/>
+    <hyperlink ref="E92" r:id="rId178"/>
+    <hyperlink ref="B93" r:id="rId179"/>
+    <hyperlink ref="E93" r:id="rId180"/>
+    <hyperlink ref="B94" r:id="rId181"/>
+    <hyperlink ref="E94" r:id="rId182"/>
+    <hyperlink ref="B95" r:id="rId183"/>
+    <hyperlink ref="E95" r:id="rId184"/>
+    <hyperlink ref="B96" r:id="rId185"/>
+    <hyperlink ref="E96" r:id="rId186"/>
+    <hyperlink ref="B97" r:id="rId187"/>
+    <hyperlink ref="E97" r:id="rId188"/>
+    <hyperlink ref="B98" r:id="rId189"/>
+    <hyperlink ref="E98" r:id="rId190"/>
+    <hyperlink ref="B99" r:id="rId191"/>
+    <hyperlink ref="E99" r:id="rId192"/>
+    <hyperlink ref="B100" r:id="rId193"/>
+    <hyperlink ref="E100" r:id="rId194"/>
+    <hyperlink ref="B101" r:id="rId195"/>
+    <hyperlink ref="E101" r:id="rId196"/>
+    <hyperlink ref="B102" r:id="rId197"/>
+    <hyperlink ref="E102" r:id="rId198"/>
+    <hyperlink ref="B103" r:id="rId199"/>
+    <hyperlink ref="E103" r:id="rId200"/>
+    <hyperlink ref="B104" r:id="rId201"/>
+    <hyperlink ref="E104" r:id="rId202"/>
+    <hyperlink ref="B105" r:id="rId203"/>
+    <hyperlink ref="E105" r:id="rId204"/>
+    <hyperlink ref="B106" r:id="rId205"/>
+    <hyperlink ref="E106" r:id="rId206"/>
+    <hyperlink ref="B107" r:id="rId207"/>
+    <hyperlink ref="E107" r:id="rId208"/>
+    <hyperlink ref="B108" r:id="rId209"/>
+    <hyperlink ref="E108" r:id="rId210"/>
+    <hyperlink ref="B109" r:id="rId211"/>
+    <hyperlink ref="E109" r:id="rId212"/>
+    <hyperlink ref="B110" r:id="rId213"/>
+    <hyperlink ref="E110" r:id="rId214"/>
+    <hyperlink ref="B111" r:id="rId215"/>
+    <hyperlink ref="E111" r:id="rId216"/>
+    <hyperlink ref="B112" r:id="rId217"/>
+    <hyperlink ref="E112" r:id="rId218"/>
+    <hyperlink ref="B113" r:id="rId219"/>
+    <hyperlink ref="E113" r:id="rId220"/>
+    <hyperlink ref="B114" r:id="rId221"/>
+    <hyperlink ref="E114" r:id="rId222"/>
+    <hyperlink ref="B115" r:id="rId223"/>
+    <hyperlink ref="E115" r:id="rId224"/>
+    <hyperlink ref="B116" r:id="rId225"/>
+    <hyperlink ref="E116" r:id="rId226"/>
+    <hyperlink ref="B117" r:id="rId227"/>
+    <hyperlink ref="E117" r:id="rId228"/>
+    <hyperlink ref="B118" r:id="rId229"/>
+    <hyperlink ref="E118" r:id="rId230"/>
+    <hyperlink ref="B119" r:id="rId231"/>
+    <hyperlink ref="E119" r:id="rId232"/>
+    <hyperlink ref="B120" r:id="rId233"/>
+    <hyperlink ref="E120" r:id="rId234"/>
+    <hyperlink ref="B121" r:id="rId235"/>
+    <hyperlink ref="E121" r:id="rId236"/>
+    <hyperlink ref="B122" r:id="rId237"/>
+    <hyperlink ref="E122" r:id="rId238"/>
+    <hyperlink ref="B123" r:id="rId239"/>
+    <hyperlink ref="E123" r:id="rId240"/>
+    <hyperlink ref="B124" r:id="rId241"/>
+    <hyperlink ref="E124" r:id="rId242"/>
+    <hyperlink ref="B125" r:id="rId243"/>
+    <hyperlink ref="E125" r:id="rId244"/>
+    <hyperlink ref="B126" r:id="rId245"/>
+    <hyperlink ref="E126" r:id="rId246"/>
+    <hyperlink ref="B127" r:id="rId247"/>
+    <hyperlink ref="E127" r:id="rId248"/>
+    <hyperlink ref="B128" r:id="rId249"/>
+    <hyperlink ref="E128" r:id="rId250"/>
+    <hyperlink ref="B129" r:id="rId251"/>
+    <hyperlink ref="E129" r:id="rId252"/>
+    <hyperlink ref="B130" r:id="rId253"/>
+    <hyperlink ref="E130" r:id="rId254"/>
+    <hyperlink ref="B131" r:id="rId255"/>
+    <hyperlink ref="E131" r:id="rId256"/>
+    <hyperlink ref="B132" r:id="rId257"/>
+    <hyperlink ref="E132" r:id="rId258"/>
+    <hyperlink ref="B133" r:id="rId259"/>
+    <hyperlink ref="E133" r:id="rId260"/>
+    <hyperlink ref="B134" r:id="rId261"/>
+    <hyperlink ref="E134" r:id="rId262"/>
+    <hyperlink ref="B135" r:id="rId263"/>
+    <hyperlink ref="E135" r:id="rId264"/>
   </hyperlinks>
 </worksheet>
 </file>